--- a/database/industries/siman/silam/cost/quarterly.xlsx
+++ b/database/industries/siman/silam/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\siman\silam\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A080E6-67FC-470E-B1DB-7823DEB78E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128775BE-E3E9-4FEC-BF48-184B7AD0146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -32,6 +32,21 @@
   </si>
   <si>
     <t>بهای تمام شده</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/04</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/07</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/10</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/01</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/04</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/07</t>
@@ -730,16 +745,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I215"/>
+  <dimension ref="B1:N215"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -748,8 +763,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -760,8 +780,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -772,8 +797,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -782,8 +812,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -794,8 +829,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -806,8 +846,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -816,8 +861,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -838,8 +888,23 @@
       <c r="I8" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -848,164 +913,274 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
+        <v>97212</v>
+      </c>
+      <c r="F10" s="9">
+        <v>76883</v>
+      </c>
+      <c r="G10" s="9">
+        <v>185171</v>
+      </c>
+      <c r="H10" s="9">
+        <v>162480</v>
+      </c>
+      <c r="I10" s="9">
+        <v>243017</v>
+      </c>
+      <c r="J10" s="9">
         <v>176342</v>
       </c>
-      <c r="F10" s="9">
+      <c r="K10" s="9">
         <v>161657</v>
       </c>
-      <c r="G10" s="9">
+      <c r="L10" s="9">
         <v>148091</v>
       </c>
-      <c r="H10" s="9">
+      <c r="M10" s="9">
         <v>281545</v>
       </c>
-      <c r="I10" s="9">
+      <c r="N10" s="9">
         <v>192408</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>26809</v>
+      </c>
+      <c r="F11" s="11">
+        <v>9828</v>
+      </c>
+      <c r="G11" s="11">
+        <v>62782</v>
+      </c>
+      <c r="H11" s="11">
+        <v>24965</v>
+      </c>
+      <c r="I11" s="11">
+        <v>72601</v>
+      </c>
+      <c r="J11" s="11">
         <v>14384</v>
       </c>
-      <c r="F11" s="11">
+      <c r="K11" s="11">
         <v>78019</v>
       </c>
-      <c r="G11" s="11">
+      <c r="L11" s="11">
         <v>41313</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>222271</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>34725</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
+        <v>326696</v>
+      </c>
+      <c r="F12" s="9">
+        <v>146793</v>
+      </c>
+      <c r="G12" s="9">
+        <v>415239</v>
+      </c>
+      <c r="H12" s="9">
+        <v>332602</v>
+      </c>
+      <c r="I12" s="9">
+        <v>534006</v>
+      </c>
+      <c r="J12" s="9">
         <v>380844</v>
       </c>
-      <c r="F12" s="9">
+      <c r="K12" s="9">
         <v>705274</v>
       </c>
-      <c r="G12" s="9">
+      <c r="L12" s="9">
         <v>617694</v>
       </c>
-      <c r="H12" s="9">
+      <c r="M12" s="9">
         <v>909432</v>
       </c>
-      <c r="I12" s="9">
+      <c r="N12" s="9">
         <v>668086</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="12" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
+        <v>450717</v>
+      </c>
+      <c r="F13" s="13">
+        <v>233504</v>
+      </c>
+      <c r="G13" s="13">
+        <v>663192</v>
+      </c>
+      <c r="H13" s="13">
+        <v>520047</v>
+      </c>
+      <c r="I13" s="13">
+        <v>849624</v>
+      </c>
+      <c r="J13" s="13">
         <v>571570</v>
       </c>
-      <c r="F13" s="13">
+      <c r="K13" s="13">
         <v>944950</v>
       </c>
-      <c r="G13" s="13">
+      <c r="L13" s="13">
         <v>807098</v>
       </c>
-      <c r="H13" s="13">
+      <c r="M13" s="13">
         <v>1413248</v>
       </c>
-      <c r="I13" s="13">
+      <c r="N13" s="13">
         <v>895219</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="8" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
+        <v>7263</v>
+      </c>
+      <c r="F14" s="9">
+        <v>-26636</v>
+      </c>
+      <c r="G14" s="9">
+        <v>-27940</v>
+      </c>
+      <c r="H14" s="9">
+        <v>-7881</v>
+      </c>
+      <c r="I14" s="9">
+        <v>-39053</v>
+      </c>
+      <c r="J14" s="9">
         <v>-5373</v>
       </c>
-      <c r="F14" s="9">
+      <c r="K14" s="9">
         <v>-24490</v>
       </c>
-      <c r="G14" s="9">
-        <v>0</v>
-      </c>
-      <c r="H14" s="9">
+      <c r="L14" s="9">
+        <v>0</v>
+      </c>
+      <c r="M14" s="9">
         <v>-94804</v>
       </c>
-      <c r="I14" s="9">
+      <c r="N14" s="9">
         <v>18273</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>457980</v>
+      </c>
+      <c r="F15" s="13">
+        <v>206868</v>
+      </c>
+      <c r="G15" s="13">
+        <v>635252</v>
+      </c>
+      <c r="H15" s="13">
+        <v>512166</v>
+      </c>
+      <c r="I15" s="13">
+        <v>810571</v>
+      </c>
+      <c r="J15" s="13">
         <v>566197</v>
       </c>
-      <c r="F15" s="13">
+      <c r="K15" s="13">
         <v>920460</v>
       </c>
-      <c r="G15" s="13">
+      <c r="L15" s="13">
         <v>807098</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1318444</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>913492</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
+        <v>-54293</v>
+      </c>
+      <c r="F16" s="9">
+        <v>157631</v>
+      </c>
+      <c r="G16" s="9">
+        <v>-187513</v>
+      </c>
+      <c r="H16" s="9">
+        <v>-73160</v>
+      </c>
+      <c r="I16" s="9">
+        <v>-87143</v>
+      </c>
+      <c r="J16" s="9">
         <v>-20986</v>
       </c>
-      <c r="F16" s="9">
+      <c r="K16" s="9">
         <v>-209302</v>
       </c>
-      <c r="G16" s="9">
+      <c r="L16" s="9">
         <v>-62777</v>
       </c>
-      <c r="H16" s="9">
+      <c r="M16" s="9">
         <v>-307805</v>
       </c>
-      <c r="I16" s="9">
+      <c r="N16" s="9">
         <v>-138140</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
@@ -1024,32 +1199,62 @@
       <c r="I17" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="11">
+        <v>0</v>
+      </c>
+      <c r="K17" s="11">
+        <v>0</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
+        <v>0</v>
+      </c>
+      <c r="N17" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="14" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
+        <v>403687</v>
+      </c>
+      <c r="F18" s="15">
+        <v>364499</v>
+      </c>
+      <c r="G18" s="15">
+        <v>447739</v>
+      </c>
+      <c r="H18" s="15">
+        <v>439006</v>
+      </c>
+      <c r="I18" s="15">
+        <v>723428</v>
+      </c>
+      <c r="J18" s="15">
         <v>545211</v>
       </c>
-      <c r="F18" s="15">
+      <c r="K18" s="15">
         <v>711158</v>
       </c>
-      <c r="G18" s="15">
+      <c r="L18" s="15">
         <v>744321</v>
       </c>
-      <c r="H18" s="15">
+      <c r="M18" s="15">
         <v>1010639</v>
       </c>
-      <c r="I18" s="15">
+      <c r="N18" s="15">
         <v>775352</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
@@ -1057,65 +1262,110 @@
         <v>0</v>
       </c>
       <c r="F19" s="11">
+        <v>0</v>
+      </c>
+      <c r="G19" s="11">
+        <v>0</v>
+      </c>
+      <c r="H19" s="11">
+        <v>57066</v>
+      </c>
+      <c r="I19" s="11">
+        <v>0</v>
+      </c>
+      <c r="J19" s="11">
+        <v>0</v>
+      </c>
+      <c r="K19" s="11">
         <v>82767</v>
       </c>
-      <c r="G19" s="11">
+      <c r="L19" s="11">
         <v>59005</v>
       </c>
-      <c r="H19" s="11">
-        <v>0</v>
-      </c>
-      <c r="I19" s="11">
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>23182</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
+        <v>-3533</v>
+      </c>
+      <c r="F20" s="9">
+        <v>5158</v>
+      </c>
+      <c r="G20" s="9">
+        <v>-9918</v>
+      </c>
+      <c r="H20" s="9">
+        <v>-48073</v>
+      </c>
+      <c r="I20" s="9">
+        <v>-1646</v>
+      </c>
+      <c r="J20" s="9">
         <v>-82767</v>
       </c>
-      <c r="F20" s="9">
+      <c r="K20" s="9">
         <v>-721669</v>
       </c>
-      <c r="G20" s="9">
+      <c r="L20" s="9">
         <v>-87907</v>
       </c>
-      <c r="H20" s="9">
+      <c r="M20" s="9">
         <v>23182</v>
       </c>
-      <c r="I20" s="9">
+      <c r="N20" s="9">
         <v>-755644</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="12" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
+        <v>400154</v>
+      </c>
+      <c r="F21" s="13">
+        <v>369657</v>
+      </c>
+      <c r="G21" s="13">
+        <v>437821</v>
+      </c>
+      <c r="H21" s="13">
+        <v>447999</v>
+      </c>
+      <c r="I21" s="13">
+        <v>721782</v>
+      </c>
+      <c r="J21" s="13">
         <v>462444</v>
       </c>
-      <c r="F21" s="13">
+      <c r="K21" s="13">
         <v>784639</v>
       </c>
-      <c r="G21" s="13">
+      <c r="L21" s="13">
         <v>715419</v>
       </c>
-      <c r="H21" s="13">
+      <c r="M21" s="13">
         <v>1033821</v>
       </c>
-      <c r="I21" s="13">
+      <c r="N21" s="13">
         <v>747097</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1134,30 +1384,60 @@
       <c r="I22" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="9">
+        <v>0</v>
+      </c>
+      <c r="K22" s="9">
+        <v>0</v>
+      </c>
+      <c r="L22" s="9">
+        <v>0</v>
+      </c>
+      <c r="M22" s="9">
+        <v>0</v>
+      </c>
+      <c r="N22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
+        <v>400154</v>
+      </c>
+      <c r="F23" s="13">
+        <v>369657</v>
+      </c>
+      <c r="G23" s="13">
+        <v>437821</v>
+      </c>
+      <c r="H23" s="13">
+        <v>447999</v>
+      </c>
+      <c r="I23" s="13">
+        <v>721782</v>
+      </c>
+      <c r="J23" s="13">
         <v>462444</v>
       </c>
-      <c r="F23" s="13">
+      <c r="K23" s="13">
         <v>784639</v>
       </c>
-      <c r="G23" s="13">
+      <c r="L23" s="13">
         <v>715419</v>
       </c>
-      <c r="H23" s="13">
+      <c r="M23" s="13">
         <v>1033821</v>
       </c>
-      <c r="I23" s="13">
+      <c r="N23" s="13">
         <v>747097</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1166,8 +1446,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1176,8 +1461,13 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1186,10 +1476,15 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-    </row>
-    <row r="27" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
@@ -1208,8 +1503,23 @@
       <c r="I27" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K27" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L27" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N27" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1218,116 +1528,181 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1"/>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
+        <v>16330</v>
+      </c>
+      <c r="F29" s="9">
+        <v>5347</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1471</v>
+      </c>
+      <c r="H29" s="9">
+        <v>6148</v>
+      </c>
+      <c r="I29" s="9">
+        <v>25778</v>
+      </c>
+      <c r="J29" s="9">
         <v>16186</v>
       </c>
-      <c r="F29" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" s="9">
+      <c r="K29" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L29" s="9">
         <v>21450</v>
       </c>
-      <c r="H29" s="9">
+      <c r="M29" s="9">
         <v>2946</v>
       </c>
-      <c r="I29" s="9">
+      <c r="N29" s="9">
         <v>21217</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
+        <v>331969</v>
+      </c>
+      <c r="F30" s="11">
+        <v>123489</v>
+      </c>
+      <c r="G30" s="11">
+        <v>506385</v>
+      </c>
+      <c r="H30" s="11">
+        <v>568219</v>
+      </c>
+      <c r="I30" s="11">
+        <v>236006</v>
+      </c>
+      <c r="J30" s="11">
         <v>299594</v>
       </c>
-      <c r="F30" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G30" s="11">
+      <c r="K30" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L30" s="11">
         <v>599358</v>
       </c>
-      <c r="H30" s="11">
+      <c r="M30" s="11">
         <v>366596</v>
       </c>
-      <c r="I30" s="11">
+      <c r="N30" s="11">
         <v>426231</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
+        <v>11656</v>
+      </c>
+      <c r="F31" s="9">
+        <v>16102</v>
+      </c>
+      <c r="G31" s="9">
+        <v>17704</v>
+      </c>
+      <c r="H31" s="9">
+        <v>5020</v>
+      </c>
+      <c r="I31" s="9">
+        <v>946</v>
+      </c>
+      <c r="J31" s="9">
         <v>7275</v>
       </c>
-      <c r="F31" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="9">
+      <c r="K31" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L31" s="9">
         <v>10903</v>
       </c>
-      <c r="H31" s="9">
+      <c r="M31" s="9">
         <v>50920</v>
       </c>
-      <c r="I31" s="9">
+      <c r="N31" s="9">
         <v>46886</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>10398</v>
+      </c>
+      <c r="F32" s="11">
+        <v>8020</v>
+      </c>
+      <c r="G32" s="11">
+        <v>4718</v>
+      </c>
+      <c r="H32" s="11">
+        <v>4644</v>
+      </c>
+      <c r="I32" s="11">
+        <v>4104</v>
+      </c>
+      <c r="J32" s="11">
         <v>1307</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L32" s="11">
         <v>2890</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>5469</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>18325</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9">
         <v>11659</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>26</v>
+      <c r="F33" s="9">
+        <v>11659</v>
       </c>
       <c r="G33" s="9">
         <v>11659</v>
@@ -1338,102 +1713,177 @@
       <c r="I33" s="9">
         <v>11659</v>
       </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="9">
+        <v>11659</v>
+      </c>
+      <c r="K33" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L33" s="9">
+        <v>11659</v>
+      </c>
+      <c r="M33" s="9">
+        <v>11659</v>
+      </c>
+      <c r="N33" s="9">
+        <v>11659</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>0</v>
-      </c>
-      <c r="F34" s="11" t="s">
-        <v>26</v>
+        <v>302369</v>
+      </c>
+      <c r="F34" s="11">
+        <v>92451</v>
       </c>
       <c r="G34" s="11">
+        <v>370986</v>
+      </c>
+      <c r="H34" s="11">
+        <v>0</v>
+      </c>
+      <c r="I34" s="11">
+        <v>0</v>
+      </c>
+      <c r="J34" s="11">
+        <v>0</v>
+      </c>
+      <c r="K34" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L34" s="11">
         <v>1680490</v>
       </c>
-      <c r="H34" s="11">
+      <c r="M34" s="11">
         <v>1741090</v>
       </c>
-      <c r="I34" s="11">
+      <c r="N34" s="11">
         <v>4319210</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
+        <v>12043</v>
+      </c>
+      <c r="F35" s="9">
+        <v>6992</v>
+      </c>
+      <c r="G35" s="9">
+        <v>8669</v>
+      </c>
+      <c r="H35" s="9">
+        <v>50662</v>
+      </c>
+      <c r="I35" s="9">
+        <v>155298</v>
+      </c>
+      <c r="J35" s="9">
         <v>149580</v>
       </c>
-      <c r="F35" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" s="9">
+      <c r="K35" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L35" s="9">
         <v>94191</v>
       </c>
-      <c r="H35" s="9">
+      <c r="M35" s="9">
         <v>80023</v>
       </c>
-      <c r="I35" s="9">
+      <c r="N35" s="9">
         <v>14701</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C36" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F36" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G36" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H36" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H36" s="11">
+        <v>0</v>
       </c>
       <c r="I36" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
+        <v>696424</v>
+      </c>
+      <c r="F37" s="15">
+        <v>264060</v>
+      </c>
+      <c r="G37" s="15">
+        <v>921592</v>
+      </c>
+      <c r="H37" s="15">
+        <v>646352</v>
+      </c>
+      <c r="I37" s="15">
+        <v>433791</v>
+      </c>
+      <c r="J37" s="15">
         <v>485601</v>
       </c>
-      <c r="F37" s="15">
-        <v>0</v>
-      </c>
-      <c r="G37" s="15">
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15">
         <v>2420941</v>
       </c>
-      <c r="H37" s="15">
+      <c r="M37" s="15">
         <v>2258703</v>
       </c>
-      <c r="I37" s="15">
+      <c r="N37" s="15">
         <v>4858229</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1442,8 +1892,13 @@
       <c r="G38" s="1"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1452,8 +1907,13 @@
       <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1462,10 +1922,15 @@
       <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
-    </row>
-    <row r="41" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B41" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
@@ -1484,8 +1949,23 @@
       <c r="I41" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L41" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M41" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N41" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1494,109 +1974,174 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
+        <v>5178</v>
+      </c>
+      <c r="F43" s="9">
+        <v>4391</v>
+      </c>
+      <c r="G43" s="9">
+        <v>20279</v>
+      </c>
+      <c r="H43" s="9">
+        <v>35520</v>
+      </c>
+      <c r="I43" s="9">
+        <v>4000</v>
+      </c>
+      <c r="J43" s="9">
         <v>21354</v>
       </c>
-      <c r="F43" s="9">
+      <c r="K43" s="9">
         <v>19235</v>
       </c>
-      <c r="G43" s="9">
+      <c r="L43" s="9">
         <v>5488</v>
       </c>
-      <c r="H43" s="9">
+      <c r="M43" s="9">
         <v>43064</v>
       </c>
-      <c r="I43" s="9">
+      <c r="N43" s="9">
         <v>36020</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C44" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
+        <v>177506</v>
+      </c>
+      <c r="F44" s="11">
+        <v>617413</v>
+      </c>
+      <c r="G44" s="11">
+        <v>221770</v>
+      </c>
+      <c r="H44" s="11">
+        <v>0</v>
+      </c>
+      <c r="I44" s="11">
+        <v>508230</v>
+      </c>
+      <c r="J44" s="11">
         <v>691208</v>
       </c>
-      <c r="F44" s="11">
+      <c r="K44" s="11">
         <v>370216</v>
       </c>
-      <c r="G44" s="11">
+      <c r="L44" s="11">
         <v>53376</v>
       </c>
-      <c r="H44" s="11">
+      <c r="M44" s="11">
         <v>441231</v>
       </c>
-      <c r="I44" s="11">
+      <c r="N44" s="11">
         <v>736206</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
+        <v>11978</v>
+      </c>
+      <c r="F45" s="9">
+        <v>7992</v>
+      </c>
+      <c r="G45" s="9">
+        <v>118</v>
+      </c>
+      <c r="H45" s="9">
+        <v>0</v>
+      </c>
+      <c r="I45" s="9">
+        <v>15719</v>
+      </c>
+      <c r="J45" s="9">
         <v>4551</v>
       </c>
-      <c r="F45" s="9">
+      <c r="K45" s="9">
         <v>15748</v>
       </c>
-      <c r="G45" s="9">
+      <c r="L45" s="9">
         <v>43599</v>
       </c>
-      <c r="H45" s="9">
+      <c r="M45" s="9">
         <v>-1</v>
       </c>
-      <c r="I45" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C46" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
+        <v>12208</v>
+      </c>
+      <c r="F46" s="11">
+        <v>6178</v>
+      </c>
+      <c r="G46" s="11">
+        <v>6720</v>
+      </c>
+      <c r="H46" s="11">
+        <v>5743</v>
+      </c>
+      <c r="I46" s="11">
+        <v>4915</v>
+      </c>
+      <c r="J46" s="11">
         <v>8768</v>
       </c>
-      <c r="F46" s="11">
+      <c r="K46" s="11">
         <v>9417</v>
       </c>
-      <c r="G46" s="11">
+      <c r="L46" s="11">
         <v>11604</v>
       </c>
-      <c r="H46" s="11">
+      <c r="M46" s="11">
         <v>24501</v>
       </c>
-      <c r="I46" s="11">
+      <c r="N46" s="11">
         <v>21173</v>
       </c>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C47" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D47" s="9"/>
       <c r="E47" s="9">
@@ -1614,102 +2159,177 @@
       <c r="I47" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="9">
+        <v>0</v>
+      </c>
+      <c r="K47" s="9">
+        <v>0</v>
+      </c>
+      <c r="L47" s="9">
+        <v>0</v>
+      </c>
+      <c r="M47" s="9">
+        <v>0</v>
+      </c>
+      <c r="N47" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
+        <v>3494996</v>
+      </c>
+      <c r="F48" s="11">
+        <v>1336005</v>
+      </c>
+      <c r="G48" s="11">
+        <v>3061232</v>
+      </c>
+      <c r="H48" s="11">
+        <v>2768920</v>
+      </c>
+      <c r="I48" s="11">
+        <v>2771730</v>
+      </c>
+      <c r="J48" s="11">
         <v>1943050</v>
       </c>
-      <c r="F48" s="11">
+      <c r="K48" s="11">
         <v>3133850</v>
       </c>
-      <c r="G48" s="11">
+      <c r="L48" s="11">
         <v>1345000</v>
       </c>
-      <c r="H48" s="11">
+      <c r="M48" s="11">
         <v>4502340</v>
       </c>
-      <c r="I48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N48" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
+        <v>30855</v>
+      </c>
+      <c r="F49" s="9">
+        <v>18339</v>
+      </c>
+      <c r="G49" s="9">
+        <v>78735</v>
+      </c>
+      <c r="H49" s="9">
+        <v>120593</v>
+      </c>
+      <c r="I49" s="9">
+        <v>25649</v>
+      </c>
+      <c r="J49" s="9">
         <v>-1</v>
       </c>
-      <c r="F49" s="9">
+      <c r="K49" s="9">
         <v>486</v>
       </c>
-      <c r="G49" s="9">
+      <c r="L49" s="9">
         <v>24571</v>
       </c>
-      <c r="H49" s="9">
+      <c r="M49" s="9">
         <v>-18178</v>
       </c>
-      <c r="I49" s="9">
+      <c r="N49" s="9">
         <v>69839</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D50" s="11"/>
       <c r="E50" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F50" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G50" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H50" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H50" s="11">
+        <v>0</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
+        <v>3732721</v>
+      </c>
+      <c r="F51" s="15">
+        <v>1990318</v>
+      </c>
+      <c r="G51" s="15">
+        <v>3388854</v>
+      </c>
+      <c r="H51" s="15">
+        <v>2930776</v>
+      </c>
+      <c r="I51" s="15">
+        <v>3330243</v>
+      </c>
+      <c r="J51" s="15">
         <v>2668930</v>
       </c>
-      <c r="F51" s="15">
+      <c r="K51" s="15">
         <v>3548952</v>
       </c>
-      <c r="G51" s="15">
+      <c r="L51" s="15">
         <v>1483638</v>
       </c>
-      <c r="H51" s="15">
+      <c r="M51" s="15">
         <v>4992957</v>
       </c>
-      <c r="I51" s="15">
+      <c r="N51" s="15">
         <v>863238</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1718,8 +2338,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1728,8 +2353,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1738,10 +2368,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1760,8 +2395,23 @@
       <c r="I55" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1770,109 +2420,174 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
+        <v>16331</v>
+      </c>
+      <c r="F57" s="9">
+        <v>8097</v>
+      </c>
+      <c r="G57" s="9">
+        <v>15602</v>
+      </c>
+      <c r="H57" s="9">
+        <v>15890</v>
+      </c>
+      <c r="I57" s="9">
+        <v>13592</v>
+      </c>
+      <c r="J57" s="9">
         <v>12554</v>
       </c>
-      <c r="F57" s="9">
+      <c r="K57" s="9">
         <v>22771</v>
       </c>
-      <c r="G57" s="9">
+      <c r="L57" s="9">
         <v>23992</v>
       </c>
-      <c r="H57" s="9">
+      <c r="M57" s="9">
         <v>24793</v>
       </c>
-      <c r="I57" s="9">
+      <c r="N57" s="9">
         <v>26246</v>
       </c>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>390867</v>
+      </c>
+      <c r="F58" s="11">
+        <v>229636</v>
+      </c>
+      <c r="G58" s="11">
+        <v>336601</v>
+      </c>
+      <c r="H58" s="11">
+        <v>332213</v>
+      </c>
+      <c r="I58" s="11">
+        <v>444642</v>
+      </c>
+      <c r="J58" s="11">
         <v>360441</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>401219</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>286138</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>381596</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>306375</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C59" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
+        <v>7530</v>
+      </c>
+      <c r="F59" s="9">
+        <v>6392</v>
+      </c>
+      <c r="G59" s="9">
+        <v>12802</v>
+      </c>
+      <c r="H59" s="9">
+        <v>4074</v>
+      </c>
+      <c r="I59" s="9">
+        <v>9390</v>
+      </c>
+      <c r="J59" s="9">
         <v>8571</v>
       </c>
-      <c r="F59" s="9">
+      <c r="K59" s="9">
         <v>8100</v>
       </c>
-      <c r="G59" s="9">
+      <c r="L59" s="9">
         <v>3582</v>
       </c>
-      <c r="H59" s="9">
+      <c r="M59" s="9">
         <v>4033</v>
       </c>
-      <c r="I59" s="9">
+      <c r="N59" s="9">
         <v>7121</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
+        <v>14502</v>
+      </c>
+      <c r="F60" s="11">
+        <v>9564</v>
+      </c>
+      <c r="G60" s="11">
+        <v>6794</v>
+      </c>
+      <c r="H60" s="11">
+        <v>6283</v>
+      </c>
+      <c r="I60" s="11">
+        <v>7712</v>
+      </c>
+      <c r="J60" s="11">
         <v>5897</v>
       </c>
-      <c r="F60" s="11">
+      <c r="K60" s="11">
         <v>10705</v>
       </c>
-      <c r="G60" s="11">
+      <c r="L60" s="11">
         <v>9025</v>
       </c>
-      <c r="H60" s="11">
+      <c r="M60" s="11">
         <v>11645</v>
       </c>
-      <c r="I60" s="11">
+      <c r="N60" s="11">
         <v>11037</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C61" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C61" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D61" s="9"/>
       <c r="E61" s="9">
@@ -1890,102 +2605,177 @@
       <c r="I61" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="9">
+        <v>0</v>
+      </c>
+      <c r="K61" s="9">
+        <v>0</v>
+      </c>
+      <c r="L61" s="9">
+        <v>0</v>
+      </c>
+      <c r="M61" s="9">
+        <v>0</v>
+      </c>
+      <c r="N61" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
+        <v>3493332</v>
+      </c>
+      <c r="F62" s="11">
+        <v>1269052</v>
+      </c>
+      <c r="G62" s="11">
+        <v>3321568</v>
+      </c>
+      <c r="H62" s="11">
+        <v>2768920</v>
+      </c>
+      <c r="I62" s="11">
+        <v>2569680</v>
+      </c>
+      <c r="J62" s="11">
         <v>2145100</v>
       </c>
-      <c r="F62" s="11">
+      <c r="K62" s="11">
         <v>1708860</v>
       </c>
-      <c r="G62" s="11">
+      <c r="L62" s="11">
         <v>1284400</v>
       </c>
-      <c r="H62" s="11">
+      <c r="M62" s="11">
         <v>1924220</v>
       </c>
-      <c r="I62" s="11">
+      <c r="N62" s="11">
         <v>1426920</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C63" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
+        <v>36347</v>
+      </c>
+      <c r="F63" s="9">
+        <v>16221</v>
+      </c>
+      <c r="G63" s="9">
+        <v>22812</v>
+      </c>
+      <c r="H63" s="9">
+        <v>15957</v>
+      </c>
+      <c r="I63" s="9">
+        <v>31367</v>
+      </c>
+      <c r="J63" s="9">
         <v>8825</v>
       </c>
-      <c r="F63" s="9">
+      <c r="K63" s="9">
         <v>47049</v>
       </c>
-      <c r="G63" s="9">
+      <c r="L63" s="9">
         <v>38739</v>
       </c>
-      <c r="H63" s="9">
+      <c r="M63" s="9">
         <v>47144</v>
       </c>
-      <c r="I63" s="9">
+      <c r="N63" s="9">
         <v>56427</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D64" s="11"/>
       <c r="E64" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G64" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H64" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H64" s="11">
+        <v>0</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
+        <v>3958909</v>
+      </c>
+      <c r="F65" s="15">
+        <v>1538962</v>
+      </c>
+      <c r="G65" s="15">
+        <v>3716179</v>
+      </c>
+      <c r="H65" s="15">
+        <v>3143337</v>
+      </c>
+      <c r="I65" s="15">
+        <v>3076383</v>
+      </c>
+      <c r="J65" s="15">
         <v>2541388</v>
       </c>
-      <c r="F65" s="15">
+      <c r="K65" s="15">
         <v>2198704</v>
       </c>
-      <c r="G65" s="15">
+      <c r="L65" s="15">
         <v>1645876</v>
       </c>
-      <c r="H65" s="15">
+      <c r="M65" s="15">
         <v>2393431</v>
       </c>
-      <c r="I65" s="15">
+      <c r="N65" s="15">
         <v>1834126</v>
       </c>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1994,8 +2784,13 @@
       <c r="G66" s="1"/>
       <c r="H66" s="1"/>
       <c r="I66" s="1"/>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1"/>
+      <c r="K66" s="1"/>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2004,8 +2799,13 @@
       <c r="G67" s="1"/>
       <c r="H67" s="1"/>
       <c r="I67" s="1"/>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1"/>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2014,10 +2814,15 @@
       <c r="G68" s="1"/>
       <c r="H68" s="1"/>
       <c r="I68" s="1"/>
-    </row>
-    <row r="69" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J68" s="1"/>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B69" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
@@ -2036,8 +2841,23 @@
       <c r="I69" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K69" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L69" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M69" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N69" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2046,109 +2866,174 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
+        <v>5177</v>
+      </c>
+      <c r="F71" s="9">
+        <v>1471</v>
+      </c>
+      <c r="G71" s="9">
+        <v>6148</v>
+      </c>
+      <c r="H71" s="9">
+        <v>25778</v>
+      </c>
+      <c r="I71" s="9">
+        <v>16186</v>
+      </c>
+      <c r="J71" s="9">
         <v>24986</v>
       </c>
-      <c r="F71" s="9">
+      <c r="K71" s="9">
         <v>21450</v>
       </c>
-      <c r="G71" s="9">
+      <c r="L71" s="9">
         <v>2946</v>
       </c>
-      <c r="H71" s="9">
+      <c r="M71" s="9">
         <v>21217</v>
       </c>
-      <c r="I71" s="9">
+      <c r="N71" s="9">
         <v>30991</v>
       </c>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C72" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
+        <v>118608</v>
+      </c>
+      <c r="F72" s="11">
+        <v>506385</v>
+      </c>
+      <c r="G72" s="11">
+        <v>391554</v>
+      </c>
+      <c r="H72" s="11">
+        <v>236006</v>
+      </c>
+      <c r="I72" s="11">
+        <v>299594</v>
+      </c>
+      <c r="J72" s="11">
         <v>630361</v>
       </c>
-      <c r="F72" s="11">
+      <c r="K72" s="11">
         <v>599358</v>
       </c>
-      <c r="G72" s="11">
+      <c r="L72" s="11">
         <v>366596</v>
       </c>
-      <c r="H72" s="11">
+      <c r="M72" s="11">
         <v>426231</v>
       </c>
-      <c r="I72" s="11">
+      <c r="N72" s="11">
         <v>856062</v>
       </c>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
+        <v>16104</v>
+      </c>
+      <c r="F73" s="9">
+        <v>17704</v>
+      </c>
+      <c r="G73" s="9">
+        <v>5020</v>
+      </c>
+      <c r="H73" s="9">
+        <v>946</v>
+      </c>
+      <c r="I73" s="9">
+        <v>7275</v>
+      </c>
+      <c r="J73" s="9">
         <v>3255</v>
       </c>
-      <c r="F73" s="9">
+      <c r="K73" s="9">
         <v>10903</v>
       </c>
-      <c r="G73" s="9">
+      <c r="L73" s="9">
         <v>50920</v>
       </c>
-      <c r="H73" s="9">
+      <c r="M73" s="9">
         <v>46886</v>
       </c>
-      <c r="I73" s="9">
+      <c r="N73" s="9">
         <v>39765</v>
       </c>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
+        <v>8104</v>
+      </c>
+      <c r="F74" s="11">
+        <v>4718</v>
+      </c>
+      <c r="G74" s="11">
+        <v>4644</v>
+      </c>
+      <c r="H74" s="11">
+        <v>4104</v>
+      </c>
+      <c r="I74" s="11">
+        <v>1307</v>
+      </c>
+      <c r="J74" s="11">
         <v>4178</v>
       </c>
-      <c r="F74" s="11">
+      <c r="K74" s="11">
         <v>2890</v>
       </c>
-      <c r="G74" s="11">
+      <c r="L74" s="11">
         <v>5469</v>
       </c>
-      <c r="H74" s="11">
+      <c r="M74" s="11">
         <v>18325</v>
       </c>
-      <c r="I74" s="11">
+      <c r="N74" s="11">
         <v>28461</v>
       </c>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C75" s="9" t="s">
         <v>30</v>
-      </c>
-      <c r="C75" s="9" t="s">
-        <v>25</v>
       </c>
       <c r="D75" s="9"/>
       <c r="E75" s="9">
@@ -2166,102 +3051,177 @@
       <c r="I75" s="9">
         <v>11659</v>
       </c>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9">
+        <v>11659</v>
+      </c>
+      <c r="K75" s="9">
+        <v>11659</v>
+      </c>
+      <c r="L75" s="9">
+        <v>11659</v>
+      </c>
+      <c r="M75" s="9">
+        <v>11659</v>
+      </c>
+      <c r="N75" s="9">
+        <v>11659</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>0</v>
+        <v>304033</v>
       </c>
       <c r="F76" s="11">
+        <v>370986</v>
+      </c>
+      <c r="G76" s="11">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
+        <v>0</v>
+      </c>
+      <c r="I76" s="11">
+        <v>457550</v>
+      </c>
+      <c r="J76" s="11">
+        <v>0</v>
+      </c>
+      <c r="K76" s="11">
         <v>1680490</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>1741090</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>4319210</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>2892290</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C77" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
+        <v>6551</v>
+      </c>
+      <c r="F77" s="9">
+        <v>8669</v>
+      </c>
+      <c r="G77" s="9">
+        <v>64592</v>
+      </c>
+      <c r="H77" s="9">
+        <v>155298</v>
+      </c>
+      <c r="I77" s="9">
+        <v>149580</v>
+      </c>
+      <c r="J77" s="9">
         <v>140754</v>
       </c>
-      <c r="F77" s="9">
+      <c r="K77" s="9">
         <v>94191</v>
       </c>
-      <c r="G77" s="9">
+      <c r="L77" s="9">
         <v>80023</v>
       </c>
-      <c r="H77" s="9">
+      <c r="M77" s="9">
         <v>14701</v>
       </c>
-      <c r="I77" s="9">
+      <c r="N77" s="9">
         <v>28113</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C78" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D78" s="11"/>
       <c r="E78" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G78" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H78" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H78" s="11">
+        <v>0</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M78" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
+        <v>470236</v>
+      </c>
+      <c r="F79" s="15">
+        <v>921592</v>
+      </c>
+      <c r="G79" s="15">
+        <v>483617</v>
+      </c>
+      <c r="H79" s="15">
+        <v>433791</v>
+      </c>
+      <c r="I79" s="15">
+        <v>943151</v>
+      </c>
+      <c r="J79" s="15">
         <v>815193</v>
       </c>
-      <c r="F79" s="15">
+      <c r="K79" s="15">
         <v>2420941</v>
       </c>
-      <c r="G79" s="15">
+      <c r="L79" s="15">
         <v>2258703</v>
       </c>
-      <c r="H79" s="15">
+      <c r="M79" s="15">
         <v>4858229</v>
       </c>
-      <c r="I79" s="15">
+      <c r="N79" s="15">
         <v>3887341</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -2270,8 +3230,13 @@
       <c r="G80" s="1"/>
       <c r="H80" s="1"/>
       <c r="I80" s="1"/>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1"/>
+      <c r="K80" s="1"/>
+      <c r="L80" s="1"/>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -2280,8 +3245,13 @@
       <c r="G81" s="1"/>
       <c r="H81" s="1"/>
       <c r="I81" s="1"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="1"/>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -2290,10 +3260,15 @@
       <c r="G82" s="1"/>
       <c r="H82" s="1"/>
       <c r="I82" s="1"/>
-    </row>
-    <row r="83" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J82" s="1"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="1"/>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B83" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
@@ -2312,8 +3287,23 @@
       <c r="I83" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K83" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L83" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M83" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N83" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -2322,116 +3312,181 @@
       <c r="G84" s="1"/>
       <c r="H84" s="1"/>
       <c r="I84" s="1"/>
-    </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="1"/>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
+        <v>4215</v>
+      </c>
+      <c r="F85" s="9">
+        <v>1340</v>
+      </c>
+      <c r="G85" s="9">
+        <v>899</v>
+      </c>
+      <c r="H85" s="9">
+        <v>2881</v>
+      </c>
+      <c r="I85" s="9">
+        <v>12964</v>
+      </c>
+      <c r="J85" s="9">
         <v>6822</v>
       </c>
-      <c r="F85" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" s="9">
+      <c r="K85" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L85" s="9">
         <v>13269</v>
       </c>
-      <c r="H85" s="9">
+      <c r="M85" s="9">
         <v>1822</v>
       </c>
-      <c r="I85" s="9">
+      <c r="N85" s="9">
         <v>20332</v>
       </c>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C86" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
+        <v>21038</v>
+      </c>
+      <c r="F86" s="11">
+        <v>7705</v>
+      </c>
+      <c r="G86" s="11">
+        <v>20007</v>
+      </c>
+      <c r="H86" s="11">
+        <v>51146</v>
+      </c>
+      <c r="I86" s="11">
+        <v>14299</v>
+      </c>
+      <c r="J86" s="11">
         <v>38561</v>
       </c>
-      <c r="F86" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G86" s="11">
+      <c r="K86" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L86" s="11">
         <v>68799</v>
       </c>
-      <c r="H86" s="11">
+      <c r="M86" s="11">
         <v>47967</v>
       </c>
-      <c r="I86" s="11">
+      <c r="N86" s="11">
         <v>71898</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C87" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
+        <v>1839</v>
+      </c>
+      <c r="F87" s="9">
+        <v>4919</v>
+      </c>
+      <c r="G87" s="9">
+        <v>7235</v>
+      </c>
+      <c r="H87" s="9">
+        <v>1848</v>
+      </c>
+      <c r="I87" s="9">
+        <v>339</v>
+      </c>
+      <c r="J87" s="9">
         <v>3966</v>
       </c>
-      <c r="F87" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" s="9">
+      <c r="K87" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L87" s="9">
         <v>6540</v>
       </c>
-      <c r="H87" s="9">
+      <c r="M87" s="9">
         <v>40554</v>
       </c>
-      <c r="I87" s="9">
+      <c r="N87" s="9">
         <v>37506</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
+        <v>14567</v>
+      </c>
+      <c r="F88" s="11">
+        <v>10117</v>
+      </c>
+      <c r="G88" s="11">
+        <v>5715</v>
+      </c>
+      <c r="H88" s="11">
+        <v>6919</v>
+      </c>
+      <c r="I88" s="11">
+        <v>10678</v>
+      </c>
+      <c r="J88" s="11">
         <v>3179</v>
       </c>
-      <c r="F88" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" s="11">
+      <c r="K88" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" s="11">
         <v>11509</v>
       </c>
-      <c r="H88" s="11">
+      <c r="M88" s="11">
         <v>23608</v>
       </c>
-      <c r="I88" s="11">
+      <c r="N88" s="11">
         <v>105729</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C89" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D89" s="9"/>
       <c r="E89" s="9">
         <v>1633</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>26</v>
+      <c r="F89" s="9">
+        <v>1633</v>
       </c>
       <c r="G89" s="9">
         <v>1633</v>
@@ -2442,102 +3497,177 @@
       <c r="I89" s="9">
         <v>1633</v>
       </c>
-    </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="9">
+        <v>1633</v>
+      </c>
+      <c r="K89" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" s="9">
+        <v>1633</v>
+      </c>
+      <c r="M89" s="9">
+        <v>1633</v>
+      </c>
+      <c r="N89" s="9">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C90" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>0</v>
-      </c>
-      <c r="F90" s="11" t="s">
-        <v>26</v>
+        <v>5516</v>
+      </c>
+      <c r="F90" s="11">
+        <v>3914</v>
       </c>
       <c r="G90" s="11">
+        <v>7804</v>
+      </c>
+      <c r="H90" s="11">
+        <v>0</v>
+      </c>
+      <c r="I90" s="11">
+        <v>-1</v>
+      </c>
+      <c r="J90" s="11">
+        <v>0</v>
+      </c>
+      <c r="K90" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L90" s="11">
         <v>65825</v>
       </c>
-      <c r="H90" s="11">
+      <c r="M90" s="11">
         <v>69414</v>
       </c>
-      <c r="I90" s="11">
+      <c r="N90" s="11">
         <v>155266</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C91" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
+        <v>810</v>
+      </c>
+      <c r="F91" s="9">
+        <v>365</v>
+      </c>
+      <c r="G91" s="9">
+        <v>718</v>
+      </c>
+      <c r="H91" s="9">
+        <v>5626</v>
+      </c>
+      <c r="I91" s="9">
+        <v>17293</v>
+      </c>
+      <c r="J91" s="9">
         <v>18369</v>
       </c>
-      <c r="F91" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G91" s="9">
+      <c r="K91" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L91" s="9">
         <v>10784</v>
       </c>
-      <c r="H91" s="9">
+      <c r="M91" s="9">
         <v>8997</v>
       </c>
-      <c r="I91" s="9">
+      <c r="N91" s="9">
         <v>3605</v>
       </c>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D92" s="11"/>
       <c r="E92" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F92" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G92" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H92" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H92" s="11">
+        <v>0</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M92" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
+        <v>49618</v>
+      </c>
+      <c r="F93" s="15">
+        <v>29993</v>
+      </c>
+      <c r="G93" s="15">
+        <v>44011</v>
+      </c>
+      <c r="H93" s="15">
+        <v>70053</v>
+      </c>
+      <c r="I93" s="15">
+        <v>57205</v>
+      </c>
+      <c r="J93" s="15">
         <v>72530</v>
       </c>
-      <c r="F93" s="15">
-        <v>0</v>
-      </c>
-      <c r="G93" s="15">
+      <c r="K93" s="15">
+        <v>0</v>
+      </c>
+      <c r="L93" s="15">
         <v>178359</v>
       </c>
-      <c r="H93" s="15">
+      <c r="M93" s="15">
         <v>193995</v>
       </c>
-      <c r="I93" s="15">
+      <c r="N93" s="15">
         <v>395969</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -2546,8 +3676,13 @@
       <c r="G94" s="1"/>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
-    </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1"/>
+      <c r="K94" s="1"/>
+      <c r="L94" s="1"/>
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -2556,8 +3691,13 @@
       <c r="G95" s="1"/>
       <c r="H95" s="1"/>
       <c r="I95" s="1"/>
-    </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1"/>
+      <c r="K95" s="1"/>
+      <c r="L95" s="1"/>
+      <c r="M95" s="1"/>
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -2566,10 +3706,15 @@
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
       <c r="I96" s="1"/>
-    </row>
-    <row r="97" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J96" s="1"/>
+      <c r="K96" s="1"/>
+      <c r="L96" s="1"/>
+      <c r="M96" s="1"/>
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B97" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
@@ -2588,8 +3733,23 @@
       <c r="I97" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L97" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M97" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N97" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -2598,109 +3758,174 @@
       <c r="G98" s="1"/>
       <c r="H98" s="1"/>
       <c r="I98" s="1"/>
-    </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1"/>
+      <c r="K98" s="1"/>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C99" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
+        <v>1346</v>
+      </c>
+      <c r="F99" s="9">
+        <v>0</v>
+      </c>
+      <c r="G99" s="9">
+        <v>11574</v>
+      </c>
+      <c r="H99" s="9">
+        <v>18075</v>
+      </c>
+      <c r="I99" s="9">
+        <v>33458</v>
+      </c>
+      <c r="J99" s="9">
         <v>20493</v>
       </c>
-      <c r="F99" s="9">
+      <c r="K99" s="9">
         <v>8464</v>
       </c>
-      <c r="G99" s="9">
+      <c r="L99" s="9">
         <v>3395</v>
       </c>
-      <c r="H99" s="9">
+      <c r="M99" s="9">
         <v>70427</v>
       </c>
-      <c r="I99" s="9">
+      <c r="N99" s="9">
         <v>21797</v>
       </c>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C100" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
+        <v>8710</v>
+      </c>
+      <c r="F100" s="11">
+        <v>10641</v>
+      </c>
+      <c r="G100" s="11">
+        <v>87881</v>
+      </c>
+      <c r="H100" s="11">
+        <v>0</v>
+      </c>
+      <c r="I100" s="11">
+        <v>55633</v>
+      </c>
+      <c r="J100" s="11">
         <v>68077</v>
       </c>
-      <c r="F100" s="11">
+      <c r="K100" s="11">
         <v>70547</v>
       </c>
-      <c r="G100" s="11">
+      <c r="L100" s="11">
         <v>16607</v>
       </c>
-      <c r="H100" s="11">
+      <c r="M100" s="11">
         <v>93263</v>
       </c>
-      <c r="I100" s="11">
+      <c r="N100" s="11">
         <v>75298</v>
       </c>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C101" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
+        <v>5151</v>
+      </c>
+      <c r="F101" s="9">
+        <v>1775</v>
+      </c>
+      <c r="G101" s="9">
+        <v>1712</v>
+      </c>
+      <c r="H101" s="9">
+        <v>0</v>
+      </c>
+      <c r="I101" s="9">
+        <v>24497</v>
+      </c>
+      <c r="J101" s="9">
         <v>10448</v>
       </c>
-      <c r="F101" s="9">
+      <c r="K101" s="9">
         <v>3207</v>
       </c>
-      <c r="G101" s="9">
+      <c r="L101" s="9">
         <v>37059</v>
       </c>
-      <c r="H101" s="9">
+      <c r="M101" s="9">
         <v>4701</v>
       </c>
-      <c r="I101" s="9">
+      <c r="N101" s="9">
         <v>1071</v>
       </c>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C102" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
+        <v>12008</v>
+      </c>
+      <c r="F102" s="11">
+        <v>7414</v>
+      </c>
+      <c r="G102" s="11">
+        <v>11877</v>
+      </c>
+      <c r="H102" s="11">
+        <v>20110</v>
+      </c>
+      <c r="I102" s="11">
+        <v>30825</v>
+      </c>
+      <c r="J102" s="11">
         <v>20428</v>
       </c>
-      <c r="F102" s="11">
+      <c r="K102" s="11">
         <v>52909</v>
       </c>
-      <c r="G102" s="11">
+      <c r="L102" s="11">
         <v>51058</v>
       </c>
-      <c r="H102" s="11">
+      <c r="M102" s="11">
         <v>156251</v>
       </c>
-      <c r="I102" s="11">
+      <c r="N102" s="11">
         <v>165450</v>
       </c>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B103" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C103" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D103" s="9"/>
       <c r="E103" s="9">
@@ -2718,102 +3943,177 @@
       <c r="I103" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J103" s="9">
+        <v>0</v>
+      </c>
+      <c r="K103" s="9">
+        <v>0</v>
+      </c>
+      <c r="L103" s="9">
+        <v>0</v>
+      </c>
+      <c r="M103" s="9">
+        <v>0</v>
+      </c>
+      <c r="N103" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B104" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C104" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
+        <v>67534</v>
+      </c>
+      <c r="F104" s="11">
+        <v>48803</v>
+      </c>
+      <c r="G104" s="11">
+        <v>89145</v>
+      </c>
+      <c r="H104" s="11">
+        <v>98002</v>
+      </c>
+      <c r="I104" s="11">
+        <v>109596</v>
+      </c>
+      <c r="J104" s="11">
         <v>87358</v>
       </c>
-      <c r="F104" s="11">
+      <c r="K104" s="11">
         <v>89514</v>
       </c>
-      <c r="G104" s="11">
+      <c r="L104" s="11">
         <v>51110</v>
       </c>
-      <c r="H104" s="11">
+      <c r="M104" s="11">
         <v>153547</v>
       </c>
-      <c r="I104" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N104" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B105" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C105" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
+        <v>4319</v>
+      </c>
+      <c r="F105" s="9">
+        <v>787</v>
+      </c>
+      <c r="G105" s="9">
+        <v>12431</v>
+      </c>
+      <c r="H105" s="9">
+        <v>13445</v>
+      </c>
+      <c r="I105" s="9">
+        <v>1958</v>
+      </c>
+      <c r="J105" s="9">
         <v>2</v>
       </c>
-      <c r="F105" s="9">
+      <c r="K105" s="9">
         <v>20</v>
       </c>
-      <c r="G105" s="9">
+      <c r="L105" s="9">
         <v>4498</v>
       </c>
-      <c r="H105" s="9">
+      <c r="M105" s="9">
         <v>5330</v>
       </c>
-      <c r="I105" s="9">
+      <c r="N105" s="9">
         <v>23777</v>
       </c>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B106" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C106" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D106" s="11"/>
       <c r="E106" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F106" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G106" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H106" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H106" s="11">
+        <v>0</v>
       </c>
       <c r="I106" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J106" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K106" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L106" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M106" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N106" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B107" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
+        <v>99068</v>
+      </c>
+      <c r="F107" s="15">
+        <v>69420</v>
+      </c>
+      <c r="G107" s="15">
+        <v>214620</v>
+      </c>
+      <c r="H107" s="15">
+        <v>149632</v>
+      </c>
+      <c r="I107" s="15">
+        <v>255967</v>
+      </c>
+      <c r="J107" s="15">
         <v>206806</v>
       </c>
-      <c r="F107" s="15">
+      <c r="K107" s="15">
         <v>224661</v>
       </c>
-      <c r="G107" s="15">
+      <c r="L107" s="15">
         <v>163727</v>
       </c>
-      <c r="H107" s="15">
+      <c r="M107" s="15">
         <v>483519</v>
       </c>
-      <c r="I107" s="15">
+      <c r="N107" s="15">
         <v>287393</v>
       </c>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -2822,8 +4122,13 @@
       <c r="G108" s="1"/>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
-    </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J108" s="1"/>
+      <c r="K108" s="1"/>
+      <c r="L108" s="1"/>
+      <c r="M108" s="1"/>
+      <c r="N108" s="1"/>
+    </row>
+    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -2832,8 +4137,13 @@
       <c r="G109" s="1"/>
       <c r="H109" s="1"/>
       <c r="I109" s="1"/>
-    </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J109" s="1"/>
+      <c r="K109" s="1"/>
+      <c r="L109" s="1"/>
+      <c r="M109" s="1"/>
+      <c r="N109" s="1"/>
+    </row>
+    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -2842,10 +4152,15 @@
       <c r="G110" s="1"/>
       <c r="H110" s="1"/>
       <c r="I110" s="1"/>
-    </row>
-    <row r="111" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J110" s="1"/>
+      <c r="K110" s="1"/>
+      <c r="L110" s="1"/>
+      <c r="M110" s="1"/>
+      <c r="N110" s="1"/>
+    </row>
+    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B111" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
@@ -2864,8 +4179,23 @@
       <c r="I111" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J111" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K111" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L111" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M111" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N111" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -2874,109 +4204,174 @@
       <c r="G112" s="1"/>
       <c r="H112" s="1"/>
       <c r="I112" s="1"/>
-    </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J112" s="1"/>
+      <c r="K112" s="1"/>
+      <c r="L112" s="1"/>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+    </row>
+    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B113" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C113" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
+        <v>4220</v>
+      </c>
+      <c r="F113" s="9">
+        <v>442</v>
+      </c>
+      <c r="G113" s="9">
+        <v>10840</v>
+      </c>
+      <c r="H113" s="9">
+        <v>7992</v>
+      </c>
+      <c r="I113" s="9">
+        <v>38830</v>
+      </c>
+      <c r="J113" s="9">
         <v>16363</v>
       </c>
-      <c r="F113" s="9">
+      <c r="K113" s="9">
         <v>6917</v>
       </c>
-      <c r="G113" s="9">
+      <c r="L113" s="9">
         <v>14842</v>
       </c>
-      <c r="H113" s="9">
+      <c r="M113" s="9">
         <v>51917</v>
       </c>
-      <c r="I113" s="9">
+      <c r="N113" s="9">
         <v>27264</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B114" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
+        <v>23390</v>
+      </c>
+      <c r="F114" s="11">
+        <v>-3008</v>
+      </c>
+      <c r="G114" s="11">
+        <v>72643</v>
+      </c>
+      <c r="H114" s="11">
+        <v>36847</v>
+      </c>
+      <c r="I114" s="11">
+        <v>40214</v>
+      </c>
+      <c r="J114" s="11">
         <v>35440</v>
       </c>
-      <c r="F114" s="11">
+      <c r="K114" s="11">
         <v>64103</v>
       </c>
-      <c r="G114" s="11">
+      <c r="L114" s="11">
         <v>37439</v>
       </c>
-      <c r="H114" s="11">
+      <c r="M114" s="11">
         <v>69332</v>
       </c>
-      <c r="I114" s="11">
+      <c r="N114" s="11">
         <v>28403</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B115" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C115" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
+        <v>1530</v>
+      </c>
+      <c r="F115" s="9">
+        <v>0</v>
+      </c>
+      <c r="G115" s="9">
+        <v>7899</v>
+      </c>
+      <c r="H115" s="9">
+        <v>1509</v>
+      </c>
+      <c r="I115" s="9">
+        <v>20528</v>
+      </c>
+      <c r="J115" s="9">
         <v>12827</v>
       </c>
-      <c r="F115" s="9">
+      <c r="K115" s="9">
         <v>-1394</v>
       </c>
-      <c r="G115" s="9">
+      <c r="L115" s="9">
         <v>3045</v>
       </c>
-      <c r="H115" s="9">
+      <c r="M115" s="9">
         <v>7749</v>
       </c>
-      <c r="I115" s="9">
+      <c r="N115" s="9">
         <v>994</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B116" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
+        <v>16684</v>
+      </c>
+      <c r="F116" s="11">
+        <v>11590</v>
+      </c>
+      <c r="G116" s="11">
+        <v>11650</v>
+      </c>
+      <c r="H116" s="11">
+        <v>16351</v>
+      </c>
+      <c r="I116" s="11">
+        <v>37266</v>
+      </c>
+      <c r="J116" s="11">
         <v>16719</v>
       </c>
-      <c r="F116" s="11">
+      <c r="K116" s="11">
         <v>49339</v>
       </c>
-      <c r="G116" s="11">
+      <c r="L116" s="11">
         <v>38959</v>
       </c>
-      <c r="H116" s="11">
+      <c r="M116" s="11">
         <v>74130</v>
       </c>
-      <c r="I116" s="11">
+      <c r="N116" s="11">
         <v>58886</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B117" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C117" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D117" s="9"/>
       <c r="E117" s="9">
@@ -2994,102 +4389,177 @@
       <c r="I117" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J117" s="9">
+        <v>0</v>
+      </c>
+      <c r="K117" s="9">
+        <v>0</v>
+      </c>
+      <c r="L117" s="9">
+        <v>0</v>
+      </c>
+      <c r="M117" s="9">
+        <v>0</v>
+      </c>
+      <c r="N117" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B118" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
+        <v>46912</v>
+      </c>
+      <c r="F118" s="11">
+        <v>67137</v>
+      </c>
+      <c r="G118" s="11">
+        <v>76164</v>
+      </c>
+      <c r="H118" s="11">
+        <v>98003</v>
+      </c>
+      <c r="I118" s="11">
+        <v>102903</v>
+      </c>
+      <c r="J118" s="11">
         <v>94050</v>
       </c>
-      <c r="F118" s="11">
+      <c r="K118" s="11">
         <v>36874</v>
       </c>
-      <c r="G118" s="11">
+      <c r="L118" s="11">
         <v>47521</v>
       </c>
-      <c r="H118" s="11">
+      <c r="M118" s="11">
         <v>67695</v>
       </c>
-      <c r="I118" s="11">
+      <c r="N118" s="11">
         <v>56803</v>
       </c>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B119" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C119" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
+        <v>4476</v>
+      </c>
+      <c r="F119" s="9">
+        <v>722</v>
+      </c>
+      <c r="G119" s="9">
+        <v>5975</v>
+      </c>
+      <c r="H119" s="9">
+        <v>1778</v>
+      </c>
+      <c r="I119" s="9">
+        <v>3276</v>
+      </c>
+      <c r="J119" s="9">
         <v>943</v>
       </c>
-      <c r="F119" s="9">
+      <c r="K119" s="9">
         <v>5818</v>
       </c>
-      <c r="G119" s="9">
+      <c r="L119" s="9">
         <v>6285</v>
       </c>
-      <c r="H119" s="9">
+      <c r="M119" s="9">
         <v>10722</v>
       </c>
-      <c r="I119" s="9">
+      <c r="N119" s="9">
         <v>20058</v>
       </c>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B120" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C120" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D120" s="11"/>
       <c r="E120" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F120" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G120" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H120" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H120" s="11">
+        <v>0</v>
       </c>
       <c r="I120" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M120" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B121" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
+        <v>97212</v>
+      </c>
+      <c r="F121" s="15">
+        <v>76883</v>
+      </c>
+      <c r="G121" s="15">
+        <v>185171</v>
+      </c>
+      <c r="H121" s="15">
+        <v>162480</v>
+      </c>
+      <c r="I121" s="15">
+        <v>243017</v>
+      </c>
+      <c r="J121" s="15">
         <v>176342</v>
       </c>
-      <c r="F121" s="15">
+      <c r="K121" s="15">
         <v>161657</v>
       </c>
-      <c r="G121" s="15">
+      <c r="L121" s="15">
         <v>148091</v>
       </c>
-      <c r="H121" s="15">
+      <c r="M121" s="15">
         <v>281545</v>
       </c>
-      <c r="I121" s="15">
+      <c r="N121" s="15">
         <v>192408</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -3098,8 +4568,13 @@
       <c r="G122" s="1"/>
       <c r="H122" s="1"/>
       <c r="I122" s="1"/>
-    </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J122" s="1"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="1"/>
+      <c r="M122" s="1"/>
+      <c r="N122" s="1"/>
+    </row>
+    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -3108,8 +4583,13 @@
       <c r="G123" s="1"/>
       <c r="H123" s="1"/>
       <c r="I123" s="1"/>
-    </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J123" s="1"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="1"/>
+      <c r="M123" s="1"/>
+      <c r="N123" s="1"/>
+    </row>
+    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -3118,10 +4598,15 @@
       <c r="G124" s="1"/>
       <c r="H124" s="1"/>
       <c r="I124" s="1"/>
-    </row>
-    <row r="125" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J124" s="1"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="1"/>
+      <c r="M124" s="1"/>
+      <c r="N124" s="1"/>
+    </row>
+    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B125" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
@@ -3140,8 +4625,23 @@
       <c r="I125" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J125" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K125" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L125" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M125" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N125" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -3150,109 +4650,174 @@
       <c r="G126" s="1"/>
       <c r="H126" s="1"/>
       <c r="I126" s="1"/>
-    </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J126" s="1"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="1"/>
+      <c r="M126" s="1"/>
+      <c r="N126" s="1"/>
+    </row>
+    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C127" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
+        <v>1341</v>
+      </c>
+      <c r="F127" s="9">
+        <v>899</v>
+      </c>
+      <c r="G127" s="9">
+        <v>1633</v>
+      </c>
+      <c r="H127" s="9">
+        <v>12964</v>
+      </c>
+      <c r="I127" s="9">
+        <v>7592</v>
+      </c>
+      <c r="J127" s="9">
         <v>11722</v>
       </c>
-      <c r="F127" s="9">
+      <c r="K127" s="9">
         <v>13269</v>
       </c>
-      <c r="G127" s="9">
+      <c r="L127" s="9">
         <v>1822</v>
       </c>
-      <c r="H127" s="9">
+      <c r="M127" s="9">
         <v>20332</v>
       </c>
-      <c r="I127" s="9">
+      <c r="N127" s="9">
         <v>14865</v>
       </c>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C128" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
+        <v>6358</v>
+      </c>
+      <c r="F128" s="11">
+        <v>20007</v>
+      </c>
+      <c r="G128" s="11">
+        <v>35245</v>
+      </c>
+      <c r="H128" s="11">
+        <v>14299</v>
+      </c>
+      <c r="I128" s="11">
+        <v>29718</v>
+      </c>
+      <c r="J128" s="11">
         <v>62355</v>
       </c>
-      <c r="F128" s="11">
+      <c r="K128" s="11">
         <v>68799</v>
       </c>
-      <c r="G128" s="11">
+      <c r="L128" s="11">
         <v>47967</v>
       </c>
-      <c r="H128" s="11">
+      <c r="M128" s="11">
         <v>71898</v>
       </c>
-      <c r="I128" s="11">
+      <c r="N128" s="11">
         <v>118793</v>
       </c>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B129" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C129" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
+        <v>5460</v>
+      </c>
+      <c r="F129" s="9">
+        <v>7235</v>
+      </c>
+      <c r="G129" s="9">
+        <v>1048</v>
+      </c>
+      <c r="H129" s="9">
+        <v>339</v>
+      </c>
+      <c r="I129" s="9">
+        <v>4318</v>
+      </c>
+      <c r="J129" s="9">
         <v>1940</v>
       </c>
-      <c r="F129" s="9">
+      <c r="K129" s="9">
         <v>6540</v>
       </c>
-      <c r="G129" s="9">
+      <c r="L129" s="9">
         <v>40554</v>
       </c>
-      <c r="H129" s="9">
+      <c r="M129" s="9">
         <v>37506</v>
       </c>
-      <c r="I129" s="9">
+      <c r="N129" s="9">
         <v>37583</v>
       </c>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C130" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
+        <v>9891</v>
+      </c>
+      <c r="F130" s="11">
+        <v>5715</v>
+      </c>
+      <c r="G130" s="11">
+        <v>5942</v>
+      </c>
+      <c r="H130" s="11">
+        <v>10678</v>
+      </c>
+      <c r="I130" s="11">
+        <v>4237</v>
+      </c>
+      <c r="J130" s="11">
         <v>7946</v>
       </c>
-      <c r="F130" s="11">
+      <c r="K130" s="11">
         <v>11509</v>
       </c>
-      <c r="G130" s="11">
+      <c r="L130" s="11">
         <v>23608</v>
       </c>
-      <c r="H130" s="11">
+      <c r="M130" s="11">
         <v>105729</v>
       </c>
-      <c r="I130" s="11">
+      <c r="N130" s="11">
         <v>212293</v>
       </c>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B131" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C131" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D131" s="9"/>
       <c r="E131" s="9">
@@ -3270,102 +4835,177 @@
       <c r="I131" s="9">
         <v>1633</v>
       </c>
-    </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J131" s="9">
+        <v>1633</v>
+      </c>
+      <c r="K131" s="9">
+        <v>1633</v>
+      </c>
+      <c r="L131" s="9">
+        <v>1633</v>
+      </c>
+      <c r="M131" s="9">
+        <v>1633</v>
+      </c>
+      <c r="N131" s="9">
+        <v>1633</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C132" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>0</v>
+        <v>26138</v>
       </c>
       <c r="F132" s="11">
+        <v>7804</v>
+      </c>
+      <c r="G132" s="11">
+        <v>18929</v>
+      </c>
+      <c r="H132" s="11">
+        <v>-1</v>
+      </c>
+      <c r="I132" s="11">
+        <v>19877</v>
+      </c>
+      <c r="J132" s="11">
+        <v>0</v>
+      </c>
+      <c r="K132" s="11">
         <v>65825</v>
       </c>
-      <c r="G132" s="11">
+      <c r="L132" s="11">
         <v>69414</v>
       </c>
-      <c r="H132" s="11">
+      <c r="M132" s="11">
         <v>155266</v>
       </c>
-      <c r="I132" s="11">
+      <c r="N132" s="11">
         <v>98463</v>
       </c>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B133" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C133" s="9" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
+        <v>654</v>
+      </c>
+      <c r="F133" s="9">
+        <v>718</v>
+      </c>
+      <c r="G133" s="9">
+        <v>7174</v>
+      </c>
+      <c r="H133" s="9">
+        <v>17293</v>
+      </c>
+      <c r="I133" s="9">
+        <v>15975</v>
+      </c>
+      <c r="J133" s="9">
         <v>15034</v>
       </c>
-      <c r="F133" s="9">
+      <c r="K133" s="9">
         <v>10784</v>
       </c>
-      <c r="G133" s="9">
+      <c r="L133" s="9">
         <v>8997</v>
       </c>
-      <c r="H133" s="9">
+      <c r="M133" s="9">
         <v>3605</v>
       </c>
-      <c r="I133" s="9">
+      <c r="N133" s="9">
         <v>104414</v>
       </c>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B134" s="10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="C134" s="11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D134" s="11"/>
       <c r="E134" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G134" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H134" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
+      </c>
+      <c r="H134" s="11">
+        <v>0</v>
       </c>
       <c r="I134" s="11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M134" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N134" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B135" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
+        <v>51475</v>
+      </c>
+      <c r="F135" s="15">
+        <v>44011</v>
+      </c>
+      <c r="G135" s="15">
+        <v>71604</v>
+      </c>
+      <c r="H135" s="15">
+        <v>57205</v>
+      </c>
+      <c r="I135" s="15">
+        <v>83350</v>
+      </c>
+      <c r="J135" s="15">
         <v>100630</v>
       </c>
-      <c r="F135" s="15">
+      <c r="K135" s="15">
         <v>178359</v>
       </c>
-      <c r="G135" s="15">
+      <c r="L135" s="15">
         <v>193995</v>
       </c>
-      <c r="H135" s="15">
+      <c r="M135" s="15">
         <v>395969</v>
       </c>
-      <c r="I135" s="15">
+      <c r="N135" s="15">
         <v>588044</v>
       </c>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -3374,8 +5014,13 @@
       <c r="G136" s="1"/>
       <c r="H136" s="1"/>
       <c r="I136" s="1"/>
-    </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J136" s="1"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="1"/>
+      <c r="M136" s="1"/>
+      <c r="N136" s="1"/>
+    </row>
+    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -3384,8 +5029,13 @@
       <c r="G137" s="1"/>
       <c r="H137" s="1"/>
       <c r="I137" s="1"/>
-    </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J137" s="1"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="1"/>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+    </row>
+    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -3394,10 +5044,15 @@
       <c r="G138" s="1"/>
       <c r="H138" s="1"/>
       <c r="I138" s="1"/>
-    </row>
-    <row r="139" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J138" s="1"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="1"/>
+      <c r="M138" s="1"/>
+      <c r="N138" s="1"/>
+    </row>
+    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B139" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
@@ -3416,8 +5071,23 @@
       <c r="I139" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J139" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K139" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L139" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M139" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N139" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -3426,109 +5096,174 @@
       <c r="G140" s="1"/>
       <c r="H140" s="1"/>
       <c r="I140" s="1"/>
-    </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J140" s="1"/>
+      <c r="K140" s="1"/>
+      <c r="L140" s="1"/>
+      <c r="M140" s="1"/>
+      <c r="N140" s="1"/>
+    </row>
+    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B141" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C141" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
+        <v>258114</v>
+      </c>
+      <c r="F141" s="9">
+        <v>250608</v>
+      </c>
+      <c r="G141" s="9">
+        <v>611149</v>
+      </c>
+      <c r="H141" s="9">
+        <v>468608</v>
+      </c>
+      <c r="I141" s="9">
+        <v>502909</v>
+      </c>
+      <c r="J141" s="9">
         <v>469047</v>
       </c>
-      <c r="F141" s="9">
+      <c r="K141" s="9">
         <v>469143</v>
       </c>
-      <c r="G141" s="9">
+      <c r="L141" s="9">
         <v>618601</v>
       </c>
-      <c r="H141" s="9">
+      <c r="M141" s="9">
         <v>618466</v>
       </c>
-      <c r="I141" s="9">
+      <c r="N141" s="9">
         <v>958288</v>
       </c>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B142" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C142" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
+        <v>63373</v>
+      </c>
+      <c r="F142" s="11">
+        <v>62394</v>
+      </c>
+      <c r="G142" s="11">
+        <v>39509</v>
+      </c>
+      <c r="H142" s="11">
+        <v>90011</v>
+      </c>
+      <c r="I142" s="11">
+        <v>60587</v>
+      </c>
+      <c r="J142" s="11">
         <v>99194</v>
       </c>
-      <c r="F142" s="11">
+      <c r="K142" s="11">
         <v>98920</v>
       </c>
-      <c r="G142" s="11">
+      <c r="L142" s="11">
         <v>114788</v>
       </c>
-      <c r="H142" s="11">
+      <c r="M142" s="11">
         <v>130844</v>
       </c>
-      <c r="I142" s="11">
+      <c r="N142" s="11">
         <v>168683</v>
       </c>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B143" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C143" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
+        <v>157773</v>
+      </c>
+      <c r="F143" s="9">
+        <v>305490</v>
+      </c>
+      <c r="G143" s="9">
+        <v>408665</v>
+      </c>
+      <c r="H143" s="9">
+        <v>368127</v>
+      </c>
+      <c r="I143" s="9">
+        <v>358351</v>
+      </c>
+      <c r="J143" s="9">
         <v>593540</v>
       </c>
-      <c r="F143" s="9">
+      <c r="K143" s="9">
         <v>596006</v>
       </c>
-      <c r="G143" s="9">
+      <c r="L143" s="9">
         <v>599835</v>
       </c>
-      <c r="H143" s="9">
+      <c r="M143" s="9">
         <v>796426</v>
       </c>
-      <c r="I143" s="9">
+      <c r="N143" s="9">
         <v>799940</v>
       </c>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B144" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C144" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
+        <v>1400942</v>
+      </c>
+      <c r="F144" s="11">
+        <v>1261471</v>
+      </c>
+      <c r="G144" s="11">
+        <v>1211318</v>
+      </c>
+      <c r="H144" s="11">
+        <v>1489879</v>
+      </c>
+      <c r="I144" s="11">
+        <v>2601852</v>
+      </c>
+      <c r="J144" s="11">
         <v>3241775</v>
       </c>
-      <c r="F144" s="11">
+      <c r="K144" s="11">
         <v>1901867</v>
       </c>
-      <c r="G144" s="11">
+      <c r="L144" s="11">
         <v>3982353</v>
       </c>
-      <c r="H144" s="11">
+      <c r="M144" s="11">
         <v>4316694</v>
       </c>
-      <c r="I144" s="11">
+      <c r="N144" s="11">
         <v>5769659</v>
       </c>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B145" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C145" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D145" s="9"/>
       <c r="E145" s="9">
@@ -3546,56 +5281,101 @@
       <c r="I145" s="9">
         <v>140063</v>
       </c>
-    </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J145" s="9">
+        <v>140063</v>
+      </c>
+      <c r="K145" s="9">
+        <v>140063</v>
+      </c>
+      <c r="L145" s="9">
+        <v>140063</v>
+      </c>
+      <c r="M145" s="9">
+        <v>140063</v>
+      </c>
+      <c r="N145" s="9">
+        <v>140063</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B146" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C146" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F146" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" s="11">
+      <c r="E146" s="11">
+        <v>18243</v>
+      </c>
+      <c r="F146" s="11">
+        <v>42336</v>
+      </c>
+      <c r="G146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="L146" s="11">
         <v>39170</v>
       </c>
-      <c r="H146" s="11">
+      <c r="M146" s="11">
         <v>39868</v>
       </c>
-      <c r="I146" s="11">
+      <c r="N146" s="11">
         <v>35948</v>
       </c>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B147" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C147" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
+        <v>67259</v>
+      </c>
+      <c r="F147" s="9">
+        <v>52203</v>
+      </c>
+      <c r="G147" s="9">
+        <v>82824</v>
+      </c>
+      <c r="H147" s="9">
+        <v>111050</v>
+      </c>
+      <c r="I147" s="9">
+        <v>111354</v>
+      </c>
+      <c r="J147" s="9">
         <v>106799</v>
       </c>
-      <c r="F147" s="9">
+      <c r="K147" s="9">
         <v>106810</v>
       </c>
-      <c r="G147" s="9">
+      <c r="L147" s="9">
         <v>114491</v>
       </c>
-      <c r="H147" s="9">
+      <c r="M147" s="9">
         <v>112430</v>
       </c>
-      <c r="I147" s="9">
+      <c r="N147" s="9">
         <v>245221</v>
       </c>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -3604,8 +5384,13 @@
       <c r="G148" s="1"/>
       <c r="H148" s="1"/>
       <c r="I148" s="1"/>
-    </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J148" s="1"/>
+      <c r="K148" s="1"/>
+      <c r="L148" s="1"/>
+      <c r="M148" s="1"/>
+      <c r="N148" s="1"/>
+    </row>
+    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -3614,8 +5399,13 @@
       <c r="G149" s="1"/>
       <c r="H149" s="1"/>
       <c r="I149" s="1"/>
-    </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J149" s="1"/>
+      <c r="K149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="1"/>
+      <c r="N149" s="1"/>
+    </row>
+    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -3624,10 +5414,15 @@
       <c r="G150" s="1"/>
       <c r="H150" s="1"/>
       <c r="I150" s="1"/>
-    </row>
-    <row r="151" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J150" s="1"/>
+      <c r="K150" s="1"/>
+      <c r="L150" s="1"/>
+      <c r="M150" s="1"/>
+      <c r="N150" s="1"/>
+    </row>
+    <row r="151" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B151" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
@@ -3646,8 +5441,23 @@
       <c r="I151" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J151" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K151" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L151" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M151" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N151" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -3656,152 +5466,247 @@
       <c r="G152" s="1"/>
       <c r="H152" s="1"/>
       <c r="I152" s="1"/>
-    </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J152" s="1"/>
+      <c r="K152" s="1"/>
+      <c r="L152" s="1"/>
+      <c r="M152" s="1"/>
+      <c r="N152" s="1"/>
+    </row>
+    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B153" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
+        <v>259946</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G153" s="9">
+        <v>570738</v>
+      </c>
+      <c r="H153" s="9">
+        <v>508868</v>
+      </c>
+      <c r="I153" s="9">
+        <v>8364500</v>
+      </c>
+      <c r="J153" s="9">
         <v>959680</v>
       </c>
-      <c r="F153" s="9">
+      <c r="K153" s="9">
         <v>440031</v>
       </c>
-      <c r="G153" s="9">
+      <c r="L153" s="9">
         <v>618622</v>
       </c>
-      <c r="H153" s="9">
+      <c r="M153" s="9">
         <v>1635403</v>
       </c>
-      <c r="I153" s="9">
+      <c r="N153" s="9">
         <v>605136</v>
       </c>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B154" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C154" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
+        <v>49069</v>
+      </c>
+      <c r="F154" s="11">
+        <v>14350</v>
+      </c>
+      <c r="G154" s="11">
+        <v>396271</v>
+      </c>
+      <c r="H154" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I154" s="11">
+        <v>109464</v>
+      </c>
+      <c r="J154" s="11">
         <v>98490</v>
       </c>
-      <c r="F154" s="11">
+      <c r="K154" s="11">
         <v>190556</v>
       </c>
-      <c r="G154" s="11">
+      <c r="L154" s="11">
         <v>311132</v>
       </c>
-      <c r="H154" s="11">
+      <c r="M154" s="11">
         <v>211370</v>
       </c>
-      <c r="I154" s="11">
+      <c r="N154" s="11">
         <v>102278</v>
       </c>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B155" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
+        <v>430038</v>
+      </c>
+      <c r="F155" s="9">
+        <v>222181</v>
+      </c>
+      <c r="G155" s="9">
+        <v>14508475</v>
+      </c>
+      <c r="H155" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I155" s="9">
+        <v>1558432</v>
+      </c>
+      <c r="J155" s="9">
         <v>2295759</v>
       </c>
-      <c r="F155" s="9">
+      <c r="K155" s="9">
         <v>203645</v>
       </c>
-      <c r="G155" s="9">
+      <c r="L155" s="9">
         <v>849997</v>
       </c>
-      <c r="H155" s="9">
+      <c r="M155" s="9">
         <v>-4701000000</v>
       </c>
-      <c r="I155" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N155" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B156" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C156" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
+        <v>983617</v>
+      </c>
+      <c r="F156" s="11">
+        <v>1030638</v>
+      </c>
+      <c r="G156" s="11">
+        <v>1767411</v>
+      </c>
+      <c r="H156" s="11">
+        <v>3501654</v>
+      </c>
+      <c r="I156" s="11">
+        <v>6271618</v>
+      </c>
+      <c r="J156" s="11">
         <v>2329836</v>
       </c>
-      <c r="F156" s="11">
+      <c r="K156" s="11">
         <v>5618456</v>
       </c>
-      <c r="G156" s="11">
+      <c r="L156" s="11">
         <v>4400034</v>
       </c>
-      <c r="H156" s="11">
+      <c r="M156" s="11">
         <v>6377332</v>
       </c>
-      <c r="I156" s="11">
+      <c r="N156" s="11">
         <v>7814197</v>
       </c>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B157" s="8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
+        <v>19323</v>
+      </c>
+      <c r="F157" s="9">
+        <v>39870</v>
+      </c>
+      <c r="G157" s="9">
+        <v>29121</v>
+      </c>
+      <c r="H157" s="9">
+        <v>35394</v>
+      </c>
+      <c r="I157" s="9">
+        <v>39541</v>
+      </c>
+      <c r="J157" s="9">
         <v>44959</v>
       </c>
-      <c r="F157" s="9">
+      <c r="K157" s="9">
         <v>28564</v>
       </c>
-      <c r="G157" s="9">
+      <c r="L157" s="9">
         <v>38000</v>
       </c>
-      <c r="H157" s="9">
+      <c r="M157" s="9">
         <v>34104</v>
       </c>
-      <c r="I157" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="N157" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B158" s="10" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C158" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
+        <v>139977</v>
+      </c>
+      <c r="F158" s="11">
+        <v>253136</v>
+      </c>
+      <c r="G158" s="11">
+        <v>157884</v>
+      </c>
+      <c r="H158" s="11">
+        <v>111491</v>
+      </c>
+      <c r="I158" s="11">
+        <v>76338</v>
+      </c>
+      <c r="J158" s="11">
         <v>-2000000</v>
       </c>
-      <c r="F158" s="11">
+      <c r="K158" s="11">
         <v>41152</v>
       </c>
-      <c r="G158" s="11">
+      <c r="L158" s="11">
         <v>183061</v>
       </c>
-      <c r="H158" s="11">
+      <c r="M158" s="11">
         <v>-293212</v>
       </c>
-      <c r="I158" s="11">
+      <c r="N158" s="11">
         <v>340454</v>
       </c>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -3810,8 +5715,13 @@
       <c r="G159" s="1"/>
       <c r="H159" s="1"/>
       <c r="I159" s="1"/>
-    </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J159" s="1"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="1"/>
+      <c r="M159" s="1"/>
+      <c r="N159" s="1"/>
+    </row>
+    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -3820,8 +5730,13 @@
       <c r="G160" s="1"/>
       <c r="H160" s="1"/>
       <c r="I160" s="1"/>
-    </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J160" s="1"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="1"/>
+      <c r="N160" s="1"/>
+    </row>
+    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -3830,10 +5745,15 @@
       <c r="G161" s="1"/>
       <c r="H161" s="1"/>
       <c r="I161" s="1"/>
-    </row>
-    <row r="162" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J161" s="1"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+    </row>
+    <row r="162" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B162" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
@@ -3852,8 +5772,23 @@
       <c r="I162" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J162" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K162" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L162" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M162" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N162" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -3862,176 +5797,286 @@
       <c r="G163" s="1"/>
       <c r="H163" s="1"/>
       <c r="I163" s="1"/>
-    </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J163" s="1"/>
+      <c r="K163" s="1"/>
+      <c r="L163" s="1"/>
+      <c r="M163" s="1"/>
+      <c r="N163" s="1"/>
+    </row>
+    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B164" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C164" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9">
+        <v>258404</v>
+      </c>
+      <c r="F164" s="9">
+        <v>53682</v>
+      </c>
+      <c r="G164" s="9">
+        <v>694783</v>
+      </c>
+      <c r="H164" s="9">
+        <v>502958</v>
+      </c>
+      <c r="I164" s="9">
+        <v>2856828</v>
+      </c>
+      <c r="J164" s="9">
         <v>1303409</v>
       </c>
-      <c r="F164" s="9">
+      <c r="K164" s="9">
         <v>303764</v>
       </c>
-      <c r="G164" s="9">
+      <c r="L164" s="9">
         <v>618623</v>
       </c>
-      <c r="H164" s="9">
+      <c r="M164" s="9">
         <v>2094018</v>
       </c>
-      <c r="I164" s="9">
+      <c r="N164" s="9">
         <v>1038787</v>
       </c>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B165" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C165" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11">
+        <v>59841</v>
+      </c>
+      <c r="F165" s="11">
+        <v>-14677</v>
+      </c>
+      <c r="G165" s="11">
+        <v>215813</v>
+      </c>
+      <c r="H165" s="11">
+        <v>110914</v>
+      </c>
+      <c r="I165" s="11">
+        <v>90441</v>
+      </c>
+      <c r="J165" s="11">
         <v>98324</v>
       </c>
-      <c r="F165" s="11">
+      <c r="K165" s="11">
         <v>159771</v>
       </c>
-      <c r="G165" s="11">
+      <c r="L165" s="11">
         <v>130842</v>
       </c>
-      <c r="H165" s="11">
+      <c r="M165" s="11">
         <v>181690</v>
       </c>
-      <c r="I165" s="11">
+      <c r="N165" s="11">
         <v>92707</v>
       </c>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B166" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9">
+        <v>203187</v>
+      </c>
+      <c r="F166" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G166" s="9">
+        <v>617013</v>
+      </c>
+      <c r="H166" s="9">
+        <v>370398</v>
+      </c>
+      <c r="I166" s="9">
+        <v>2186155</v>
+      </c>
+      <c r="J166" s="9">
         <v>1496558</v>
       </c>
-      <c r="F166" s="9">
+      <c r="K166" s="9">
         <v>-172099</v>
       </c>
-      <c r="G166" s="9">
+      <c r="L166" s="9">
         <v>850084</v>
       </c>
-      <c r="H166" s="9">
+      <c r="M166" s="9">
         <v>1921398</v>
       </c>
-      <c r="I166" s="9">
+      <c r="N166" s="9">
         <v>139587</v>
       </c>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B167" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C167" s="11" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11">
+        <v>1150462</v>
+      </c>
+      <c r="F167" s="11">
+        <v>1135382</v>
+      </c>
+      <c r="G167" s="11">
+        <v>1714748</v>
+      </c>
+      <c r="H167" s="11">
+        <v>2602419</v>
+      </c>
+      <c r="I167" s="11">
+        <v>4832210</v>
+      </c>
+      <c r="J167" s="11">
         <v>2835170</v>
       </c>
-      <c r="F167" s="11">
+      <c r="K167" s="11">
         <v>4608968</v>
       </c>
-      <c r="G167" s="11">
+      <c r="L167" s="11">
         <v>4316787</v>
       </c>
-      <c r="H167" s="11">
+      <c r="M167" s="11">
         <v>6365822</v>
       </c>
-      <c r="I167" s="11">
+      <c r="N167" s="11">
         <v>5335327</v>
       </c>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B168" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C168" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D168" s="9"/>
       <c r="E168" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="F168" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G168" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="J168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="K168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M168" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N168" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B169" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C169" s="11" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11">
+        <v>13429</v>
+      </c>
+      <c r="F169" s="11">
+        <v>47404</v>
+      </c>
+      <c r="G169" s="11">
+        <v>22930</v>
+      </c>
+      <c r="H169" s="11">
+        <v>35394</v>
+      </c>
+      <c r="I169" s="11">
+        <v>40045</v>
+      </c>
+      <c r="J169" s="11">
         <v>43844</v>
       </c>
-      <c r="F169" s="11">
+      <c r="K169" s="11">
         <v>21578</v>
       </c>
-      <c r="G169" s="11">
+      <c r="L169" s="11">
         <v>36999</v>
       </c>
-      <c r="H169" s="11">
+      <c r="M169" s="11">
         <v>35180</v>
       </c>
-      <c r="I169" s="11">
+      <c r="N169" s="11">
         <v>39808</v>
       </c>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B170" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C170" s="9" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9">
+        <v>123146</v>
+      </c>
+      <c r="F170" s="9">
+        <v>257368</v>
+      </c>
+      <c r="G170" s="9">
+        <v>261924</v>
+      </c>
+      <c r="H170" s="9">
+        <v>111424</v>
+      </c>
+      <c r="I170" s="9">
+        <v>104441</v>
+      </c>
+      <c r="J170" s="9">
         <v>106856</v>
       </c>
-      <c r="F170" s="9">
+      <c r="K170" s="9">
         <v>123658</v>
       </c>
-      <c r="G170" s="9">
+      <c r="L170" s="9">
         <v>162240</v>
       </c>
-      <c r="H170" s="9">
+      <c r="M170" s="9">
         <v>227431</v>
       </c>
-      <c r="I170" s="9">
+      <c r="N170" s="9">
         <v>355468</v>
       </c>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -4040,8 +6085,13 @@
       <c r="G171" s="1"/>
       <c r="H171" s="1"/>
       <c r="I171" s="1"/>
-    </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J171" s="1"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+    </row>
+    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -4050,8 +6100,13 @@
       <c r="G172" s="1"/>
       <c r="H172" s="1"/>
       <c r="I172" s="1"/>
-    </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J172" s="1"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+    </row>
+    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -4060,10 +6115,15 @@
       <c r="G173" s="1"/>
       <c r="H173" s="1"/>
       <c r="I173" s="1"/>
-    </row>
-    <row r="174" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J173" s="1"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+    </row>
+    <row r="174" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B174" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
@@ -4082,8 +6142,23 @@
       <c r="I174" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J174" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K174" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L174" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M174" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N174" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -4092,119 +6167,184 @@
       <c r="G175" s="1"/>
       <c r="H175" s="1"/>
       <c r="I175" s="1"/>
-    </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J175" s="1"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="1"/>
+      <c r="N175" s="1"/>
+    </row>
+    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B176" s="8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C176" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D176" s="9"/>
-      <c r="E176" s="9">
+      <c r="E176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G176" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H176" s="9">
+        <v>502909</v>
+      </c>
+      <c r="I176" s="9">
+        <v>469047</v>
+      </c>
+      <c r="J176" s="9">
         <v>469143</v>
       </c>
-      <c r="F176" s="9">
+      <c r="K176" s="9">
         <v>618601</v>
       </c>
-      <c r="G176" s="9">
+      <c r="L176" s="9">
         <v>618466</v>
       </c>
-      <c r="H176" s="9">
+      <c r="M176" s="9">
         <v>958288</v>
       </c>
-      <c r="I176" s="9">
+      <c r="N176" s="9">
         <v>479655</v>
       </c>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B177" s="10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C177" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D177" s="11"/>
-      <c r="E177" s="11">
+      <c r="E177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H177" s="11">
+        <v>60587</v>
+      </c>
+      <c r="I177" s="11">
+        <v>99194</v>
+      </c>
+      <c r="J177" s="11">
         <v>98920</v>
       </c>
-      <c r="F177" s="11">
+      <c r="K177" s="11">
         <v>114788</v>
       </c>
-      <c r="G177" s="11">
+      <c r="L177" s="11">
         <v>130844</v>
       </c>
-      <c r="H177" s="11">
+      <c r="M177" s="11">
         <v>168683</v>
       </c>
-      <c r="I177" s="11">
+      <c r="N177" s="11">
         <v>138767</v>
       </c>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B178" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C178" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D178" s="9"/>
-      <c r="E178" s="9">
+      <c r="E178" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F178" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H178" s="9">
+        <v>358351</v>
+      </c>
+      <c r="I178" s="9">
+        <v>593540</v>
+      </c>
+      <c r="J178" s="9">
         <v>596006</v>
       </c>
-      <c r="F178" s="9">
+      <c r="K178" s="9">
         <v>599835</v>
       </c>
-      <c r="G178" s="9">
+      <c r="L178" s="9">
         <v>796426</v>
       </c>
-      <c r="H178" s="9">
+      <c r="M178" s="9">
         <v>799940</v>
       </c>
-      <c r="I178" s="9">
+      <c r="N178" s="9">
         <v>945128</v>
       </c>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B179" s="10" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C179" s="11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D179" s="11"/>
-      <c r="E179" s="11">
+      <c r="E179" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F179" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G179" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H179" s="11">
+        <v>2601852</v>
+      </c>
+      <c r="I179" s="11">
+        <v>3241775</v>
+      </c>
+      <c r="J179" s="11">
         <v>1901867</v>
       </c>
-      <c r="F179" s="11">
+      <c r="K179" s="11">
         <v>3982353</v>
       </c>
-      <c r="G179" s="11">
+      <c r="L179" s="11">
         <v>4316694</v>
       </c>
-      <c r="H179" s="11">
+      <c r="M179" s="11">
         <v>5769659</v>
       </c>
-      <c r="I179" s="11">
+      <c r="N179" s="11">
         <v>7459084</v>
       </c>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B180" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="C180" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="C180" s="9" t="s">
-        <v>25</v>
-      </c>
       <c r="D180" s="9"/>
-      <c r="E180" s="9">
-        <v>140063</v>
-      </c>
-      <c r="F180" s="9">
-        <v>140063</v>
-      </c>
-      <c r="G180" s="9">
-        <v>140063</v>
+      <c r="E180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F180" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G180" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="H180" s="9">
         <v>140063</v>
@@ -4212,56 +6352,101 @@
       <c r="I180" s="9">
         <v>140063</v>
       </c>
-    </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J180" s="9">
+        <v>140063</v>
+      </c>
+      <c r="K180" s="9">
+        <v>140063</v>
+      </c>
+      <c r="L180" s="9">
+        <v>140063</v>
+      </c>
+      <c r="M180" s="9">
+        <v>140063</v>
+      </c>
+      <c r="N180" s="9">
+        <v>140063</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B181" s="10" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="C181" s="11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D181" s="11"/>
       <c r="E181" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F181" s="11">
+        <v>31</v>
+      </c>
+      <c r="F181" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="G181" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="H181" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="I181" s="11">
+        <v>43442</v>
+      </c>
+      <c r="J181" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="K181" s="11">
         <v>39170</v>
       </c>
-      <c r="G181" s="11">
+      <c r="L181" s="11">
         <v>39868</v>
       </c>
-      <c r="H181" s="11">
+      <c r="M181" s="11">
         <v>35948</v>
       </c>
-      <c r="I181" s="11">
+      <c r="N181" s="11">
         <v>34043</v>
       </c>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B182" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C182" s="9" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D182" s="9"/>
-      <c r="E182" s="9">
+      <c r="E182" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F182" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G182" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H182" s="9">
+        <v>111354</v>
+      </c>
+      <c r="I182" s="9">
+        <v>106799</v>
+      </c>
+      <c r="J182" s="9">
         <v>106810</v>
       </c>
-      <c r="F182" s="9">
+      <c r="K182" s="9">
         <v>114491</v>
       </c>
-      <c r="G182" s="9">
+      <c r="L182" s="9">
         <v>112430</v>
       </c>
-      <c r="H182" s="9">
+      <c r="M182" s="9">
         <v>245221</v>
       </c>
-      <c r="I182" s="9">
+      <c r="N182" s="9">
         <v>3714082</v>
       </c>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -4270,8 +6455,13 @@
       <c r="G183" s="1"/>
       <c r="H183" s="1"/>
       <c r="I183" s="1"/>
-    </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J183" s="1"/>
+      <c r="K183" s="1"/>
+      <c r="L183" s="1"/>
+      <c r="M183" s="1"/>
+      <c r="N183" s="1"/>
+    </row>
+    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -4280,8 +6470,13 @@
       <c r="G184" s="1"/>
       <c r="H184" s="1"/>
       <c r="I184" s="1"/>
-    </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J184" s="1"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+    </row>
+    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -4290,10 +6485,15 @@
       <c r="G185" s="1"/>
       <c r="H185" s="1"/>
       <c r="I185" s="1"/>
-    </row>
-    <row r="186" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J185" s="1"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+    </row>
+    <row r="186" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B186" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
@@ -4312,8 +6512,23 @@
       <c r="I186" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J186" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="K186" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="L186" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="M186" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="N186" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -4322,32 +6537,52 @@
       <c r="G187" s="1"/>
       <c r="H187" s="1"/>
       <c r="I187" s="1"/>
-    </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J187" s="1"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+    </row>
+    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B188" s="8" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9">
+        <v>0</v>
+      </c>
+      <c r="F188" s="9">
+        <v>26887</v>
+      </c>
+      <c r="G188" s="9">
+        <v>-26887</v>
+      </c>
+      <c r="H188" s="9">
+        <v>0</v>
+      </c>
+      <c r="I188" s="9">
+        <v>0</v>
+      </c>
+      <c r="J188" s="9">
         <v>50709</v>
       </c>
-      <c r="F188" s="9">
+      <c r="K188" s="9">
         <v>-50709</v>
       </c>
-      <c r="G188" s="9">
-        <v>0</v>
-      </c>
-      <c r="H188" s="9">
-        <v>0</v>
-      </c>
-      <c r="I188" s="9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L188" s="9">
+        <v>0</v>
+      </c>
+      <c r="M188" s="9">
+        <v>0</v>
+      </c>
+      <c r="N188" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B189" s="10" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C189" s="11"/>
       <c r="D189" s="11"/>
@@ -4366,10 +6601,25 @@
       <c r="I189" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J189" s="11">
+        <v>0</v>
+      </c>
+      <c r="K189" s="11">
+        <v>0</v>
+      </c>
+      <c r="L189" s="11">
+        <v>0</v>
+      </c>
+      <c r="M189" s="11">
+        <v>0</v>
+      </c>
+      <c r="N189" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B190" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="C190" s="9"/>
       <c r="D190" s="9"/>
@@ -4388,10 +6638,25 @@
       <c r="I190" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J190" s="9">
+        <v>0</v>
+      </c>
+      <c r="K190" s="9">
+        <v>0</v>
+      </c>
+      <c r="L190" s="9">
+        <v>0</v>
+      </c>
+      <c r="M190" s="9">
+        <v>0</v>
+      </c>
+      <c r="N190" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B191" s="10" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="C191" s="11"/>
       <c r="D191" s="11"/>
@@ -4410,10 +6675,25 @@
       <c r="I191" s="11">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J191" s="11">
+        <v>0</v>
+      </c>
+      <c r="K191" s="11">
+        <v>0</v>
+      </c>
+      <c r="L191" s="11">
+        <v>0</v>
+      </c>
+      <c r="M191" s="11">
+        <v>0</v>
+      </c>
+      <c r="N191" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B192" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C192" s="9"/>
       <c r="D192" s="9"/>
@@ -4432,76 +6712,136 @@
       <c r="I192" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J192" s="9">
+        <v>0</v>
+      </c>
+      <c r="K192" s="9">
+        <v>0</v>
+      </c>
+      <c r="L192" s="9">
+        <v>0</v>
+      </c>
+      <c r="M192" s="9">
+        <v>0</v>
+      </c>
+      <c r="N192" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B193" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11">
+        <v>57874</v>
+      </c>
+      <c r="F193" s="11">
+        <v>39930</v>
+      </c>
+      <c r="G193" s="11">
+        <v>40838</v>
+      </c>
+      <c r="H193" s="11">
+        <v>43495</v>
+      </c>
+      <c r="I193" s="11">
+        <v>153380</v>
+      </c>
+      <c r="J193" s="11">
         <v>51821</v>
       </c>
-      <c r="F193" s="11">
+      <c r="K193" s="11">
         <v>271734</v>
       </c>
-      <c r="G193" s="11">
+      <c r="L193" s="11">
         <v>40967</v>
       </c>
-      <c r="H193" s="11">
+      <c r="M193" s="11">
         <v>450989</v>
       </c>
-      <c r="I193" s="11">
+      <c r="N193" s="11">
         <v>110305</v>
       </c>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B194" s="8" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9">
+        <v>55685</v>
+      </c>
+      <c r="F194" s="9">
+        <v>-1231</v>
+      </c>
+      <c r="G194" s="9">
+        <v>27845</v>
+      </c>
+      <c r="H194" s="9">
+        <v>26870</v>
+      </c>
+      <c r="I194" s="9">
+        <v>29116</v>
+      </c>
+      <c r="J194" s="9">
         <v>53</v>
       </c>
-      <c r="F194" s="9">
+      <c r="K194" s="9">
         <v>59428</v>
       </c>
-      <c r="G194" s="9">
+      <c r="L194" s="9">
         <v>27380</v>
       </c>
-      <c r="H194" s="9">
+      <c r="M194" s="9">
         <v>33659</v>
       </c>
-      <c r="I194" s="9">
+      <c r="N194" s="9">
         <v>30519</v>
       </c>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B195" s="10" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11">
+        <v>133958</v>
+      </c>
+      <c r="F195" s="11">
+        <v>37881</v>
+      </c>
+      <c r="G195" s="11">
+        <v>202218</v>
+      </c>
+      <c r="H195" s="11">
+        <v>144880</v>
+      </c>
+      <c r="I195" s="11">
+        <v>218220</v>
+      </c>
+      <c r="J195" s="11">
         <v>161330</v>
       </c>
-      <c r="F195" s="11">
+      <c r="K195" s="11">
         <v>197038</v>
       </c>
-      <c r="G195" s="11">
+      <c r="L195" s="11">
         <v>203538</v>
       </c>
-      <c r="H195" s="11">
+      <c r="M195" s="11">
         <v>243420</v>
       </c>
-      <c r="I195" s="11">
+      <c r="N195" s="11">
         <v>168029</v>
       </c>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B196" s="8" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="C196" s="9"/>
       <c r="D196" s="9"/>
@@ -4520,52 +6860,97 @@
       <c r="I196" s="9">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J196" s="9">
+        <v>0</v>
+      </c>
+      <c r="K196" s="9">
+        <v>0</v>
+      </c>
+      <c r="L196" s="9">
+        <v>0</v>
+      </c>
+      <c r="M196" s="9">
+        <v>0</v>
+      </c>
+      <c r="N196" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B197" s="10" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
+        <v>79179</v>
+      </c>
+      <c r="F197" s="11">
+        <v>43326</v>
+      </c>
+      <c r="G197" s="11">
+        <v>171225</v>
+      </c>
+      <c r="H197" s="11">
+        <v>117357</v>
+      </c>
+      <c r="I197" s="11">
+        <v>133290</v>
+      </c>
+      <c r="J197" s="11">
         <v>116931</v>
       </c>
-      <c r="F197" s="11">
+      <c r="K197" s="11">
         <v>227783</v>
       </c>
-      <c r="G197" s="11">
+      <c r="L197" s="11">
         <v>345809</v>
       </c>
-      <c r="H197" s="11">
+      <c r="M197" s="11">
         <v>181364</v>
       </c>
-      <c r="I197" s="11">
+      <c r="N197" s="11">
         <v>359233</v>
       </c>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B198" s="14" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15">
+        <v>326696</v>
+      </c>
+      <c r="F198" s="15">
+        <v>146793</v>
+      </c>
+      <c r="G198" s="15">
+        <v>415239</v>
+      </c>
+      <c r="H198" s="15">
+        <v>332602</v>
+      </c>
+      <c r="I198" s="15">
+        <v>534006</v>
+      </c>
+      <c r="J198" s="15">
         <v>380844</v>
       </c>
-      <c r="F198" s="15">
+      <c r="K198" s="15">
         <v>705274</v>
       </c>
-      <c r="G198" s="15">
+      <c r="L198" s="15">
         <v>617694</v>
       </c>
-      <c r="H198" s="15">
+      <c r="M198" s="15">
         <v>909432</v>
       </c>
-      <c r="I198" s="15">
+      <c r="N198" s="15">
         <v>668086</v>
       </c>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -4574,8 +6959,13 @@
       <c r="G199" s="1"/>
       <c r="H199" s="1"/>
       <c r="I199" s="1"/>
-    </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J199" s="1"/>
+      <c r="K199" s="1"/>
+      <c r="L199" s="1"/>
+      <c r="M199" s="1"/>
+      <c r="N199" s="1"/>
+    </row>
+    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -4584,8 +6974,13 @@
       <c r="G200" s="1"/>
       <c r="H200" s="1"/>
       <c r="I200" s="1"/>
-    </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J200" s="1"/>
+      <c r="K200" s="1"/>
+      <c r="L200" s="1"/>
+      <c r="M200" s="1"/>
+      <c r="N200" s="1"/>
+    </row>
+    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -4594,10 +6989,15 @@
       <c r="G201" s="1"/>
       <c r="H201" s="1"/>
       <c r="I201" s="1"/>
-    </row>
-    <row r="202" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J201" s="1"/>
+      <c r="K201" s="1"/>
+      <c r="L201" s="1"/>
+      <c r="M201" s="1"/>
+      <c r="N201" s="1"/>
+    </row>
+    <row r="202" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B202" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="6"/>
@@ -4606,8 +7006,13 @@
       <c r="G202" s="1"/>
       <c r="H202" s="1"/>
       <c r="I202" s="1"/>
-    </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J202" s="1"/>
+      <c r="K202" s="1"/>
+      <c r="L202" s="1"/>
+      <c r="M202" s="1"/>
+      <c r="N202" s="1"/>
+    </row>
+    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -4616,13 +7021,18 @@
       <c r="G203" s="1"/>
       <c r="H203" s="1"/>
       <c r="I203" s="1"/>
-    </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J203" s="1"/>
+      <c r="K203" s="1"/>
+      <c r="L203" s="1"/>
+      <c r="M203" s="1"/>
+      <c r="N203" s="1"/>
+    </row>
+    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B204" s="8" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C204" s="9" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D204" s="9"/>
       <c r="E204" s="9"/>
@@ -4630,123 +7040,128 @@
       <c r="G204" s="1"/>
       <c r="H204" s="1"/>
       <c r="I204" s="1"/>
-    </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J204" s="1"/>
+      <c r="K204" s="1"/>
+      <c r="L204" s="1"/>
+      <c r="M204" s="1"/>
+      <c r="N204" s="1"/>
+    </row>
+    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B205" s="10" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="C205" s="11" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D205" s="11"/>
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B206" s="8" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="C206" s="9" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D206" s="9"/>
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B207" s="10" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C207" s="11" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D207" s="11"/>
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B208" s="8" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C208" s="9" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D208" s="9"/>
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B209" s="10" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="C209" s="11" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D209" s="11"/>
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B210" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="C210" s="9" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="D210" s="9"/>
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B211" s="10" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C211" s="11" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="D211" s="11"/>
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B212" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C212" s="9" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D212" s="9"/>
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B213" s="10" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C213" s="11" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="D213" s="11"/>
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B214" s="8" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C214" s="9" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="D214" s="9"/>
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B215" s="10" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C215" s="11" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="D215" s="11"/>
       <c r="E215" s="11"/>

--- a/database/industries/siman/silam/cost/quarterly.xlsx
+++ b/database/industries/siman/silam/cost/quarterly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\cost\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\siman\silam\cost\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{128775BE-E3E9-4FEC-BF48-184B7AD0146A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E5CD627-6538-46B1-B533-548601FF4551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="90">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -34,12 +34,6 @@
     <t>بهای تمام شده</t>
   </si>
   <si>
-    <t>فصل دوم منتهی به 1399/04</t>
-  </si>
-  <si>
-    <t>فصل سوم منتهی به 1399/07</t>
-  </si>
-  <si>
     <t>فصل چهارم منتهی به 1399/10</t>
   </si>
   <si>
@@ -62,6 +56,12 @@
   </si>
   <si>
     <t>فصل سوم منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1402/01</t>
   </si>
   <si>
     <t>مواد مستقیم مصرفی</t>
@@ -749,12 +749,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -769,7 +769,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -786,7 +786,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -803,7 +803,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -818,7 +818,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -835,7 +835,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -852,7 +852,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -867,7 +867,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>3</v>
       </c>
@@ -904,7 +904,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -919,266 +919,266 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
       <c r="E10" s="9">
-        <v>97212</v>
+        <v>185171</v>
       </c>
       <c r="F10" s="9">
-        <v>76883</v>
+        <v>162480</v>
       </c>
       <c r="G10" s="9">
-        <v>185171</v>
+        <v>243017</v>
       </c>
       <c r="H10" s="9">
-        <v>162480</v>
+        <v>176342</v>
       </c>
       <c r="I10" s="9">
-        <v>243017</v>
+        <v>161657</v>
       </c>
       <c r="J10" s="9">
-        <v>176342</v>
+        <v>148091</v>
       </c>
       <c r="K10" s="9">
-        <v>161657</v>
+        <v>281545</v>
       </c>
       <c r="L10" s="9">
-        <v>148091</v>
+        <v>192408</v>
       </c>
       <c r="M10" s="9">
-        <v>281545</v>
+        <v>424432</v>
       </c>
       <c r="N10" s="9">
-        <v>192408</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+        <v>225997</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>15</v>
       </c>
       <c r="C11" s="11"/>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>26809</v>
+        <v>62782</v>
       </c>
       <c r="F11" s="11">
-        <v>9828</v>
+        <v>24965</v>
       </c>
       <c r="G11" s="11">
-        <v>62782</v>
+        <v>72601</v>
       </c>
       <c r="H11" s="11">
-        <v>24965</v>
+        <v>14384</v>
       </c>
       <c r="I11" s="11">
-        <v>72601</v>
+        <v>78019</v>
       </c>
       <c r="J11" s="11">
-        <v>14384</v>
+        <v>41313</v>
       </c>
       <c r="K11" s="11">
-        <v>78019</v>
+        <v>222271</v>
       </c>
       <c r="L11" s="11">
-        <v>41313</v>
+        <v>34725</v>
       </c>
       <c r="M11" s="11">
-        <v>222271</v>
+        <v>88598</v>
       </c>
       <c r="N11" s="11">
-        <v>34725</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74064</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
         <v>16</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9">
-        <v>326696</v>
+        <v>415239</v>
       </c>
       <c r="F12" s="9">
-        <v>146793</v>
+        <v>332602</v>
       </c>
       <c r="G12" s="9">
-        <v>415239</v>
+        <v>534006</v>
       </c>
       <c r="H12" s="9">
-        <v>332602</v>
+        <v>380844</v>
       </c>
       <c r="I12" s="9">
-        <v>534006</v>
+        <v>705274</v>
       </c>
       <c r="J12" s="9">
-        <v>380844</v>
+        <v>617694</v>
       </c>
       <c r="K12" s="9">
-        <v>705274</v>
+        <v>909432</v>
       </c>
       <c r="L12" s="9">
-        <v>617694</v>
+        <v>668086</v>
       </c>
       <c r="M12" s="9">
-        <v>909432</v>
+        <v>1202879</v>
       </c>
       <c r="N12" s="9">
-        <v>668086</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1106686</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="13"/>
       <c r="D13" s="13"/>
       <c r="E13" s="13">
-        <v>450717</v>
+        <v>663192</v>
       </c>
       <c r="F13" s="13">
-        <v>233504</v>
+        <v>520047</v>
       </c>
       <c r="G13" s="13">
-        <v>663192</v>
+        <v>849624</v>
       </c>
       <c r="H13" s="13">
-        <v>520047</v>
+        <v>571570</v>
       </c>
       <c r="I13" s="13">
-        <v>849624</v>
+        <v>944950</v>
       </c>
       <c r="J13" s="13">
-        <v>571570</v>
+        <v>807098</v>
       </c>
       <c r="K13" s="13">
-        <v>944950</v>
+        <v>1413248</v>
       </c>
       <c r="L13" s="13">
-        <v>807098</v>
+        <v>895219</v>
       </c>
       <c r="M13" s="13">
-        <v>1413248</v>
+        <v>1715909</v>
       </c>
       <c r="N13" s="13">
-        <v>895219</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1406747</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="9">
-        <v>7263</v>
+        <v>-27940</v>
       </c>
       <c r="F14" s="9">
-        <v>-26636</v>
+        <v>-7881</v>
       </c>
       <c r="G14" s="9">
-        <v>-27940</v>
+        <v>-39053</v>
       </c>
       <c r="H14" s="9">
-        <v>-7881</v>
+        <v>-5373</v>
       </c>
       <c r="I14" s="9">
-        <v>-39053</v>
+        <v>-24490</v>
       </c>
       <c r="J14" s="9">
-        <v>-5373</v>
+        <v>0</v>
       </c>
       <c r="K14" s="9">
-        <v>-24490</v>
+        <v>-94804</v>
       </c>
       <c r="L14" s="9">
-        <v>0</v>
+        <v>18273</v>
       </c>
       <c r="M14" s="9">
-        <v>-94804</v>
+        <v>-26535</v>
       </c>
       <c r="N14" s="9">
-        <v>18273</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-98431</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
-        <v>457980</v>
+        <v>635252</v>
       </c>
       <c r="F15" s="13">
-        <v>206868</v>
+        <v>512166</v>
       </c>
       <c r="G15" s="13">
-        <v>635252</v>
+        <v>810571</v>
       </c>
       <c r="H15" s="13">
-        <v>512166</v>
+        <v>566197</v>
       </c>
       <c r="I15" s="13">
-        <v>810571</v>
+        <v>920460</v>
       </c>
       <c r="J15" s="13">
-        <v>566197</v>
+        <v>807098</v>
       </c>
       <c r="K15" s="13">
-        <v>920460</v>
+        <v>1318444</v>
       </c>
       <c r="L15" s="13">
-        <v>807098</v>
+        <v>913492</v>
       </c>
       <c r="M15" s="13">
-        <v>1318444</v>
+        <v>1689374</v>
       </c>
       <c r="N15" s="13">
-        <v>913492</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1308316</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9">
-        <v>-54293</v>
+        <v>-187513</v>
       </c>
       <c r="F16" s="9">
-        <v>157631</v>
+        <v>-73160</v>
       </c>
       <c r="G16" s="9">
-        <v>-187513</v>
+        <v>-87143</v>
       </c>
       <c r="H16" s="9">
-        <v>-73160</v>
+        <v>-20986</v>
       </c>
       <c r="I16" s="9">
-        <v>-87143</v>
+        <v>-209302</v>
       </c>
       <c r="J16" s="9">
-        <v>-20986</v>
+        <v>-62777</v>
       </c>
       <c r="K16" s="9">
-        <v>-209302</v>
+        <v>-307805</v>
       </c>
       <c r="L16" s="9">
-        <v>-62777</v>
+        <v>-138140</v>
       </c>
       <c r="M16" s="9">
-        <v>-307805</v>
+        <v>-165767</v>
       </c>
       <c r="N16" s="9">
-        <v>-138140</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-337841</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>21</v>
       </c>
@@ -1215,155 +1215,155 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="14" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15">
-        <v>403687</v>
+        <v>447739</v>
       </c>
       <c r="F18" s="15">
-        <v>364499</v>
+        <v>439006</v>
       </c>
       <c r="G18" s="15">
-        <v>447739</v>
+        <v>723428</v>
       </c>
       <c r="H18" s="15">
-        <v>439006</v>
+        <v>545211</v>
       </c>
       <c r="I18" s="15">
-        <v>723428</v>
+        <v>711158</v>
       </c>
       <c r="J18" s="15">
-        <v>545211</v>
+        <v>744321</v>
       </c>
       <c r="K18" s="15">
-        <v>711158</v>
+        <v>1010639</v>
       </c>
       <c r="L18" s="15">
-        <v>744321</v>
+        <v>775352</v>
       </c>
       <c r="M18" s="15">
-        <v>1010639</v>
+        <v>1523607</v>
       </c>
       <c r="N18" s="15">
-        <v>775352</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+        <v>970475</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="10" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11"/>
       <c r="D19" s="11"/>
       <c r="E19" s="11">
-        <v>0</v>
+        <v>47148</v>
       </c>
       <c r="F19" s="11">
-        <v>0</v>
+        <v>57066</v>
       </c>
       <c r="G19" s="11">
         <v>0</v>
       </c>
       <c r="H19" s="11">
-        <v>57066</v>
+        <v>0</v>
       </c>
       <c r="I19" s="11">
-        <v>0</v>
+        <v>132486</v>
       </c>
       <c r="J19" s="11">
-        <v>0</v>
+        <v>59005</v>
       </c>
       <c r="K19" s="11">
-        <v>82767</v>
+        <v>87907</v>
       </c>
       <c r="L19" s="11">
-        <v>59005</v>
+        <v>64725</v>
       </c>
       <c r="M19" s="11">
-        <v>0</v>
+        <v>755644</v>
       </c>
       <c r="N19" s="11">
-        <v>23182</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+        <v>735133</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
         <v>24</v>
       </c>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9">
-        <v>-3533</v>
+        <v>-57066</v>
       </c>
       <c r="F20" s="9">
-        <v>5158</v>
+        <v>-48073</v>
       </c>
       <c r="G20" s="9">
-        <v>-9918</v>
+        <v>-1646</v>
       </c>
       <c r="H20" s="9">
-        <v>-48073</v>
+        <v>-82767</v>
       </c>
       <c r="I20" s="9">
-        <v>-1646</v>
+        <v>-721669</v>
       </c>
       <c r="J20" s="9">
-        <v>-82767</v>
+        <v>-87907</v>
       </c>
       <c r="K20" s="9">
-        <v>-721669</v>
+        <v>-64725</v>
       </c>
       <c r="L20" s="9">
-        <v>-87907</v>
+        <v>-755644</v>
       </c>
       <c r="M20" s="9">
-        <v>23182</v>
+        <v>-735133</v>
       </c>
       <c r="N20" s="9">
-        <v>-755644</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+        <v>-744515</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13"/>
       <c r="E21" s="13">
-        <v>400154</v>
+        <v>437821</v>
       </c>
       <c r="F21" s="13">
-        <v>369657</v>
+        <v>447999</v>
       </c>
       <c r="G21" s="13">
-        <v>437821</v>
+        <v>721782</v>
       </c>
       <c r="H21" s="13">
-        <v>447999</v>
+        <v>462444</v>
       </c>
       <c r="I21" s="13">
-        <v>721782</v>
+        <v>784639</v>
       </c>
       <c r="J21" s="13">
-        <v>462444</v>
+        <v>715419</v>
       </c>
       <c r="K21" s="13">
-        <v>784639</v>
+        <v>1033821</v>
       </c>
       <c r="L21" s="13">
-        <v>715419</v>
+        <v>747097</v>
       </c>
       <c r="M21" s="13">
-        <v>1033821</v>
+        <v>1544118</v>
       </c>
       <c r="N21" s="13">
-        <v>747097</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+        <v>961093</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>26</v>
       </c>
@@ -1400,44 +1400,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>27</v>
       </c>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
       <c r="E23" s="13">
-        <v>400154</v>
+        <v>437821</v>
       </c>
       <c r="F23" s="13">
-        <v>369657</v>
+        <v>447999</v>
       </c>
       <c r="G23" s="13">
-        <v>437821</v>
+        <v>721782</v>
       </c>
       <c r="H23" s="13">
-        <v>447999</v>
+        <v>462444</v>
       </c>
       <c r="I23" s="13">
-        <v>721782</v>
+        <v>784639</v>
       </c>
       <c r="J23" s="13">
-        <v>462444</v>
+        <v>715419</v>
       </c>
       <c r="K23" s="13">
-        <v>784639</v>
+        <v>1033821</v>
       </c>
       <c r="L23" s="13">
-        <v>715419</v>
+        <v>747097</v>
       </c>
       <c r="M23" s="13">
-        <v>1033821</v>
+        <v>1544118</v>
       </c>
       <c r="N23" s="13">
-        <v>747097</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+        <v>961093</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1452,7 +1452,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1467,7 +1467,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -1482,7 +1482,7 @@
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
     </row>
-    <row r="27" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -1534,7 +1534,7 @@
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>29</v>
       </c>
@@ -1543,37 +1543,37 @@
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9">
-        <v>16330</v>
+        <v>1471</v>
       </c>
       <c r="F29" s="9">
-        <v>5347</v>
+        <v>6148</v>
       </c>
       <c r="G29" s="9">
-        <v>1471</v>
+        <v>25778</v>
       </c>
       <c r="H29" s="9">
-        <v>6148</v>
-      </c>
-      <c r="I29" s="9">
-        <v>25778</v>
+        <v>16186</v>
+      </c>
+      <c r="I29" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J29" s="9">
-        <v>16186</v>
-      </c>
-      <c r="K29" s="9" t="s">
-        <v>31</v>
+        <v>21450</v>
+      </c>
+      <c r="K29" s="9">
+        <v>2946</v>
       </c>
       <c r="L29" s="9">
-        <v>21450</v>
+        <v>21217</v>
       </c>
       <c r="M29" s="9">
-        <v>2946</v>
+        <v>30991</v>
       </c>
       <c r="N29" s="9">
-        <v>21217</v>
-      </c>
-    </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+        <v>16458</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
         <v>32</v>
       </c>
@@ -1582,37 +1582,37 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>331969</v>
+        <v>506385</v>
       </c>
       <c r="F30" s="11">
-        <v>123489</v>
+        <v>568219</v>
       </c>
       <c r="G30" s="11">
-        <v>506385</v>
+        <v>236006</v>
       </c>
       <c r="H30" s="11">
-        <v>568219</v>
-      </c>
-      <c r="I30" s="11">
-        <v>236006</v>
+        <v>299594</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J30" s="11">
-        <v>299594</v>
-      </c>
-      <c r="K30" s="11" t="s">
-        <v>31</v>
+        <v>599358</v>
+      </c>
+      <c r="K30" s="11">
+        <v>366596</v>
       </c>
       <c r="L30" s="11">
-        <v>599358</v>
+        <v>426231</v>
       </c>
       <c r="M30" s="11">
-        <v>366596</v>
+        <v>856062</v>
       </c>
       <c r="N30" s="11">
-        <v>426231</v>
-      </c>
-    </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+        <v>819121</v>
+      </c>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1621,37 +1621,37 @@
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9">
-        <v>11656</v>
+        <v>17704</v>
       </c>
       <c r="F31" s="9">
-        <v>16102</v>
+        <v>5020</v>
       </c>
       <c r="G31" s="9">
-        <v>17704</v>
+        <v>946</v>
       </c>
       <c r="H31" s="9">
-        <v>5020</v>
-      </c>
-      <c r="I31" s="9">
-        <v>946</v>
+        <v>7275</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J31" s="9">
-        <v>7275</v>
-      </c>
-      <c r="K31" s="9" t="s">
-        <v>31</v>
+        <v>10903</v>
+      </c>
+      <c r="K31" s="9">
+        <v>50920</v>
       </c>
       <c r="L31" s="9">
-        <v>10903</v>
+        <v>46886</v>
       </c>
       <c r="M31" s="9">
-        <v>50920</v>
+        <v>39765</v>
       </c>
       <c r="N31" s="9">
-        <v>46886</v>
-      </c>
-    </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28038</v>
+      </c>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>34</v>
       </c>
@@ -1660,37 +1660,37 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>10398</v>
+        <v>4718</v>
       </c>
       <c r="F32" s="11">
-        <v>8020</v>
+        <v>4644</v>
       </c>
       <c r="G32" s="11">
-        <v>4718</v>
+        <v>4104</v>
       </c>
       <c r="H32" s="11">
-        <v>4644</v>
-      </c>
-      <c r="I32" s="11">
-        <v>4104</v>
+        <v>1307</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J32" s="11">
-        <v>1307</v>
-      </c>
-      <c r="K32" s="11" t="s">
-        <v>31</v>
+        <v>2890</v>
+      </c>
+      <c r="K32" s="11">
+        <v>5469</v>
       </c>
       <c r="L32" s="11">
-        <v>2890</v>
+        <v>18325</v>
       </c>
       <c r="M32" s="11">
-        <v>5469</v>
+        <v>28461</v>
       </c>
       <c r="N32" s="11">
-        <v>18325</v>
-      </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21067</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1710,14 +1710,14 @@
       <c r="H33" s="9">
         <v>11659</v>
       </c>
-      <c r="I33" s="9">
-        <v>11659</v>
+      <c r="I33" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J33" s="9">
         <v>11659</v>
       </c>
-      <c r="K33" s="9" t="s">
-        <v>31</v>
+      <c r="K33" s="9">
+        <v>11659</v>
       </c>
       <c r="L33" s="9">
         <v>11659</v>
@@ -1726,10 +1726,10 @@
         <v>11659</v>
       </c>
       <c r="N33" s="9">
-        <v>11659</v>
-      </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11257</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="10" t="s">
         <v>36</v>
       </c>
@@ -1738,37 +1738,37 @@
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11">
-        <v>302369</v>
+        <v>370986</v>
       </c>
       <c r="F34" s="11">
-        <v>92451</v>
+        <v>0</v>
       </c>
       <c r="G34" s="11">
-        <v>370986</v>
+        <v>0</v>
       </c>
       <c r="H34" s="11">
         <v>0</v>
       </c>
-      <c r="I34" s="11">
-        <v>0</v>
+      <c r="I34" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J34" s="11">
-        <v>0</v>
-      </c>
-      <c r="K34" s="11" t="s">
-        <v>31</v>
+        <v>1680490</v>
+      </c>
+      <c r="K34" s="11">
+        <v>1741090</v>
       </c>
       <c r="L34" s="11">
-        <v>1680490</v>
+        <v>4319210</v>
       </c>
       <c r="M34" s="11">
-        <v>1741090</v>
+        <v>2892290</v>
       </c>
       <c r="N34" s="11">
-        <v>4319210</v>
-      </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2866310</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="8" t="s">
         <v>38</v>
       </c>
@@ -1777,37 +1777,37 @@
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9">
-        <v>12043</v>
+        <v>8669</v>
       </c>
       <c r="F35" s="9">
-        <v>6992</v>
+        <v>50662</v>
       </c>
       <c r="G35" s="9">
-        <v>8669</v>
+        <v>155298</v>
       </c>
       <c r="H35" s="9">
-        <v>50662</v>
-      </c>
-      <c r="I35" s="9">
-        <v>155298</v>
+        <v>149580</v>
+      </c>
+      <c r="I35" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J35" s="9">
-        <v>149580</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>31</v>
+        <v>94191</v>
+      </c>
+      <c r="K35" s="9">
+        <v>80023</v>
       </c>
       <c r="L35" s="9">
-        <v>94191</v>
+        <v>14701</v>
       </c>
       <c r="M35" s="9">
-        <v>80023</v>
+        <v>28113</v>
       </c>
       <c r="N35" s="9">
-        <v>14701</v>
-      </c>
-    </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4926</v>
+      </c>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="10" t="s">
         <v>39</v>
       </c>
@@ -1818,14 +1818,14 @@
       <c r="E36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F36" s="11" t="s">
-        <v>31</v>
+      <c r="F36" s="11">
+        <v>0</v>
       </c>
       <c r="G36" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H36" s="11">
-        <v>0</v>
+      <c r="H36" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I36" s="11" t="s">
         <v>31</v>
@@ -1846,44 +1846,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C37" s="15"/>
       <c r="D37" s="15"/>
       <c r="E37" s="15">
-        <v>696424</v>
+        <v>921592</v>
       </c>
       <c r="F37" s="15">
-        <v>264060</v>
+        <v>646352</v>
       </c>
       <c r="G37" s="15">
-        <v>921592</v>
+        <v>433791</v>
       </c>
       <c r="H37" s="15">
-        <v>646352</v>
+        <v>485601</v>
       </c>
       <c r="I37" s="15">
-        <v>433791</v>
+        <v>0</v>
       </c>
       <c r="J37" s="15">
-        <v>485601</v>
+        <v>2420941</v>
       </c>
       <c r="K37" s="15">
-        <v>0</v>
+        <v>2258703</v>
       </c>
       <c r="L37" s="15">
-        <v>2420941</v>
+        <v>4858229</v>
       </c>
       <c r="M37" s="15">
-        <v>2258703</v>
+        <v>3887341</v>
       </c>
       <c r="N37" s="15">
-        <v>4858229</v>
-      </c>
-    </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+        <v>3767177</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -1898,7 +1898,7 @@
       <c r="M38" s="1"/>
       <c r="N38" s="1"/>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -1913,7 +1913,7 @@
       <c r="M39" s="1"/>
       <c r="N39" s="1"/>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1928,7 +1928,7 @@
       <c r="M40" s="1"/>
       <c r="N40" s="1"/>
     </row>
-    <row r="41" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>41</v>
       </c>
@@ -1965,7 +1965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1980,7 +1980,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="8" t="s">
         <v>29</v>
       </c>
@@ -1989,37 +1989,37 @@
       </c>
       <c r="D43" s="9"/>
       <c r="E43" s="9">
-        <v>5178</v>
+        <v>20279</v>
       </c>
       <c r="F43" s="9">
-        <v>4391</v>
+        <v>35520</v>
       </c>
       <c r="G43" s="9">
-        <v>20279</v>
+        <v>4000</v>
       </c>
       <c r="H43" s="9">
-        <v>35520</v>
+        <v>21354</v>
       </c>
       <c r="I43" s="9">
-        <v>4000</v>
+        <v>19235</v>
       </c>
       <c r="J43" s="9">
-        <v>21354</v>
+        <v>5488</v>
       </c>
       <c r="K43" s="9">
-        <v>19235</v>
+        <v>43064</v>
       </c>
       <c r="L43" s="9">
-        <v>5488</v>
+        <v>36020</v>
       </c>
       <c r="M43" s="9">
-        <v>43064</v>
+        <v>32928</v>
       </c>
       <c r="N43" s="9">
-        <v>36020</v>
-      </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
+        <v>34935</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B44" s="10" t="s">
         <v>32</v>
       </c>
@@ -2028,37 +2028,37 @@
       </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11">
-        <v>177506</v>
+        <v>221770</v>
       </c>
       <c r="F44" s="11">
-        <v>617413</v>
+        <v>0</v>
       </c>
       <c r="G44" s="11">
-        <v>221770</v>
+        <v>508230</v>
       </c>
       <c r="H44" s="11">
-        <v>0</v>
+        <v>691208</v>
       </c>
       <c r="I44" s="11">
-        <v>508230</v>
+        <v>370216</v>
       </c>
       <c r="J44" s="11">
-        <v>691208</v>
+        <v>53376</v>
       </c>
       <c r="K44" s="11">
-        <v>370216</v>
+        <v>441231</v>
       </c>
       <c r="L44" s="11">
-        <v>53376</v>
+        <v>736206</v>
       </c>
       <c r="M44" s="11">
-        <v>441231</v>
+        <v>289998</v>
       </c>
       <c r="N44" s="11">
-        <v>736206</v>
-      </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+        <v>19580</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="8" t="s">
         <v>33</v>
       </c>
@@ -2067,37 +2067,37 @@
       </c>
       <c r="D45" s="9"/>
       <c r="E45" s="9">
-        <v>11978</v>
+        <v>118</v>
       </c>
       <c r="F45" s="9">
-        <v>7992</v>
+        <v>0</v>
       </c>
       <c r="G45" s="9">
-        <v>118</v>
+        <v>15719</v>
       </c>
       <c r="H45" s="9">
-        <v>0</v>
+        <v>4551</v>
       </c>
       <c r="I45" s="9">
-        <v>15719</v>
+        <v>15748</v>
       </c>
       <c r="J45" s="9">
-        <v>4551</v>
+        <v>43599</v>
       </c>
       <c r="K45" s="9">
-        <v>15748</v>
+        <v>-1</v>
       </c>
       <c r="L45" s="9">
-        <v>43599</v>
+        <v>0</v>
       </c>
       <c r="M45" s="9">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="10" t="s">
         <v>34</v>
       </c>
@@ -2106,37 +2106,37 @@
       </c>
       <c r="D46" s="11"/>
       <c r="E46" s="11">
-        <v>12208</v>
+        <v>6720</v>
       </c>
       <c r="F46" s="11">
-        <v>6178</v>
+        <v>5743</v>
       </c>
       <c r="G46" s="11">
-        <v>6720</v>
+        <v>4915</v>
       </c>
       <c r="H46" s="11">
-        <v>5743</v>
+        <v>8768</v>
       </c>
       <c r="I46" s="11">
-        <v>4915</v>
+        <v>9417</v>
       </c>
       <c r="J46" s="11">
-        <v>8768</v>
+        <v>11604</v>
       </c>
       <c r="K46" s="11">
-        <v>9417</v>
+        <v>24501</v>
       </c>
       <c r="L46" s="11">
-        <v>11604</v>
+        <v>21173</v>
       </c>
       <c r="M46" s="11">
-        <v>24501</v>
+        <v>12880</v>
       </c>
       <c r="N46" s="11">
-        <v>21173</v>
-      </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+        <v>13714</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="8" t="s">
         <v>35</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="10" t="s">
         <v>36</v>
       </c>
@@ -2184,37 +2184,37 @@
       </c>
       <c r="D48" s="11"/>
       <c r="E48" s="11">
-        <v>3494996</v>
+        <v>3061232</v>
       </c>
       <c r="F48" s="11">
-        <v>1336005</v>
+        <v>2768920</v>
       </c>
       <c r="G48" s="11">
-        <v>3061232</v>
+        <v>2771730</v>
       </c>
       <c r="H48" s="11">
-        <v>2768920</v>
+        <v>1943050</v>
       </c>
       <c r="I48" s="11">
-        <v>2771730</v>
+        <v>3133850</v>
       </c>
       <c r="J48" s="11">
-        <v>1943050</v>
+        <v>1345000</v>
       </c>
       <c r="K48" s="11">
-        <v>3133850</v>
+        <v>4502340</v>
       </c>
       <c r="L48" s="11">
-        <v>1345000</v>
+        <v>0</v>
       </c>
       <c r="M48" s="11">
-        <v>4502340</v>
+        <v>1893450</v>
       </c>
       <c r="N48" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+        <v>505290</v>
+      </c>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="8" t="s">
         <v>38</v>
       </c>
@@ -2223,37 +2223,37 @@
       </c>
       <c r="D49" s="9"/>
       <c r="E49" s="9">
-        <v>30855</v>
+        <v>78735</v>
       </c>
       <c r="F49" s="9">
-        <v>18339</v>
+        <v>120593</v>
       </c>
       <c r="G49" s="9">
-        <v>78735</v>
+        <v>25649</v>
       </c>
       <c r="H49" s="9">
-        <v>120593</v>
+        <v>-1</v>
       </c>
       <c r="I49" s="9">
-        <v>25649</v>
+        <v>486</v>
       </c>
       <c r="J49" s="9">
-        <v>-1</v>
+        <v>24571</v>
       </c>
       <c r="K49" s="9">
-        <v>486</v>
+        <v>-18178</v>
       </c>
       <c r="L49" s="9">
-        <v>24571</v>
+        <v>69839</v>
       </c>
       <c r="M49" s="9">
-        <v>-18178</v>
+        <v>78679</v>
       </c>
       <c r="N49" s="9">
-        <v>69839</v>
-      </c>
-    </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+        <v>83137</v>
+      </c>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="10" t="s">
         <v>39</v>
       </c>
@@ -2264,14 +2264,14 @@
       <c r="E50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>31</v>
+      <c r="F50" s="11">
+        <v>0</v>
       </c>
       <c r="G50" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H50" s="11">
-        <v>0</v>
+      <c r="H50" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>31</v>
@@ -2292,44 +2292,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C51" s="15"/>
       <c r="D51" s="15"/>
       <c r="E51" s="15">
-        <v>3732721</v>
+        <v>3388854</v>
       </c>
       <c r="F51" s="15">
-        <v>1990318</v>
+        <v>2930776</v>
       </c>
       <c r="G51" s="15">
-        <v>3388854</v>
+        <v>3330243</v>
       </c>
       <c r="H51" s="15">
-        <v>2930776</v>
+        <v>2668930</v>
       </c>
       <c r="I51" s="15">
-        <v>3330243</v>
+        <v>3548952</v>
       </c>
       <c r="J51" s="15">
-        <v>2668930</v>
+        <v>1483638</v>
       </c>
       <c r="K51" s="15">
-        <v>3548952</v>
+        <v>4992957</v>
       </c>
       <c r="L51" s="15">
-        <v>1483638</v>
+        <v>863238</v>
       </c>
       <c r="M51" s="15">
-        <v>4992957</v>
+        <v>2307935</v>
       </c>
       <c r="N51" s="15">
-        <v>863238</v>
-      </c>
-    </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+        <v>656656</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2344,7 +2344,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2359,7 +2359,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2374,7 +2374,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>43</v>
       </c>
@@ -2411,7 +2411,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2426,7 +2426,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>29</v>
       </c>
@@ -2435,37 +2435,37 @@
       </c>
       <c r="D57" s="9"/>
       <c r="E57" s="9">
-        <v>16331</v>
+        <v>15602</v>
       </c>
       <c r="F57" s="9">
-        <v>8097</v>
+        <v>15890</v>
       </c>
       <c r="G57" s="9">
-        <v>15602</v>
+        <v>13592</v>
       </c>
       <c r="H57" s="9">
-        <v>15890</v>
+        <v>12554</v>
       </c>
       <c r="I57" s="9">
-        <v>13592</v>
+        <v>22771</v>
       </c>
       <c r="J57" s="9">
-        <v>12554</v>
+        <v>23992</v>
       </c>
       <c r="K57" s="9">
-        <v>22771</v>
+        <v>24793</v>
       </c>
       <c r="L57" s="9">
-        <v>23992</v>
+        <v>26246</v>
       </c>
       <c r="M57" s="9">
-        <v>24793</v>
+        <v>47457</v>
       </c>
       <c r="N57" s="9">
-        <v>26246</v>
-      </c>
-    </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26229</v>
+      </c>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>32</v>
       </c>
@@ -2474,37 +2474,37 @@
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
-        <v>390867</v>
+        <v>336601</v>
       </c>
       <c r="F58" s="11">
-        <v>229636</v>
+        <v>332213</v>
       </c>
       <c r="G58" s="11">
-        <v>336601</v>
+        <v>444642</v>
       </c>
       <c r="H58" s="11">
-        <v>332213</v>
+        <v>360441</v>
       </c>
       <c r="I58" s="11">
-        <v>444642</v>
+        <v>401219</v>
       </c>
       <c r="J58" s="11">
-        <v>360441</v>
+        <v>286138</v>
       </c>
       <c r="K58" s="11">
-        <v>401219</v>
+        <v>381596</v>
       </c>
       <c r="L58" s="11">
-        <v>286138</v>
+        <v>306375</v>
       </c>
       <c r="M58" s="11">
-        <v>381596</v>
+        <v>326939</v>
       </c>
       <c r="N58" s="11">
-        <v>306375</v>
-      </c>
-    </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+        <v>149621</v>
+      </c>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="8" t="s">
         <v>33</v>
       </c>
@@ -2513,37 +2513,37 @@
       </c>
       <c r="D59" s="9"/>
       <c r="E59" s="9">
-        <v>7530</v>
+        <v>12802</v>
       </c>
       <c r="F59" s="9">
-        <v>6392</v>
+        <v>4074</v>
       </c>
       <c r="G59" s="9">
-        <v>12802</v>
+        <v>9390</v>
       </c>
       <c r="H59" s="9">
-        <v>4074</v>
+        <v>8571</v>
       </c>
       <c r="I59" s="9">
-        <v>9390</v>
+        <v>8100</v>
       </c>
       <c r="J59" s="9">
-        <v>8571</v>
+        <v>3582</v>
       </c>
       <c r="K59" s="9">
-        <v>8100</v>
+        <v>4033</v>
       </c>
       <c r="L59" s="9">
-        <v>3582</v>
+        <v>7121</v>
       </c>
       <c r="M59" s="9">
-        <v>4033</v>
+        <v>11385</v>
       </c>
       <c r="N59" s="9">
-        <v>7121</v>
-      </c>
-    </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+        <v>6116</v>
+      </c>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="10" t="s">
         <v>34</v>
       </c>
@@ -2552,37 +2552,37 @@
       </c>
       <c r="D60" s="11"/>
       <c r="E60" s="11">
-        <v>14502</v>
+        <v>6794</v>
       </c>
       <c r="F60" s="11">
-        <v>9564</v>
+        <v>6283</v>
       </c>
       <c r="G60" s="11">
-        <v>6794</v>
+        <v>7712</v>
       </c>
       <c r="H60" s="11">
-        <v>6283</v>
+        <v>5897</v>
       </c>
       <c r="I60" s="11">
-        <v>7712</v>
+        <v>10705</v>
       </c>
       <c r="J60" s="11">
-        <v>5897</v>
+        <v>9025</v>
       </c>
       <c r="K60" s="11">
-        <v>10705</v>
+        <v>11645</v>
       </c>
       <c r="L60" s="11">
-        <v>9025</v>
+        <v>11037</v>
       </c>
       <c r="M60" s="11">
-        <v>11645</v>
+        <v>20275</v>
       </c>
       <c r="N60" s="11">
-        <v>11037</v>
-      </c>
-    </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+        <v>10446</v>
+      </c>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="8" t="s">
         <v>35</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="10" t="s">
         <v>36</v>
       </c>
@@ -2630,37 +2630,37 @@
       </c>
       <c r="D62" s="11"/>
       <c r="E62" s="11">
-        <v>3493332</v>
+        <v>3321568</v>
       </c>
       <c r="F62" s="11">
-        <v>1269052</v>
+        <v>2768920</v>
       </c>
       <c r="G62" s="11">
-        <v>3321568</v>
+        <v>2569680</v>
       </c>
       <c r="H62" s="11">
-        <v>2768920</v>
+        <v>2145100</v>
       </c>
       <c r="I62" s="11">
-        <v>2569680</v>
+        <v>1708860</v>
       </c>
       <c r="J62" s="11">
-        <v>2145100</v>
+        <v>1284400</v>
       </c>
       <c r="K62" s="11">
-        <v>1708860</v>
+        <v>1924220</v>
       </c>
       <c r="L62" s="11">
-        <v>1284400</v>
+        <v>1426920</v>
       </c>
       <c r="M62" s="11">
-        <v>1924220</v>
+        <v>1852940</v>
       </c>
       <c r="N62" s="11">
-        <v>1426920</v>
-      </c>
-    </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1700980</v>
+      </c>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>38</v>
       </c>
@@ -2669,37 +2669,37 @@
       </c>
       <c r="D63" s="9"/>
       <c r="E63" s="9">
-        <v>36347</v>
+        <v>22812</v>
       </c>
       <c r="F63" s="9">
-        <v>16221</v>
+        <v>15957</v>
       </c>
       <c r="G63" s="9">
-        <v>22812</v>
+        <v>31367</v>
       </c>
       <c r="H63" s="9">
-        <v>15957</v>
+        <v>8825</v>
       </c>
       <c r="I63" s="9">
-        <v>31367</v>
+        <v>47049</v>
       </c>
       <c r="J63" s="9">
-        <v>8825</v>
+        <v>38739</v>
       </c>
       <c r="K63" s="9">
-        <v>47049</v>
+        <v>47144</v>
       </c>
       <c r="L63" s="9">
-        <v>38739</v>
+        <v>56427</v>
       </c>
       <c r="M63" s="9">
-        <v>47144</v>
+        <v>101866</v>
       </c>
       <c r="N63" s="9">
-        <v>56427</v>
-      </c>
-    </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+        <v>86078</v>
+      </c>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>39</v>
       </c>
@@ -2710,14 +2710,14 @@
       <c r="E64" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>31</v>
+      <c r="F64" s="11">
+        <v>0</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H64" s="11">
-        <v>0</v>
+      <c r="H64" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I64" s="11" t="s">
         <v>31</v>
@@ -2738,44 +2738,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C65" s="15"/>
       <c r="D65" s="15"/>
       <c r="E65" s="15">
-        <v>3958909</v>
+        <v>3716179</v>
       </c>
       <c r="F65" s="15">
-        <v>1538962</v>
+        <v>3143337</v>
       </c>
       <c r="G65" s="15">
-        <v>3716179</v>
+        <v>3076383</v>
       </c>
       <c r="H65" s="15">
-        <v>3143337</v>
+        <v>2541388</v>
       </c>
       <c r="I65" s="15">
-        <v>3076383</v>
+        <v>2198704</v>
       </c>
       <c r="J65" s="15">
-        <v>2541388</v>
+        <v>1645876</v>
       </c>
       <c r="K65" s="15">
-        <v>2198704</v>
+        <v>2393431</v>
       </c>
       <c r="L65" s="15">
-        <v>1645876</v>
+        <v>1834126</v>
       </c>
       <c r="M65" s="15">
-        <v>2393431</v>
+        <v>2360862</v>
       </c>
       <c r="N65" s="15">
-        <v>1834126</v>
-      </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1979470</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -2790,7 +2790,7 @@
       <c r="M66" s="1"/>
       <c r="N66" s="1"/>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -2805,7 +2805,7 @@
       <c r="M67" s="1"/>
       <c r="N67" s="1"/>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -2820,7 +2820,7 @@
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
     </row>
-    <row r="69" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B69" s="7" t="s">
         <v>44</v>
       </c>
@@ -2857,7 +2857,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2872,7 +2872,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
         <v>29</v>
       </c>
@@ -2881,37 +2881,37 @@
       </c>
       <c r="D71" s="9"/>
       <c r="E71" s="9">
-        <v>5177</v>
+        <v>6148</v>
       </c>
       <c r="F71" s="9">
-        <v>1471</v>
+        <v>25778</v>
       </c>
       <c r="G71" s="9">
-        <v>6148</v>
+        <v>16186</v>
       </c>
       <c r="H71" s="9">
-        <v>25778</v>
+        <v>24986</v>
       </c>
       <c r="I71" s="9">
-        <v>16186</v>
+        <v>21450</v>
       </c>
       <c r="J71" s="9">
-        <v>24986</v>
+        <v>2946</v>
       </c>
       <c r="K71" s="9">
-        <v>21450</v>
+        <v>21217</v>
       </c>
       <c r="L71" s="9">
-        <v>2946</v>
+        <v>30991</v>
       </c>
       <c r="M71" s="9">
-        <v>21217</v>
+        <v>16462</v>
       </c>
       <c r="N71" s="9">
-        <v>30991</v>
-      </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+        <v>25164</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="10" t="s">
         <v>32</v>
       </c>
@@ -2920,37 +2920,37 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>118608</v>
+        <v>391554</v>
       </c>
       <c r="F72" s="11">
-        <v>506385</v>
+        <v>236006</v>
       </c>
       <c r="G72" s="11">
-        <v>391554</v>
+        <v>299594</v>
       </c>
       <c r="H72" s="11">
-        <v>236006</v>
+        <v>630361</v>
       </c>
       <c r="I72" s="11">
-        <v>299594</v>
+        <v>599358</v>
       </c>
       <c r="J72" s="11">
-        <v>630361</v>
+        <v>366596</v>
       </c>
       <c r="K72" s="11">
-        <v>599358</v>
+        <v>426231</v>
       </c>
       <c r="L72" s="11">
-        <v>366596</v>
+        <v>856062</v>
       </c>
       <c r="M72" s="11">
-        <v>426231</v>
+        <v>819121</v>
       </c>
       <c r="N72" s="11">
-        <v>856062</v>
-      </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
+        <v>689080</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
         <v>33</v>
       </c>
@@ -2959,37 +2959,37 @@
       </c>
       <c r="D73" s="9"/>
       <c r="E73" s="9">
-        <v>16104</v>
+        <v>5020</v>
       </c>
       <c r="F73" s="9">
-        <v>17704</v>
+        <v>946</v>
       </c>
       <c r="G73" s="9">
-        <v>5020</v>
+        <v>7275</v>
       </c>
       <c r="H73" s="9">
-        <v>946</v>
+        <v>3255</v>
       </c>
       <c r="I73" s="9">
-        <v>7275</v>
+        <v>10903</v>
       </c>
       <c r="J73" s="9">
-        <v>3255</v>
+        <v>50920</v>
       </c>
       <c r="K73" s="9">
-        <v>10903</v>
+        <v>46886</v>
       </c>
       <c r="L73" s="9">
-        <v>50920</v>
+        <v>39765</v>
       </c>
       <c r="M73" s="9">
-        <v>46886</v>
+        <v>28380</v>
       </c>
       <c r="N73" s="9">
-        <v>39765</v>
-      </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+        <v>21922</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="10" t="s">
         <v>34</v>
       </c>
@@ -2998,37 +2998,37 @@
       </c>
       <c r="D74" s="11"/>
       <c r="E74" s="11">
-        <v>8104</v>
+        <v>4644</v>
       </c>
       <c r="F74" s="11">
-        <v>4718</v>
+        <v>4104</v>
       </c>
       <c r="G74" s="11">
-        <v>4644</v>
+        <v>1307</v>
       </c>
       <c r="H74" s="11">
-        <v>4104</v>
+        <v>4178</v>
       </c>
       <c r="I74" s="11">
-        <v>1307</v>
+        <v>2890</v>
       </c>
       <c r="J74" s="11">
-        <v>4178</v>
+        <v>5469</v>
       </c>
       <c r="K74" s="11">
-        <v>2890</v>
+        <v>18325</v>
       </c>
       <c r="L74" s="11">
-        <v>5469</v>
+        <v>28461</v>
       </c>
       <c r="M74" s="11">
-        <v>18325</v>
+        <v>21066</v>
       </c>
       <c r="N74" s="11">
-        <v>28461</v>
-      </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+        <v>24335</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>35</v>
       </c>
@@ -3061,13 +3061,13 @@
         <v>11659</v>
       </c>
       <c r="M75" s="9">
-        <v>11659</v>
+        <v>11569</v>
       </c>
       <c r="N75" s="9">
-        <v>11659</v>
-      </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+        <v>11257</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>36</v>
       </c>
@@ -3076,37 +3076,37 @@
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
-        <v>304033</v>
+        <v>0</v>
       </c>
       <c r="F76" s="11">
-        <v>370986</v>
+        <v>0</v>
       </c>
       <c r="G76" s="11">
-        <v>0</v>
+        <v>457550</v>
       </c>
       <c r="H76" s="11">
         <v>0</v>
       </c>
       <c r="I76" s="11">
-        <v>457550</v>
+        <v>1680490</v>
       </c>
       <c r="J76" s="11">
-        <v>0</v>
+        <v>1741090</v>
       </c>
       <c r="K76" s="11">
-        <v>1680490</v>
+        <v>4319210</v>
       </c>
       <c r="L76" s="11">
-        <v>1741090</v>
+        <v>2892290</v>
       </c>
       <c r="M76" s="11">
-        <v>4319210</v>
+        <v>2932800</v>
       </c>
       <c r="N76" s="11">
-        <v>2892290</v>
-      </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1670620</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="8" t="s">
         <v>38</v>
       </c>
@@ -3115,37 +3115,37 @@
       </c>
       <c r="D77" s="9"/>
       <c r="E77" s="9">
-        <v>6551</v>
+        <v>64592</v>
       </c>
       <c r="F77" s="9">
-        <v>8669</v>
+        <v>155298</v>
       </c>
       <c r="G77" s="9">
-        <v>64592</v>
+        <v>149580</v>
       </c>
       <c r="H77" s="9">
-        <v>155298</v>
+        <v>140754</v>
       </c>
       <c r="I77" s="9">
-        <v>149580</v>
+        <v>94191</v>
       </c>
       <c r="J77" s="9">
-        <v>140754</v>
+        <v>80023</v>
       </c>
       <c r="K77" s="9">
-        <v>94191</v>
+        <v>14701</v>
       </c>
       <c r="L77" s="9">
-        <v>80023</v>
+        <v>28113</v>
       </c>
       <c r="M77" s="9">
-        <v>14701</v>
+        <v>4926</v>
       </c>
       <c r="N77" s="9">
-        <v>28113</v>
-      </c>
-    </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="10" t="s">
         <v>39</v>
       </c>
@@ -3156,14 +3156,14 @@
       <c r="E78" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F78" s="11" t="s">
-        <v>31</v>
+      <c r="F78" s="11">
+        <v>0</v>
       </c>
       <c r="G78" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H78" s="11">
-        <v>0</v>
+      <c r="H78" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I78" s="11" t="s">
         <v>31</v>
@@ -3184,44 +3184,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C79" s="15"/>
       <c r="D79" s="15"/>
       <c r="E79" s="15">
-        <v>470236</v>
+        <v>483617</v>
       </c>
       <c r="F79" s="15">
-        <v>921592</v>
+        <v>433791</v>
       </c>
       <c r="G79" s="15">
-        <v>483617</v>
+        <v>943151</v>
       </c>
       <c r="H79" s="15">
-        <v>433791</v>
+        <v>815193</v>
       </c>
       <c r="I79" s="15">
-        <v>943151</v>
+        <v>2420941</v>
       </c>
       <c r="J79" s="15">
-        <v>815193</v>
+        <v>2258703</v>
       </c>
       <c r="K79" s="15">
-        <v>2420941</v>
+        <v>4858229</v>
       </c>
       <c r="L79" s="15">
-        <v>2258703</v>
+        <v>3887341</v>
       </c>
       <c r="M79" s="15">
-        <v>4858229</v>
+        <v>3834324</v>
       </c>
       <c r="N79" s="15">
-        <v>3887341</v>
-      </c>
-    </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+        <v>2444363</v>
+      </c>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3236,7 +3236,7 @@
       <c r="M80" s="1"/>
       <c r="N80" s="1"/>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3251,7 +3251,7 @@
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3266,7 +3266,7 @@
       <c r="M82" s="1"/>
       <c r="N82" s="1"/>
     </row>
-    <row r="83" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B83" s="7" t="s">
         <v>45</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3318,7 +3318,7 @@
       <c r="M84" s="1"/>
       <c r="N84" s="1"/>
     </row>
-    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B85" s="8" t="s">
         <v>29</v>
       </c>
@@ -3327,37 +3327,37 @@
       </c>
       <c r="D85" s="9"/>
       <c r="E85" s="9">
-        <v>4215</v>
+        <v>899</v>
       </c>
       <c r="F85" s="9">
-        <v>1340</v>
+        <v>2881</v>
       </c>
       <c r="G85" s="9">
-        <v>899</v>
+        <v>12964</v>
       </c>
       <c r="H85" s="9">
-        <v>2881</v>
-      </c>
-      <c r="I85" s="9">
-        <v>12964</v>
+        <v>6822</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J85" s="9">
-        <v>6822</v>
-      </c>
-      <c r="K85" s="9" t="s">
-        <v>31</v>
+        <v>13269</v>
+      </c>
+      <c r="K85" s="9">
+        <v>1822</v>
       </c>
       <c r="L85" s="9">
-        <v>13269</v>
+        <v>20332</v>
       </c>
       <c r="M85" s="9">
-        <v>1822</v>
+        <v>14865</v>
       </c>
       <c r="N85" s="9">
-        <v>20332</v>
-      </c>
-    </row>
-    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
+        <v>26887</v>
+      </c>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B86" s="10" t="s">
         <v>32</v>
       </c>
@@ -3366,37 +3366,37 @@
       </c>
       <c r="D86" s="11"/>
       <c r="E86" s="11">
-        <v>21038</v>
+        <v>20007</v>
       </c>
       <c r="F86" s="11">
-        <v>7705</v>
+        <v>51146</v>
       </c>
       <c r="G86" s="11">
-        <v>20007</v>
+        <v>14299</v>
       </c>
       <c r="H86" s="11">
-        <v>51146</v>
-      </c>
-      <c r="I86" s="11">
-        <v>14299</v>
+        <v>38561</v>
+      </c>
+      <c r="I86" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J86" s="11">
-        <v>38561</v>
-      </c>
-      <c r="K86" s="11" t="s">
-        <v>31</v>
+        <v>68799</v>
+      </c>
+      <c r="K86" s="11">
+        <v>47967</v>
       </c>
       <c r="L86" s="11">
-        <v>68799</v>
+        <v>71898</v>
       </c>
       <c r="M86" s="11">
-        <v>47967</v>
+        <v>118793</v>
       </c>
       <c r="N86" s="11">
-        <v>71898</v>
-      </c>
-    </row>
-    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
+        <v>141010</v>
+      </c>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B87" s="8" t="s">
         <v>33</v>
       </c>
@@ -3405,37 +3405,37 @@
       </c>
       <c r="D87" s="9"/>
       <c r="E87" s="9">
-        <v>1839</v>
+        <v>7235</v>
       </c>
       <c r="F87" s="9">
-        <v>4919</v>
+        <v>1848</v>
       </c>
       <c r="G87" s="9">
-        <v>7235</v>
+        <v>339</v>
       </c>
       <c r="H87" s="9">
-        <v>1848</v>
-      </c>
-      <c r="I87" s="9">
-        <v>339</v>
+        <v>3966</v>
+      </c>
+      <c r="I87" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J87" s="9">
-        <v>3966</v>
-      </c>
-      <c r="K87" s="9" t="s">
-        <v>31</v>
+        <v>6540</v>
+      </c>
+      <c r="K87" s="9">
+        <v>40554</v>
       </c>
       <c r="L87" s="9">
-        <v>6540</v>
+        <v>37506</v>
       </c>
       <c r="M87" s="9">
-        <v>40554</v>
+        <v>37583</v>
       </c>
       <c r="N87" s="9">
-        <v>37506</v>
-      </c>
-    </row>
-    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
+        <v>22703</v>
+      </c>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B88" s="10" t="s">
         <v>34</v>
       </c>
@@ -3444,37 +3444,37 @@
       </c>
       <c r="D88" s="11"/>
       <c r="E88" s="11">
-        <v>14567</v>
+        <v>5715</v>
       </c>
       <c r="F88" s="11">
-        <v>10117</v>
+        <v>6919</v>
       </c>
       <c r="G88" s="11">
-        <v>5715</v>
+        <v>10678</v>
       </c>
       <c r="H88" s="11">
-        <v>6919</v>
-      </c>
-      <c r="I88" s="11">
-        <v>10678</v>
+        <v>3179</v>
+      </c>
+      <c r="I88" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J88" s="11">
-        <v>3179</v>
-      </c>
-      <c r="K88" s="11" t="s">
-        <v>31</v>
+        <v>11509</v>
+      </c>
+      <c r="K88" s="11">
+        <v>23608</v>
       </c>
       <c r="L88" s="11">
-        <v>11509</v>
+        <v>105729</v>
       </c>
       <c r="M88" s="11">
-        <v>23608</v>
+        <v>212293</v>
       </c>
       <c r="N88" s="11">
-        <v>105729</v>
-      </c>
-    </row>
-    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
+        <v>118342</v>
+      </c>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B89" s="8" t="s">
         <v>35</v>
       </c>
@@ -3494,14 +3494,14 @@
       <c r="H89" s="9">
         <v>1633</v>
       </c>
-      <c r="I89" s="9">
-        <v>1633</v>
+      <c r="I89" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J89" s="9">
         <v>1633</v>
       </c>
-      <c r="K89" s="9" t="s">
-        <v>31</v>
+      <c r="K89" s="9">
+        <v>1633</v>
       </c>
       <c r="L89" s="9">
         <v>1633</v>
@@ -3510,10 +3510,10 @@
         <v>1633</v>
       </c>
       <c r="N89" s="9">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B90" s="10" t="s">
         <v>36</v>
       </c>
@@ -3522,37 +3522,37 @@
       </c>
       <c r="D90" s="11"/>
       <c r="E90" s="11">
-        <v>5516</v>
+        <v>7804</v>
       </c>
       <c r="F90" s="11">
-        <v>3914</v>
+        <v>0</v>
       </c>
       <c r="G90" s="11">
-        <v>7804</v>
+        <v>-1</v>
       </c>
       <c r="H90" s="11">
         <v>0</v>
       </c>
-      <c r="I90" s="11">
-        <v>-1</v>
+      <c r="I90" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="J90" s="11">
-        <v>0</v>
-      </c>
-      <c r="K90" s="11" t="s">
-        <v>31</v>
+        <v>65825</v>
+      </c>
+      <c r="K90" s="11">
+        <v>69414</v>
       </c>
       <c r="L90" s="11">
-        <v>65825</v>
+        <v>155266</v>
       </c>
       <c r="M90" s="11">
-        <v>69414</v>
+        <v>98463</v>
       </c>
       <c r="N90" s="11">
-        <v>155266</v>
-      </c>
-    </row>
-    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
+        <v>104897</v>
+      </c>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B91" s="8" t="s">
         <v>38</v>
       </c>
@@ -3561,37 +3561,37 @@
       </c>
       <c r="D91" s="9"/>
       <c r="E91" s="9">
-        <v>810</v>
+        <v>718</v>
       </c>
       <c r="F91" s="9">
-        <v>365</v>
+        <v>5626</v>
       </c>
       <c r="G91" s="9">
-        <v>718</v>
+        <v>17293</v>
       </c>
       <c r="H91" s="9">
-        <v>5626</v>
-      </c>
-      <c r="I91" s="9">
-        <v>17293</v>
+        <v>18369</v>
+      </c>
+      <c r="I91" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="J91" s="9">
-        <v>18369</v>
-      </c>
-      <c r="K91" s="9" t="s">
-        <v>31</v>
+        <v>10784</v>
+      </c>
+      <c r="K91" s="9">
+        <v>8997</v>
       </c>
       <c r="L91" s="9">
-        <v>10784</v>
+        <v>3605</v>
       </c>
       <c r="M91" s="9">
-        <v>8997</v>
+        <v>104414</v>
       </c>
       <c r="N91" s="9">
-        <v>3605</v>
-      </c>
-    </row>
-    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B92" s="10" t="s">
         <v>39</v>
       </c>
@@ -3602,14 +3602,14 @@
       <c r="E92" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F92" s="11" t="s">
-        <v>31</v>
+      <c r="F92" s="11">
+        <v>0</v>
       </c>
       <c r="G92" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H92" s="11">
-        <v>0</v>
+      <c r="H92" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>31</v>
@@ -3630,44 +3630,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B93" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C93" s="15"/>
       <c r="D93" s="15"/>
       <c r="E93" s="15">
-        <v>49618</v>
+        <v>44011</v>
       </c>
       <c r="F93" s="15">
-        <v>29993</v>
+        <v>70053</v>
       </c>
       <c r="G93" s="15">
-        <v>44011</v>
+        <v>57205</v>
       </c>
       <c r="H93" s="15">
-        <v>70053</v>
+        <v>72530</v>
       </c>
       <c r="I93" s="15">
-        <v>57205</v>
+        <v>0</v>
       </c>
       <c r="J93" s="15">
-        <v>72530</v>
+        <v>178359</v>
       </c>
       <c r="K93" s="15">
-        <v>0</v>
+        <v>193995</v>
       </c>
       <c r="L93" s="15">
-        <v>178359</v>
+        <v>395969</v>
       </c>
       <c r="M93" s="15">
-        <v>193995</v>
+        <v>588044</v>
       </c>
       <c r="N93" s="15">
-        <v>395969</v>
-      </c>
-    </row>
-    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
+        <v>417081</v>
+      </c>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3682,7 +3682,7 @@
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
     </row>
-    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3697,7 +3697,7 @@
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
     </row>
-    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3712,7 +3712,7 @@
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
     </row>
-    <row r="97" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B97" s="7" t="s">
         <v>46</v>
       </c>
@@ -3749,7 +3749,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3764,7 +3764,7 @@
       <c r="M98" s="1"/>
       <c r="N98" s="1"/>
     </row>
-    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B99" s="8" t="s">
         <v>29</v>
       </c>
@@ -3773,37 +3773,37 @@
       </c>
       <c r="D99" s="9"/>
       <c r="E99" s="9">
-        <v>1346</v>
+        <v>11574</v>
       </c>
       <c r="F99" s="9">
-        <v>0</v>
+        <v>18075</v>
       </c>
       <c r="G99" s="9">
-        <v>11574</v>
+        <v>33458</v>
       </c>
       <c r="H99" s="9">
-        <v>18075</v>
+        <v>20493</v>
       </c>
       <c r="I99" s="9">
-        <v>33458</v>
+        <v>8464</v>
       </c>
       <c r="J99" s="9">
-        <v>20493</v>
+        <v>3395</v>
       </c>
       <c r="K99" s="9">
-        <v>8464</v>
+        <v>70427</v>
       </c>
       <c r="L99" s="9">
-        <v>3395</v>
+        <v>21797</v>
       </c>
       <c r="M99" s="9">
-        <v>70427</v>
+        <v>84551</v>
       </c>
       <c r="N99" s="9">
-        <v>21797</v>
-      </c>
-    </row>
-    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41670</v>
+      </c>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B100" s="10" t="s">
         <v>32</v>
       </c>
@@ -3812,37 +3812,37 @@
       </c>
       <c r="D100" s="11"/>
       <c r="E100" s="11">
-        <v>8710</v>
+        <v>87881</v>
       </c>
       <c r="F100" s="11">
-        <v>10641</v>
+        <v>0</v>
       </c>
       <c r="G100" s="11">
-        <v>87881</v>
+        <v>55633</v>
       </c>
       <c r="H100" s="11">
-        <v>0</v>
+        <v>68077</v>
       </c>
       <c r="I100" s="11">
-        <v>55633</v>
+        <v>70547</v>
       </c>
       <c r="J100" s="11">
-        <v>68077</v>
+        <v>16607</v>
       </c>
       <c r="K100" s="11">
-        <v>70547</v>
+        <v>93263</v>
       </c>
       <c r="L100" s="11">
-        <v>16607</v>
+        <v>75298</v>
       </c>
       <c r="M100" s="11">
-        <v>93263</v>
+        <v>114754</v>
       </c>
       <c r="N100" s="11">
-        <v>75298</v>
-      </c>
-    </row>
-    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4895</v>
+      </c>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B101" s="8" t="s">
         <v>33</v>
       </c>
@@ -3851,37 +3851,37 @@
       </c>
       <c r="D101" s="9"/>
       <c r="E101" s="9">
-        <v>5151</v>
+        <v>1712</v>
       </c>
       <c r="F101" s="9">
-        <v>1775</v>
+        <v>0</v>
       </c>
       <c r="G101" s="9">
-        <v>1712</v>
+        <v>24497</v>
       </c>
       <c r="H101" s="9">
-        <v>0</v>
+        <v>10448</v>
       </c>
       <c r="I101" s="9">
-        <v>24497</v>
+        <v>3207</v>
       </c>
       <c r="J101" s="9">
-        <v>10448</v>
+        <v>37059</v>
       </c>
       <c r="K101" s="9">
-        <v>3207</v>
+        <v>4701</v>
       </c>
       <c r="L101" s="9">
-        <v>37059</v>
+        <v>1071</v>
       </c>
       <c r="M101" s="9">
-        <v>4701</v>
+        <v>-5773</v>
       </c>
       <c r="N101" s="9">
-        <v>1071</v>
-      </c>
-    </row>
-    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B102" s="10" t="s">
         <v>34</v>
       </c>
@@ -3890,37 +3890,37 @@
       </c>
       <c r="D102" s="11"/>
       <c r="E102" s="11">
-        <v>12008</v>
+        <v>11877</v>
       </c>
       <c r="F102" s="11">
-        <v>7414</v>
+        <v>20110</v>
       </c>
       <c r="G102" s="11">
-        <v>11877</v>
+        <v>30825</v>
       </c>
       <c r="H102" s="11">
-        <v>20110</v>
+        <v>20428</v>
       </c>
       <c r="I102" s="11">
-        <v>30825</v>
+        <v>52909</v>
       </c>
       <c r="J102" s="11">
-        <v>20428</v>
+        <v>51058</v>
       </c>
       <c r="K102" s="11">
-        <v>52909</v>
+        <v>156251</v>
       </c>
       <c r="L102" s="11">
-        <v>51058</v>
+        <v>165450</v>
       </c>
       <c r="M102" s="11">
-        <v>156251</v>
+        <v>27874</v>
       </c>
       <c r="N102" s="11">
-        <v>165450</v>
-      </c>
-    </row>
-    <row r="103" spans="2:14" x14ac:dyDescent="0.25">
+        <v>74032</v>
+      </c>
+    </row>
+    <row r="103" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B103" s="8" t="s">
         <v>35</v>
       </c>
@@ -3959,7 +3959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B104" s="10" t="s">
         <v>36</v>
       </c>
@@ -3968,37 +3968,37 @@
       </c>
       <c r="D104" s="11"/>
       <c r="E104" s="11">
-        <v>67534</v>
+        <v>89145</v>
       </c>
       <c r="F104" s="11">
-        <v>48803</v>
+        <v>98002</v>
       </c>
       <c r="G104" s="11">
-        <v>89145</v>
+        <v>109596</v>
       </c>
       <c r="H104" s="11">
-        <v>98002</v>
+        <v>87358</v>
       </c>
       <c r="I104" s="11">
-        <v>109596</v>
+        <v>89514</v>
       </c>
       <c r="J104" s="11">
-        <v>87358</v>
+        <v>51110</v>
       </c>
       <c r="K104" s="11">
-        <v>89514</v>
+        <v>153547</v>
       </c>
       <c r="L104" s="11">
-        <v>51110</v>
+        <v>0</v>
       </c>
       <c r="M104" s="11">
-        <v>153547</v>
+        <v>62640</v>
       </c>
       <c r="N104" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="105" spans="2:14" x14ac:dyDescent="0.25">
+        <v>20464</v>
+      </c>
+    </row>
+    <row r="105" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B105" s="8" t="s">
         <v>38</v>
       </c>
@@ -4007,37 +4007,37 @@
       </c>
       <c r="D105" s="9"/>
       <c r="E105" s="9">
-        <v>4319</v>
+        <v>12431</v>
       </c>
       <c r="F105" s="9">
-        <v>787</v>
+        <v>13445</v>
       </c>
       <c r="G105" s="9">
-        <v>12431</v>
+        <v>1958</v>
       </c>
       <c r="H105" s="9">
-        <v>13445</v>
+        <v>2</v>
       </c>
       <c r="I105" s="9">
-        <v>1958</v>
+        <v>20</v>
       </c>
       <c r="J105" s="9">
-        <v>2</v>
+        <v>4498</v>
       </c>
       <c r="K105" s="9">
-        <v>20</v>
+        <v>5330</v>
       </c>
       <c r="L105" s="9">
-        <v>4498</v>
+        <v>23777</v>
       </c>
       <c r="M105" s="9">
-        <v>5330</v>
+        <v>40109</v>
       </c>
       <c r="N105" s="9">
-        <v>23777</v>
-      </c>
-    </row>
-    <row r="106" spans="2:14" x14ac:dyDescent="0.25">
+        <v>41478</v>
+      </c>
+    </row>
+    <row r="106" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B106" s="10" t="s">
         <v>39</v>
       </c>
@@ -4048,14 +4048,14 @@
       <c r="E106" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F106" s="11" t="s">
-        <v>31</v>
+      <c r="F106" s="11">
+        <v>0</v>
       </c>
       <c r="G106" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H106" s="11">
-        <v>0</v>
+      <c r="H106" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I106" s="11" t="s">
         <v>31</v>
@@ -4076,44 +4076,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="107" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B107" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C107" s="15"/>
       <c r="D107" s="15"/>
       <c r="E107" s="15">
-        <v>99068</v>
+        <v>214620</v>
       </c>
       <c r="F107" s="15">
-        <v>69420</v>
+        <v>149632</v>
       </c>
       <c r="G107" s="15">
-        <v>214620</v>
+        <v>255967</v>
       </c>
       <c r="H107" s="15">
-        <v>149632</v>
+        <v>206806</v>
       </c>
       <c r="I107" s="15">
-        <v>255967</v>
+        <v>224661</v>
       </c>
       <c r="J107" s="15">
-        <v>206806</v>
+        <v>163727</v>
       </c>
       <c r="K107" s="15">
-        <v>224661</v>
+        <v>483519</v>
       </c>
       <c r="L107" s="15">
-        <v>163727</v>
+        <v>287393</v>
       </c>
       <c r="M107" s="15">
-        <v>483519</v>
+        <v>324155</v>
       </c>
       <c r="N107" s="15">
-        <v>287393</v>
-      </c>
-    </row>
-    <row r="108" spans="2:14" x14ac:dyDescent="0.25">
+        <v>182539</v>
+      </c>
+    </row>
+    <row r="108" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4128,7 +4128,7 @@
       <c r="M108" s="1"/>
       <c r="N108" s="1"/>
     </row>
-    <row r="109" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4143,7 +4143,7 @@
       <c r="M109" s="1"/>
       <c r="N109" s="1"/>
     </row>
-    <row r="110" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4158,7 +4158,7 @@
       <c r="M110" s="1"/>
       <c r="N110" s="1"/>
     </row>
-    <row r="111" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B111" s="7" t="s">
         <v>47</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="112" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4210,7 +4210,7 @@
       <c r="M112" s="1"/>
       <c r="N112" s="1"/>
     </row>
-    <row r="113" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B113" s="8" t="s">
         <v>29</v>
       </c>
@@ -4219,37 +4219,37 @@
       </c>
       <c r="D113" s="9"/>
       <c r="E113" s="9">
-        <v>4220</v>
+        <v>10840</v>
       </c>
       <c r="F113" s="9">
-        <v>442</v>
+        <v>7992</v>
       </c>
       <c r="G113" s="9">
-        <v>10840</v>
+        <v>38830</v>
       </c>
       <c r="H113" s="9">
-        <v>7992</v>
+        <v>16363</v>
       </c>
       <c r="I113" s="9">
-        <v>38830</v>
+        <v>6917</v>
       </c>
       <c r="J113" s="9">
-        <v>16363</v>
+        <v>14842</v>
       </c>
       <c r="K113" s="9">
-        <v>6917</v>
+        <v>51917</v>
       </c>
       <c r="L113" s="9">
-        <v>14842</v>
+        <v>27264</v>
       </c>
       <c r="M113" s="9">
-        <v>51917</v>
+        <v>72529</v>
       </c>
       <c r="N113" s="9">
-        <v>27264</v>
-      </c>
-    </row>
-    <row r="114" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33445</v>
+      </c>
+    </row>
+    <row r="114" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B114" s="10" t="s">
         <v>32</v>
       </c>
@@ -4258,37 +4258,37 @@
       </c>
       <c r="D114" s="11"/>
       <c r="E114" s="11">
-        <v>23390</v>
+        <v>72643</v>
       </c>
       <c r="F114" s="11">
-        <v>-3008</v>
+        <v>36847</v>
       </c>
       <c r="G114" s="11">
-        <v>72643</v>
+        <v>40214</v>
       </c>
       <c r="H114" s="11">
-        <v>36847</v>
+        <v>35440</v>
       </c>
       <c r="I114" s="11">
-        <v>40214</v>
+        <v>64103</v>
       </c>
       <c r="J114" s="11">
-        <v>35440</v>
+        <v>37439</v>
       </c>
       <c r="K114" s="11">
-        <v>64103</v>
+        <v>69332</v>
       </c>
       <c r="L114" s="11">
-        <v>37439</v>
+        <v>28403</v>
       </c>
       <c r="M114" s="11">
-        <v>69332</v>
+        <v>88798</v>
       </c>
       <c r="N114" s="11">
-        <v>28403</v>
-      </c>
-    </row>
-    <row r="115" spans="2:14" x14ac:dyDescent="0.25">
+        <v>28973</v>
+      </c>
+    </row>
+    <row r="115" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B115" s="8" t="s">
         <v>33</v>
       </c>
@@ -4297,37 +4297,37 @@
       </c>
       <c r="D115" s="9"/>
       <c r="E115" s="9">
-        <v>1530</v>
+        <v>7899</v>
       </c>
       <c r="F115" s="9">
-        <v>0</v>
+        <v>1509</v>
       </c>
       <c r="G115" s="9">
-        <v>7899</v>
+        <v>20528</v>
       </c>
       <c r="H115" s="9">
-        <v>1509</v>
+        <v>12827</v>
       </c>
       <c r="I115" s="9">
-        <v>20528</v>
+        <v>-1394</v>
       </c>
       <c r="J115" s="9">
-        <v>12827</v>
+        <v>3045</v>
       </c>
       <c r="K115" s="9">
-        <v>-1394</v>
+        <v>7749</v>
       </c>
       <c r="L115" s="9">
-        <v>3045</v>
+        <v>994</v>
       </c>
       <c r="M115" s="9">
-        <v>7749</v>
+        <v>19023</v>
       </c>
       <c r="N115" s="9">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="116" spans="2:14" x14ac:dyDescent="0.25">
+        <v>4893</v>
+      </c>
+    </row>
+    <row r="116" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B116" s="10" t="s">
         <v>34</v>
       </c>
@@ -4336,37 +4336,37 @@
       </c>
       <c r="D116" s="11"/>
       <c r="E116" s="11">
-        <v>16684</v>
+        <v>11650</v>
       </c>
       <c r="F116" s="11">
-        <v>11590</v>
+        <v>16351</v>
       </c>
       <c r="G116" s="11">
-        <v>11650</v>
+        <v>37266</v>
       </c>
       <c r="H116" s="11">
-        <v>16351</v>
+        <v>16719</v>
       </c>
       <c r="I116" s="11">
-        <v>37266</v>
+        <v>49339</v>
       </c>
       <c r="J116" s="11">
-        <v>16719</v>
+        <v>38959</v>
       </c>
       <c r="K116" s="11">
-        <v>49339</v>
+        <v>74130</v>
       </c>
       <c r="L116" s="11">
-        <v>38959</v>
+        <v>58886</v>
       </c>
       <c r="M116" s="11">
-        <v>74130</v>
+        <v>141563</v>
       </c>
       <c r="N116" s="11">
-        <v>58886</v>
-      </c>
-    </row>
-    <row r="117" spans="2:14" x14ac:dyDescent="0.25">
+        <v>56139</v>
+      </c>
+    </row>
+    <row r="117" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B117" s="8" t="s">
         <v>35</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B118" s="10" t="s">
         <v>36</v>
       </c>
@@ -4414,37 +4414,37 @@
       </c>
       <c r="D118" s="11"/>
       <c r="E118" s="11">
-        <v>46912</v>
+        <v>76164</v>
       </c>
       <c r="F118" s="11">
-        <v>67137</v>
+        <v>98003</v>
       </c>
       <c r="G118" s="11">
-        <v>76164</v>
+        <v>102903</v>
       </c>
       <c r="H118" s="11">
-        <v>98003</v>
+        <v>94050</v>
       </c>
       <c r="I118" s="11">
-        <v>102903</v>
+        <v>36874</v>
       </c>
       <c r="J118" s="11">
-        <v>94050</v>
+        <v>47521</v>
       </c>
       <c r="K118" s="11">
-        <v>36874</v>
+        <v>67695</v>
       </c>
       <c r="L118" s="11">
-        <v>47521</v>
+        <v>56803</v>
       </c>
       <c r="M118" s="11">
-        <v>67695</v>
+        <v>57481</v>
       </c>
       <c r="N118" s="11">
-        <v>56803</v>
-      </c>
-    </row>
-    <row r="119" spans="2:14" x14ac:dyDescent="0.25">
+        <v>60385</v>
+      </c>
+    </row>
+    <row r="119" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B119" s="8" t="s">
         <v>38</v>
       </c>
@@ -4453,37 +4453,37 @@
       </c>
       <c r="D119" s="9"/>
       <c r="E119" s="9">
-        <v>4476</v>
+        <v>5975</v>
       </c>
       <c r="F119" s="9">
-        <v>722</v>
+        <v>1778</v>
       </c>
       <c r="G119" s="9">
-        <v>5975</v>
+        <v>3276</v>
       </c>
       <c r="H119" s="9">
-        <v>1778</v>
+        <v>943</v>
       </c>
       <c r="I119" s="9">
-        <v>3276</v>
+        <v>5818</v>
       </c>
       <c r="J119" s="9">
-        <v>943</v>
+        <v>6285</v>
       </c>
       <c r="K119" s="9">
-        <v>5818</v>
+        <v>10722</v>
       </c>
       <c r="L119" s="9">
-        <v>6285</v>
+        <v>20058</v>
       </c>
       <c r="M119" s="9">
-        <v>10722</v>
+        <v>45038</v>
       </c>
       <c r="N119" s="9">
-        <v>20058</v>
-      </c>
-    </row>
-    <row r="120" spans="2:14" x14ac:dyDescent="0.25">
+        <v>42162</v>
+      </c>
+    </row>
+    <row r="120" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B120" s="10" t="s">
         <v>39</v>
       </c>
@@ -4494,14 +4494,14 @@
       <c r="E120" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F120" s="11" t="s">
-        <v>31</v>
+      <c r="F120" s="11">
+        <v>0</v>
       </c>
       <c r="G120" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H120" s="11">
-        <v>0</v>
+      <c r="H120" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I120" s="11" t="s">
         <v>31</v>
@@ -4522,44 +4522,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="121" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B121" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C121" s="15"/>
       <c r="D121" s="15"/>
       <c r="E121" s="15">
-        <v>97212</v>
+        <v>185171</v>
       </c>
       <c r="F121" s="15">
-        <v>76883</v>
+        <v>162480</v>
       </c>
       <c r="G121" s="15">
-        <v>185171</v>
+        <v>243017</v>
       </c>
       <c r="H121" s="15">
-        <v>162480</v>
+        <v>176342</v>
       </c>
       <c r="I121" s="15">
-        <v>243017</v>
+        <v>161657</v>
       </c>
       <c r="J121" s="15">
-        <v>176342</v>
+        <v>148091</v>
       </c>
       <c r="K121" s="15">
-        <v>161657</v>
+        <v>281545</v>
       </c>
       <c r="L121" s="15">
-        <v>148091</v>
+        <v>192408</v>
       </c>
       <c r="M121" s="15">
-        <v>281545</v>
+        <v>424432</v>
       </c>
       <c r="N121" s="15">
-        <v>192408</v>
-      </c>
-    </row>
-    <row r="122" spans="2:14" x14ac:dyDescent="0.25">
+        <v>225997</v>
+      </c>
+    </row>
+    <row r="122" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4574,7 +4574,7 @@
       <c r="M122" s="1"/>
       <c r="N122" s="1"/>
     </row>
-    <row r="123" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4589,7 +4589,7 @@
       <c r="M123" s="1"/>
       <c r="N123" s="1"/>
     </row>
-    <row r="124" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4604,7 +4604,7 @@
       <c r="M124" s="1"/>
       <c r="N124" s="1"/>
     </row>
-    <row r="125" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B125" s="7" t="s">
         <v>48</v>
       </c>
@@ -4641,7 +4641,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="126" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4656,7 +4656,7 @@
       <c r="M126" s="1"/>
       <c r="N126" s="1"/>
     </row>
-    <row r="127" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B127" s="8" t="s">
         <v>29</v>
       </c>
@@ -4665,37 +4665,37 @@
       </c>
       <c r="D127" s="9"/>
       <c r="E127" s="9">
-        <v>1341</v>
+        <v>1633</v>
       </c>
       <c r="F127" s="9">
-        <v>899</v>
+        <v>12964</v>
       </c>
       <c r="G127" s="9">
-        <v>1633</v>
+        <v>7592</v>
       </c>
       <c r="H127" s="9">
-        <v>12964</v>
+        <v>11722</v>
       </c>
       <c r="I127" s="9">
-        <v>7592</v>
+        <v>13269</v>
       </c>
       <c r="J127" s="9">
-        <v>11722</v>
+        <v>1822</v>
       </c>
       <c r="K127" s="9">
-        <v>13269</v>
+        <v>20332</v>
       </c>
       <c r="L127" s="9">
-        <v>1822</v>
+        <v>14865</v>
       </c>
       <c r="M127" s="9">
-        <v>20332</v>
+        <v>26887</v>
       </c>
       <c r="N127" s="9">
-        <v>14865</v>
-      </c>
-    </row>
-    <row r="128" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35112</v>
+      </c>
+    </row>
+    <row r="128" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B128" s="10" t="s">
         <v>32</v>
       </c>
@@ -4704,37 +4704,37 @@
       </c>
       <c r="D128" s="11"/>
       <c r="E128" s="11">
-        <v>6358</v>
+        <v>35245</v>
       </c>
       <c r="F128" s="11">
-        <v>20007</v>
+        <v>14299</v>
       </c>
       <c r="G128" s="11">
-        <v>35245</v>
+        <v>29718</v>
       </c>
       <c r="H128" s="11">
-        <v>14299</v>
+        <v>62355</v>
       </c>
       <c r="I128" s="11">
-        <v>29718</v>
+        <v>68799</v>
       </c>
       <c r="J128" s="11">
-        <v>62355</v>
+        <v>47967</v>
       </c>
       <c r="K128" s="11">
-        <v>68799</v>
+        <v>71898</v>
       </c>
       <c r="L128" s="11">
-        <v>47967</v>
+        <v>118793</v>
       </c>
       <c r="M128" s="11">
-        <v>71898</v>
+        <v>144749</v>
       </c>
       <c r="N128" s="11">
-        <v>118793</v>
-      </c>
-    </row>
-    <row r="129" spans="2:14" x14ac:dyDescent="0.25">
+        <v>116932</v>
+      </c>
+    </row>
+    <row r="129" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B129" s="8" t="s">
         <v>33</v>
       </c>
@@ -4743,37 +4743,37 @@
       </c>
       <c r="D129" s="9"/>
       <c r="E129" s="9">
-        <v>5460</v>
+        <v>1048</v>
       </c>
       <c r="F129" s="9">
-        <v>7235</v>
+        <v>339</v>
       </c>
       <c r="G129" s="9">
-        <v>1048</v>
+        <v>4318</v>
       </c>
       <c r="H129" s="9">
-        <v>339</v>
+        <v>1940</v>
       </c>
       <c r="I129" s="9">
-        <v>4318</v>
+        <v>6540</v>
       </c>
       <c r="J129" s="9">
-        <v>1940</v>
+        <v>40554</v>
       </c>
       <c r="K129" s="9">
-        <v>6540</v>
+        <v>37506</v>
       </c>
       <c r="L129" s="9">
-        <v>40554</v>
+        <v>37583</v>
       </c>
       <c r="M129" s="9">
-        <v>37506</v>
+        <v>12787</v>
       </c>
       <c r="N129" s="9">
-        <v>37583</v>
-      </c>
-    </row>
-    <row r="130" spans="2:14" x14ac:dyDescent="0.25">
+        <v>17810</v>
+      </c>
+    </row>
+    <row r="130" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B130" s="10" t="s">
         <v>34</v>
       </c>
@@ -4782,37 +4782,37 @@
       </c>
       <c r="D130" s="11"/>
       <c r="E130" s="11">
-        <v>9891</v>
+        <v>5942</v>
       </c>
       <c r="F130" s="11">
-        <v>5715</v>
+        <v>10678</v>
       </c>
       <c r="G130" s="11">
-        <v>5942</v>
+        <v>4237</v>
       </c>
       <c r="H130" s="11">
-        <v>10678</v>
+        <v>7946</v>
       </c>
       <c r="I130" s="11">
-        <v>4237</v>
+        <v>11509</v>
       </c>
       <c r="J130" s="11">
-        <v>7946</v>
+        <v>23608</v>
       </c>
       <c r="K130" s="11">
-        <v>11509</v>
+        <v>105729</v>
       </c>
       <c r="L130" s="11">
-        <v>23608</v>
+        <v>212293</v>
       </c>
       <c r="M130" s="11">
-        <v>105729</v>
+        <v>98604</v>
       </c>
       <c r="N130" s="11">
-        <v>212293</v>
-      </c>
-    </row>
-    <row r="131" spans="2:14" x14ac:dyDescent="0.25">
+        <v>136235</v>
+      </c>
+    </row>
+    <row r="131" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B131" s="8" t="s">
         <v>35</v>
       </c>
@@ -4848,10 +4848,10 @@
         <v>1633</v>
       </c>
       <c r="N131" s="9">
-        <v>1633</v>
-      </c>
-    </row>
-    <row r="132" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="132" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B132" s="10" t="s">
         <v>36</v>
       </c>
@@ -4860,37 +4860,37 @@
       </c>
       <c r="D132" s="11"/>
       <c r="E132" s="11">
-        <v>26138</v>
+        <v>18929</v>
       </c>
       <c r="F132" s="11">
-        <v>7804</v>
+        <v>-1</v>
       </c>
       <c r="G132" s="11">
-        <v>18929</v>
+        <v>19877</v>
       </c>
       <c r="H132" s="11">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I132" s="11">
-        <v>19877</v>
+        <v>65825</v>
       </c>
       <c r="J132" s="11">
-        <v>0</v>
+        <v>69414</v>
       </c>
       <c r="K132" s="11">
-        <v>65825</v>
+        <v>155266</v>
       </c>
       <c r="L132" s="11">
-        <v>69414</v>
+        <v>98463</v>
       </c>
       <c r="M132" s="11">
-        <v>155266</v>
+        <v>103622</v>
       </c>
       <c r="N132" s="11">
-        <v>98463</v>
-      </c>
-    </row>
-    <row r="133" spans="2:14" x14ac:dyDescent="0.25">
+        <v>64976</v>
+      </c>
+    </row>
+    <row r="133" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B133" s="8" t="s">
         <v>38</v>
       </c>
@@ -4899,37 +4899,37 @@
       </c>
       <c r="D133" s="9"/>
       <c r="E133" s="9">
-        <v>654</v>
+        <v>7174</v>
       </c>
       <c r="F133" s="9">
-        <v>718</v>
+        <v>17293</v>
       </c>
       <c r="G133" s="9">
-        <v>7174</v>
+        <v>15975</v>
       </c>
       <c r="H133" s="9">
-        <v>17293</v>
+        <v>15034</v>
       </c>
       <c r="I133" s="9">
-        <v>15975</v>
+        <v>10784</v>
       </c>
       <c r="J133" s="9">
-        <v>15034</v>
+        <v>8997</v>
       </c>
       <c r="K133" s="9">
-        <v>10784</v>
+        <v>3605</v>
       </c>
       <c r="L133" s="9">
-        <v>8997</v>
+        <v>104414</v>
       </c>
       <c r="M133" s="9">
-        <v>3605</v>
+        <v>99485</v>
       </c>
       <c r="N133" s="9">
-        <v>104414</v>
-      </c>
-    </row>
-    <row r="134" spans="2:14" x14ac:dyDescent="0.25">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="134" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B134" s="10" t="s">
         <v>39</v>
       </c>
@@ -4940,14 +4940,14 @@
       <c r="E134" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>31</v>
+      <c r="F134" s="11">
+        <v>0</v>
       </c>
       <c r="G134" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="H134" s="11">
-        <v>0</v>
+      <c r="H134" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="I134" s="11" t="s">
         <v>31</v>
@@ -4968,44 +4968,44 @@
         <v>31</v>
       </c>
     </row>
-    <row r="135" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B135" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C135" s="15"/>
       <c r="D135" s="15"/>
       <c r="E135" s="15">
-        <v>51475</v>
+        <v>71604</v>
       </c>
       <c r="F135" s="15">
-        <v>44011</v>
+        <v>57205</v>
       </c>
       <c r="G135" s="15">
-        <v>71604</v>
+        <v>83350</v>
       </c>
       <c r="H135" s="15">
-        <v>57205</v>
+        <v>100630</v>
       </c>
       <c r="I135" s="15">
-        <v>83350</v>
+        <v>178359</v>
       </c>
       <c r="J135" s="15">
-        <v>100630</v>
+        <v>193995</v>
       </c>
       <c r="K135" s="15">
-        <v>178359</v>
+        <v>395969</v>
       </c>
       <c r="L135" s="15">
-        <v>193995</v>
+        <v>588044</v>
       </c>
       <c r="M135" s="15">
-        <v>395969</v>
+        <v>487767</v>
       </c>
       <c r="N135" s="15">
-        <v>588044</v>
-      </c>
-    </row>
-    <row r="136" spans="2:14" x14ac:dyDescent="0.25">
+        <v>373623</v>
+      </c>
+    </row>
+    <row r="136" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -5020,7 +5020,7 @@
       <c r="M136" s="1"/>
       <c r="N136" s="1"/>
     </row>
-    <row r="137" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -5035,7 +5035,7 @@
       <c r="M137" s="1"/>
       <c r="N137" s="1"/>
     </row>
-    <row r="138" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -5050,7 +5050,7 @@
       <c r="M138" s="1"/>
       <c r="N138" s="1"/>
     </row>
-    <row r="139" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B139" s="7" t="s">
         <v>49</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="140" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5102,7 +5102,7 @@
       <c r="M140" s="1"/>
       <c r="N140" s="1"/>
     </row>
-    <row r="141" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B141" s="8" t="s">
         <v>29</v>
       </c>
@@ -5111,37 +5111,37 @@
       </c>
       <c r="D141" s="9"/>
       <c r="E141" s="9">
-        <v>258114</v>
+        <v>611149</v>
       </c>
       <c r="F141" s="9">
-        <v>250608</v>
+        <v>468608</v>
       </c>
       <c r="G141" s="9">
-        <v>611149</v>
+        <v>502909</v>
       </c>
       <c r="H141" s="9">
-        <v>468608</v>
+        <v>469047</v>
       </c>
       <c r="I141" s="9">
-        <v>502909</v>
+        <v>469143</v>
       </c>
       <c r="J141" s="9">
-        <v>469047</v>
+        <v>618601</v>
       </c>
       <c r="K141" s="9">
-        <v>469143</v>
+        <v>618466</v>
       </c>
       <c r="L141" s="9">
-        <v>618601</v>
+        <v>958288</v>
       </c>
       <c r="M141" s="9">
-        <v>618466</v>
+        <v>479655</v>
       </c>
       <c r="N141" s="9">
-        <v>958288</v>
-      </c>
-    </row>
-    <row r="142" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1633674</v>
+      </c>
+    </row>
+    <row r="142" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B142" s="10" t="s">
         <v>32</v>
       </c>
@@ -5150,37 +5150,37 @@
       </c>
       <c r="D142" s="11"/>
       <c r="E142" s="11">
-        <v>63373</v>
+        <v>39509</v>
       </c>
       <c r="F142" s="11">
-        <v>62394</v>
+        <v>90011</v>
       </c>
       <c r="G142" s="11">
-        <v>39509</v>
+        <v>60587</v>
       </c>
       <c r="H142" s="11">
-        <v>90011</v>
+        <v>99194</v>
       </c>
       <c r="I142" s="11">
-        <v>60587</v>
+        <v>98920</v>
       </c>
       <c r="J142" s="11">
-        <v>99194</v>
+        <v>114788</v>
       </c>
       <c r="K142" s="11">
-        <v>98920</v>
+        <v>130844</v>
       </c>
       <c r="L142" s="11">
-        <v>114788</v>
+        <v>168683</v>
       </c>
       <c r="M142" s="11">
-        <v>130844</v>
+        <v>138767</v>
       </c>
       <c r="N142" s="11">
-        <v>168683</v>
-      </c>
-    </row>
-    <row r="143" spans="2:14" x14ac:dyDescent="0.25">
+        <v>172148</v>
+      </c>
+    </row>
+    <row r="143" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B143" s="8" t="s">
         <v>33</v>
       </c>
@@ -5189,37 +5189,37 @@
       </c>
       <c r="D143" s="9"/>
       <c r="E143" s="9">
-        <v>157773</v>
+        <v>408665</v>
       </c>
       <c r="F143" s="9">
-        <v>305490</v>
+        <v>368127</v>
       </c>
       <c r="G143" s="9">
-        <v>408665</v>
+        <v>358351</v>
       </c>
       <c r="H143" s="9">
-        <v>368127</v>
+        <v>593540</v>
       </c>
       <c r="I143" s="9">
-        <v>358351</v>
+        <v>596006</v>
       </c>
       <c r="J143" s="9">
-        <v>593540</v>
+        <v>599835</v>
       </c>
       <c r="K143" s="9">
-        <v>596006</v>
+        <v>796426</v>
       </c>
       <c r="L143" s="9">
-        <v>599835</v>
+        <v>799940</v>
       </c>
       <c r="M143" s="9">
-        <v>796426</v>
+        <v>945128</v>
       </c>
       <c r="N143" s="9">
-        <v>799940</v>
-      </c>
-    </row>
-    <row r="144" spans="2:14" x14ac:dyDescent="0.25">
+        <v>809723</v>
+      </c>
+    </row>
+    <row r="144" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B144" s="10" t="s">
         <v>34</v>
       </c>
@@ -5228,37 +5228,37 @@
       </c>
       <c r="D144" s="11"/>
       <c r="E144" s="11">
-        <v>1400942</v>
+        <v>1211318</v>
       </c>
       <c r="F144" s="11">
-        <v>1261471</v>
+        <v>1489879</v>
       </c>
       <c r="G144" s="11">
-        <v>1211318</v>
+        <v>2601852</v>
       </c>
       <c r="H144" s="11">
-        <v>1489879</v>
+        <v>3241775</v>
       </c>
       <c r="I144" s="11">
-        <v>2601852</v>
+        <v>1901867</v>
       </c>
       <c r="J144" s="11">
-        <v>3241775</v>
+        <v>3982353</v>
       </c>
       <c r="K144" s="11">
-        <v>1901867</v>
+        <v>4316694</v>
       </c>
       <c r="L144" s="11">
-        <v>3982353</v>
+        <v>5769659</v>
       </c>
       <c r="M144" s="11">
-        <v>4316694</v>
+        <v>7459084</v>
       </c>
       <c r="N144" s="11">
-        <v>5769659</v>
-      </c>
-    </row>
-    <row r="145" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5617411</v>
+      </c>
+    </row>
+    <row r="145" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B145" s="8" t="s">
         <v>35</v>
       </c>
@@ -5294,10 +5294,10 @@
         <v>140063</v>
       </c>
       <c r="N145" s="9">
-        <v>140063</v>
-      </c>
-    </row>
-    <row r="146" spans="2:14" x14ac:dyDescent="0.25">
+        <v>140890</v>
+      </c>
+    </row>
+    <row r="146" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B146" s="10" t="s">
         <v>36</v>
       </c>
@@ -5305,11 +5305,11 @@
         <v>51</v>
       </c>
       <c r="D146" s="11"/>
-      <c r="E146" s="11">
-        <v>18243</v>
-      </c>
-      <c r="F146" s="11">
-        <v>42336</v>
+      <c r="E146" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="F146" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G146" s="11" t="s">
         <v>31</v>
@@ -5320,23 +5320,23 @@
       <c r="I146" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J146" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="K146" s="11" t="s">
-        <v>31</v>
+      <c r="J146" s="11">
+        <v>39170</v>
+      </c>
+      <c r="K146" s="11">
+        <v>39868</v>
       </c>
       <c r="L146" s="11">
-        <v>39170</v>
+        <v>35948</v>
       </c>
       <c r="M146" s="11">
-        <v>39868</v>
+        <v>34043</v>
       </c>
       <c r="N146" s="11">
-        <v>35948</v>
-      </c>
-    </row>
-    <row r="147" spans="2:14" x14ac:dyDescent="0.25">
+        <v>36597</v>
+      </c>
+    </row>
+    <row r="147" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B147" s="8" t="s">
         <v>38</v>
       </c>
@@ -5345,37 +5345,37 @@
       </c>
       <c r="D147" s="9"/>
       <c r="E147" s="9">
-        <v>67259</v>
+        <v>82824</v>
       </c>
       <c r="F147" s="9">
-        <v>52203</v>
+        <v>111050</v>
       </c>
       <c r="G147" s="9">
-        <v>82824</v>
+        <v>111354</v>
       </c>
       <c r="H147" s="9">
-        <v>111050</v>
+        <v>106799</v>
       </c>
       <c r="I147" s="9">
-        <v>111354</v>
+        <v>106810</v>
       </c>
       <c r="J147" s="9">
-        <v>106799</v>
+        <v>114491</v>
       </c>
       <c r="K147" s="9">
-        <v>106810</v>
+        <v>112430</v>
       </c>
       <c r="L147" s="9">
-        <v>114491</v>
+        <v>245221</v>
       </c>
       <c r="M147" s="9">
-        <v>112430</v>
+        <v>3714082</v>
       </c>
       <c r="N147" s="9">
-        <v>245221</v>
-      </c>
-    </row>
-    <row r="148" spans="2:14" x14ac:dyDescent="0.25">
+        <v>336175</v>
+      </c>
+    </row>
+    <row r="148" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5390,7 +5390,7 @@
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
     </row>
-    <row r="149" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5405,7 +5405,7 @@
       <c r="M149" s="1"/>
       <c r="N149" s="1"/>
     </row>
-    <row r="150" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5420,7 +5420,7 @@
       <c r="M150" s="1"/>
       <c r="N150" s="1"/>
     </row>
-    <row r="151" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B151" s="7" t="s">
         <v>52</v>
       </c>
@@ -5457,7 +5457,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="152" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5472,7 +5472,7 @@
       <c r="M152" s="1"/>
       <c r="N152" s="1"/>
     </row>
-    <row r="153" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B153" s="8" t="s">
         <v>29</v>
       </c>
@@ -5481,37 +5481,37 @@
       </c>
       <c r="D153" s="9"/>
       <c r="E153" s="9">
-        <v>259946</v>
-      </c>
-      <c r="F153" s="9" t="s">
-        <v>31</v>
+        <v>570738</v>
+      </c>
+      <c r="F153" s="9">
+        <v>508868</v>
       </c>
       <c r="G153" s="9">
-        <v>570738</v>
+        <v>8364500</v>
       </c>
       <c r="H153" s="9">
-        <v>508868</v>
+        <v>959680</v>
       </c>
       <c r="I153" s="9">
-        <v>8364500</v>
+        <v>440031</v>
       </c>
       <c r="J153" s="9">
-        <v>959680</v>
+        <v>618622</v>
       </c>
       <c r="K153" s="9">
-        <v>440031</v>
+        <v>1635403</v>
       </c>
       <c r="L153" s="9">
-        <v>618622</v>
+        <v>605136</v>
       </c>
       <c r="M153" s="9">
-        <v>1635403</v>
+        <v>2567754</v>
       </c>
       <c r="N153" s="9">
-        <v>605136</v>
-      </c>
-    </row>
-    <row r="154" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1192787</v>
+      </c>
+    </row>
+    <row r="154" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B154" s="10" t="s">
         <v>32</v>
       </c>
@@ -5520,37 +5520,37 @@
       </c>
       <c r="D154" s="11"/>
       <c r="E154" s="11">
-        <v>49069</v>
-      </c>
-      <c r="F154" s="11">
-        <v>14350</v>
+        <v>396271</v>
+      </c>
+      <c r="F154" s="11" t="s">
+        <v>31</v>
       </c>
       <c r="G154" s="11">
-        <v>396271</v>
-      </c>
-      <c r="H154" s="11" t="s">
-        <v>31</v>
+        <v>109464</v>
+      </c>
+      <c r="H154" s="11">
+        <v>98490</v>
       </c>
       <c r="I154" s="11">
-        <v>109464</v>
+        <v>190556</v>
       </c>
       <c r="J154" s="11">
-        <v>98490</v>
+        <v>311132</v>
       </c>
       <c r="K154" s="11">
-        <v>190556</v>
+        <v>211370</v>
       </c>
       <c r="L154" s="11">
-        <v>311132</v>
+        <v>102278</v>
       </c>
       <c r="M154" s="11">
-        <v>211370</v>
+        <v>395706</v>
       </c>
       <c r="N154" s="11">
-        <v>102278</v>
-      </c>
-    </row>
-    <row r="155" spans="2:14" x14ac:dyDescent="0.25">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="155" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B155" s="8" t="s">
         <v>33</v>
       </c>
@@ -5559,37 +5559,37 @@
       </c>
       <c r="D155" s="9"/>
       <c r="E155" s="9">
-        <v>430038</v>
-      </c>
-      <c r="F155" s="9">
-        <v>222181</v>
+        <v>14508475</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="G155" s="9">
-        <v>14508475</v>
-      </c>
-      <c r="H155" s="9" t="s">
-        <v>31</v>
+        <v>1558432</v>
+      </c>
+      <c r="H155" s="9">
+        <v>2295759</v>
       </c>
       <c r="I155" s="9">
-        <v>1558432</v>
+        <v>203645</v>
       </c>
       <c r="J155" s="9">
-        <v>2295759</v>
+        <v>849997</v>
       </c>
       <c r="K155" s="9">
-        <v>203645</v>
-      </c>
-      <c r="L155" s="9">
-        <v>849997</v>
-      </c>
-      <c r="M155" s="9">
         <v>-4701000000</v>
       </c>
+      <c r="L155" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M155" s="9" t="s">
+        <v>31</v>
+      </c>
       <c r="N155" s="9" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="156" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B156" s="10" t="s">
         <v>34</v>
       </c>
@@ -5598,37 +5598,37 @@
       </c>
       <c r="D156" s="11"/>
       <c r="E156" s="11">
-        <v>983617</v>
+        <v>1767411</v>
       </c>
       <c r="F156" s="11">
-        <v>1030638</v>
+        <v>3501654</v>
       </c>
       <c r="G156" s="11">
-        <v>1767411</v>
+        <v>6271618</v>
       </c>
       <c r="H156" s="11">
-        <v>3501654</v>
+        <v>2329836</v>
       </c>
       <c r="I156" s="11">
-        <v>6271618</v>
+        <v>5618456</v>
       </c>
       <c r="J156" s="11">
-        <v>2329836</v>
+        <v>4400034</v>
       </c>
       <c r="K156" s="11">
-        <v>5618456</v>
+        <v>6377332</v>
       </c>
       <c r="L156" s="11">
-        <v>4400034</v>
+        <v>7814197</v>
       </c>
       <c r="M156" s="11">
-        <v>6377332</v>
+        <v>2164130</v>
       </c>
       <c r="N156" s="11">
-        <v>7814197</v>
-      </c>
-    </row>
-    <row r="157" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5398279</v>
+      </c>
+    </row>
+    <row r="157" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B157" s="8" t="s">
         <v>36</v>
       </c>
@@ -5637,37 +5637,37 @@
       </c>
       <c r="D157" s="9"/>
       <c r="E157" s="9">
-        <v>19323</v>
+        <v>29121</v>
       </c>
       <c r="F157" s="9">
-        <v>39870</v>
+        <v>35394</v>
       </c>
       <c r="G157" s="9">
-        <v>29121</v>
+        <v>39541</v>
       </c>
       <c r="H157" s="9">
-        <v>35394</v>
+        <v>44959</v>
       </c>
       <c r="I157" s="9">
-        <v>39541</v>
+        <v>28564</v>
       </c>
       <c r="J157" s="9">
-        <v>44959</v>
+        <v>38000</v>
       </c>
       <c r="K157" s="9">
-        <v>28564</v>
-      </c>
-      <c r="L157" s="9">
-        <v>38000</v>
+        <v>34104</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>31</v>
       </c>
       <c r="M157" s="9">
-        <v>34104</v>
-      </c>
-      <c r="N157" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="158" spans="2:14" x14ac:dyDescent="0.25">
+        <v>33082</v>
+      </c>
+      <c r="N157" s="9">
+        <v>40500</v>
+      </c>
+    </row>
+    <row r="158" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B158" s="10" t="s">
         <v>38</v>
       </c>
@@ -5676,37 +5676,37 @@
       </c>
       <c r="D158" s="11"/>
       <c r="E158" s="11">
-        <v>139977</v>
+        <v>157884</v>
       </c>
       <c r="F158" s="11">
-        <v>253136</v>
+        <v>111491</v>
       </c>
       <c r="G158" s="11">
-        <v>157884</v>
+        <v>76338</v>
       </c>
       <c r="H158" s="11">
-        <v>111491</v>
+        <v>-2000000</v>
       </c>
       <c r="I158" s="11">
-        <v>76338</v>
+        <v>41152</v>
       </c>
       <c r="J158" s="11">
-        <v>-2000000</v>
+        <v>183061</v>
       </c>
       <c r="K158" s="11">
-        <v>41152</v>
+        <v>-293212</v>
       </c>
       <c r="L158" s="11">
-        <v>183061</v>
+        <v>340454</v>
       </c>
       <c r="M158" s="11">
-        <v>-293212</v>
+        <v>509780</v>
       </c>
       <c r="N158" s="11">
-        <v>340454</v>
-      </c>
-    </row>
-    <row r="159" spans="2:14" x14ac:dyDescent="0.25">
+        <v>498911</v>
+      </c>
+    </row>
+    <row r="159" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5721,7 +5721,7 @@
       <c r="M159" s="1"/>
       <c r="N159" s="1"/>
     </row>
-    <row r="160" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5736,7 +5736,7 @@
       <c r="M160" s="1"/>
       <c r="N160" s="1"/>
     </row>
-    <row r="161" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5751,7 +5751,7 @@
       <c r="M161" s="1"/>
       <c r="N161" s="1"/>
     </row>
-    <row r="162" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B162" s="7" t="s">
         <v>53</v>
       </c>
@@ -5788,7 +5788,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="163" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5803,7 +5803,7 @@
       <c r="M163" s="1"/>
       <c r="N163" s="1"/>
     </row>
-    <row r="164" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B164" s="8" t="s">
         <v>29</v>
       </c>
@@ -5812,37 +5812,37 @@
       </c>
       <c r="D164" s="9"/>
       <c r="E164" s="9">
-        <v>258404</v>
+        <v>694783</v>
       </c>
       <c r="F164" s="9">
-        <v>53682</v>
+        <v>502958</v>
       </c>
       <c r="G164" s="9">
-        <v>694783</v>
+        <v>2856828</v>
       </c>
       <c r="H164" s="9">
-        <v>502958</v>
+        <v>1303409</v>
       </c>
       <c r="I164" s="9">
-        <v>2856828</v>
+        <v>303764</v>
       </c>
       <c r="J164" s="9">
-        <v>1303409</v>
+        <v>618623</v>
       </c>
       <c r="K164" s="9">
-        <v>303764</v>
+        <v>2094018</v>
       </c>
       <c r="L164" s="9">
-        <v>618623</v>
+        <v>1038787</v>
       </c>
       <c r="M164" s="9">
-        <v>2094018</v>
+        <v>1528310</v>
       </c>
       <c r="N164" s="9">
-        <v>1038787</v>
-      </c>
-    </row>
-    <row r="165" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1275115</v>
+      </c>
+    </row>
+    <row r="165" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B165" s="10" t="s">
         <v>32</v>
       </c>
@@ -5851,37 +5851,37 @@
       </c>
       <c r="D165" s="11"/>
       <c r="E165" s="11">
-        <v>59841</v>
+        <v>215813</v>
       </c>
       <c r="F165" s="11">
-        <v>-14677</v>
+        <v>110914</v>
       </c>
       <c r="G165" s="11">
-        <v>215813</v>
+        <v>90441</v>
       </c>
       <c r="H165" s="11">
-        <v>110914</v>
+        <v>98324</v>
       </c>
       <c r="I165" s="11">
-        <v>90441</v>
+        <v>159771</v>
       </c>
       <c r="J165" s="11">
-        <v>98324</v>
+        <v>130842</v>
       </c>
       <c r="K165" s="11">
-        <v>159771</v>
+        <v>181690</v>
       </c>
       <c r="L165" s="11">
-        <v>130842</v>
+        <v>92707</v>
       </c>
       <c r="M165" s="11">
-        <v>181690</v>
+        <v>271604</v>
       </c>
       <c r="N165" s="11">
-        <v>92707</v>
-      </c>
-    </row>
-    <row r="166" spans="2:14" x14ac:dyDescent="0.25">
+        <v>193643</v>
+      </c>
+    </row>
+    <row r="166" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B166" s="8" t="s">
         <v>33</v>
       </c>
@@ -5890,37 +5890,37 @@
       </c>
       <c r="D166" s="9"/>
       <c r="E166" s="9">
-        <v>203187</v>
-      </c>
-      <c r="F166" s="9" t="s">
-        <v>31</v>
+        <v>617013</v>
+      </c>
+      <c r="F166" s="9">
+        <v>370398</v>
       </c>
       <c r="G166" s="9">
-        <v>617013</v>
+        <v>2186155</v>
       </c>
       <c r="H166" s="9">
-        <v>370398</v>
+        <v>1496558</v>
       </c>
       <c r="I166" s="9">
-        <v>2186155</v>
+        <v>-172099</v>
       </c>
       <c r="J166" s="9">
-        <v>1496558</v>
+        <v>850084</v>
       </c>
       <c r="K166" s="9">
-        <v>-172099</v>
+        <v>1921398</v>
       </c>
       <c r="L166" s="9">
-        <v>850084</v>
+        <v>139587</v>
       </c>
       <c r="M166" s="9">
-        <v>1921398</v>
+        <v>1670883</v>
       </c>
       <c r="N166" s="9">
-        <v>139587</v>
-      </c>
-    </row>
-    <row r="167" spans="2:14" x14ac:dyDescent="0.25">
+        <v>800033</v>
+      </c>
+    </row>
+    <row r="167" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B167" s="10" t="s">
         <v>34</v>
       </c>
@@ -5929,37 +5929,37 @@
       </c>
       <c r="D167" s="11"/>
       <c r="E167" s="11">
-        <v>1150462</v>
+        <v>1714748</v>
       </c>
       <c r="F167" s="11">
-        <v>1135382</v>
+        <v>2602419</v>
       </c>
       <c r="G167" s="11">
-        <v>1714748</v>
+        <v>4832210</v>
       </c>
       <c r="H167" s="11">
-        <v>2602419</v>
+        <v>2835170</v>
       </c>
       <c r="I167" s="11">
-        <v>4832210</v>
+        <v>4608968</v>
       </c>
       <c r="J167" s="11">
-        <v>2835170</v>
+        <v>4316787</v>
       </c>
       <c r="K167" s="11">
-        <v>4608968</v>
+        <v>6365822</v>
       </c>
       <c r="L167" s="11">
-        <v>4316787</v>
+        <v>5335327</v>
       </c>
       <c r="M167" s="11">
-        <v>6365822</v>
+        <v>6982146</v>
       </c>
       <c r="N167" s="11">
-        <v>5335327</v>
-      </c>
-    </row>
-    <row r="168" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5374210</v>
+      </c>
+    </row>
+    <row r="168" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B168" s="8" t="s">
         <v>35</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="169" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B169" s="10" t="s">
         <v>36</v>
       </c>
@@ -6007,37 +6007,37 @@
       </c>
       <c r="D169" s="11"/>
       <c r="E169" s="11">
-        <v>13429</v>
+        <v>22930</v>
       </c>
       <c r="F169" s="11">
-        <v>47404</v>
+        <v>35394</v>
       </c>
       <c r="G169" s="11">
-        <v>22930</v>
+        <v>40045</v>
       </c>
       <c r="H169" s="11">
-        <v>35394</v>
+        <v>43844</v>
       </c>
       <c r="I169" s="11">
-        <v>40045</v>
+        <v>21578</v>
       </c>
       <c r="J169" s="11">
-        <v>43844</v>
+        <v>36999</v>
       </c>
       <c r="K169" s="11">
-        <v>21578</v>
+        <v>35180</v>
       </c>
       <c r="L169" s="11">
-        <v>36999</v>
+        <v>39808</v>
       </c>
       <c r="M169" s="11">
-        <v>35180</v>
+        <v>31022</v>
       </c>
       <c r="N169" s="11">
-        <v>39808</v>
-      </c>
-    </row>
-    <row r="170" spans="2:14" x14ac:dyDescent="0.25">
+        <v>35500</v>
+      </c>
+    </row>
+    <row r="170" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B170" s="8" t="s">
         <v>38</v>
       </c>
@@ -6046,37 +6046,37 @@
       </c>
       <c r="D170" s="9"/>
       <c r="E170" s="9">
-        <v>123146</v>
+        <v>261924</v>
       </c>
       <c r="F170" s="9">
-        <v>257368</v>
+        <v>111424</v>
       </c>
       <c r="G170" s="9">
-        <v>261924</v>
+        <v>104441</v>
       </c>
       <c r="H170" s="9">
-        <v>111424</v>
+        <v>106856</v>
       </c>
       <c r="I170" s="9">
-        <v>104441</v>
+        <v>123658</v>
       </c>
       <c r="J170" s="9">
-        <v>106856</v>
+        <v>162240</v>
       </c>
       <c r="K170" s="9">
-        <v>123658</v>
+        <v>227431</v>
       </c>
       <c r="L170" s="9">
-        <v>162240</v>
+        <v>355468</v>
       </c>
       <c r="M170" s="9">
-        <v>227431</v>
+        <v>442130</v>
       </c>
       <c r="N170" s="9">
-        <v>355468</v>
-      </c>
-    </row>
-    <row r="171" spans="2:14" x14ac:dyDescent="0.25">
+        <v>489812</v>
+      </c>
+    </row>
+    <row r="171" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -6091,7 +6091,7 @@
       <c r="M171" s="1"/>
       <c r="N171" s="1"/>
     </row>
-    <row r="172" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -6106,7 +6106,7 @@
       <c r="M172" s="1"/>
       <c r="N172" s="1"/>
     </row>
-    <row r="173" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -6121,7 +6121,7 @@
       <c r="M173" s="1"/>
       <c r="N173" s="1"/>
     </row>
-    <row r="174" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B174" s="7" t="s">
         <v>54</v>
       </c>
@@ -6158,7 +6158,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="175" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -6173,7 +6173,7 @@
       <c r="M175" s="1"/>
       <c r="N175" s="1"/>
     </row>
-    <row r="176" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B176" s="8" t="s">
         <v>29</v>
       </c>
@@ -6184,35 +6184,35 @@
       <c r="E176" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F176" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G176" s="9" t="s">
-        <v>31</v>
+      <c r="F176" s="9">
+        <v>502909</v>
+      </c>
+      <c r="G176" s="9">
+        <v>469047</v>
       </c>
       <c r="H176" s="9">
-        <v>502909</v>
+        <v>469143</v>
       </c>
       <c r="I176" s="9">
-        <v>469047</v>
+        <v>618601</v>
       </c>
       <c r="J176" s="9">
-        <v>469143</v>
+        <v>618466</v>
       </c>
       <c r="K176" s="9">
-        <v>618601</v>
+        <v>958288</v>
       </c>
       <c r="L176" s="9">
-        <v>618466</v>
+        <v>479655</v>
       </c>
       <c r="M176" s="9">
-        <v>958288</v>
+        <v>1633277</v>
       </c>
       <c r="N176" s="9">
-        <v>479655</v>
-      </c>
-    </row>
-    <row r="177" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1395327</v>
+      </c>
+    </row>
+    <row r="177" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B177" s="10" t="s">
         <v>32</v>
       </c>
@@ -6223,35 +6223,35 @@
       <c r="E177" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F177" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G177" s="11" t="s">
-        <v>31</v>
+      <c r="F177" s="11">
+        <v>60587</v>
+      </c>
+      <c r="G177" s="11">
+        <v>99194</v>
       </c>
       <c r="H177" s="11">
-        <v>60587</v>
+        <v>98920</v>
       </c>
       <c r="I177" s="11">
-        <v>99194</v>
+        <v>114788</v>
       </c>
       <c r="J177" s="11">
-        <v>98920</v>
+        <v>130844</v>
       </c>
       <c r="K177" s="11">
-        <v>114788</v>
+        <v>168683</v>
       </c>
       <c r="L177" s="11">
-        <v>130844</v>
+        <v>138767</v>
       </c>
       <c r="M177" s="11">
-        <v>168683</v>
+        <v>176713</v>
       </c>
       <c r="N177" s="11">
-        <v>138767</v>
-      </c>
-    </row>
-    <row r="178" spans="2:14" x14ac:dyDescent="0.25">
+        <v>169693</v>
+      </c>
+    </row>
+    <row r="178" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B178" s="8" t="s">
         <v>33</v>
       </c>
@@ -6262,35 +6262,35 @@
       <c r="E178" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F178" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G178" s="9" t="s">
-        <v>31</v>
+      <c r="F178" s="9">
+        <v>358351</v>
+      </c>
+      <c r="G178" s="9">
+        <v>593540</v>
       </c>
       <c r="H178" s="9">
-        <v>358351</v>
+        <v>596006</v>
       </c>
       <c r="I178" s="9">
-        <v>593540</v>
+        <v>599835</v>
       </c>
       <c r="J178" s="9">
-        <v>596006</v>
+        <v>796426</v>
       </c>
       <c r="K178" s="9">
-        <v>599835</v>
+        <v>799940</v>
       </c>
       <c r="L178" s="9">
-        <v>796426</v>
+        <v>945128</v>
       </c>
       <c r="M178" s="9">
-        <v>799940</v>
+        <v>450564</v>
       </c>
       <c r="N178" s="9">
-        <v>945128</v>
-      </c>
-    </row>
-    <row r="179" spans="2:14" x14ac:dyDescent="0.25">
+        <v>812426</v>
+      </c>
+    </row>
+    <row r="179" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B179" s="10" t="s">
         <v>34</v>
       </c>
@@ -6301,35 +6301,35 @@
       <c r="E179" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="F179" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G179" s="11" t="s">
-        <v>31</v>
+      <c r="F179" s="11">
+        <v>2601852</v>
+      </c>
+      <c r="G179" s="11">
+        <v>3241775</v>
       </c>
       <c r="H179" s="11">
-        <v>2601852</v>
+        <v>1901867</v>
       </c>
       <c r="I179" s="11">
-        <v>3241775</v>
+        <v>3982353</v>
       </c>
       <c r="J179" s="11">
-        <v>1901867</v>
+        <v>4316694</v>
       </c>
       <c r="K179" s="11">
-        <v>3982353</v>
+        <v>5769659</v>
       </c>
       <c r="L179" s="11">
-        <v>4316694</v>
+        <v>7459084</v>
       </c>
       <c r="M179" s="11">
-        <v>5769659</v>
+        <v>4680718</v>
       </c>
       <c r="N179" s="11">
-        <v>7459084</v>
-      </c>
-    </row>
-    <row r="180" spans="2:14" x14ac:dyDescent="0.25">
+        <v>5598315</v>
+      </c>
+    </row>
+    <row r="180" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B180" s="8" t="s">
         <v>35</v>
       </c>
@@ -6340,11 +6340,11 @@
       <c r="E180" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F180" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G180" s="9" t="s">
-        <v>31</v>
+      <c r="F180" s="9">
+        <v>140063</v>
+      </c>
+      <c r="G180" s="9">
+        <v>140063</v>
       </c>
       <c r="H180" s="9">
         <v>140063</v>
@@ -6362,13 +6362,13 @@
         <v>140063</v>
       </c>
       <c r="M180" s="9">
-        <v>140063</v>
+        <v>141153</v>
       </c>
       <c r="N180" s="9">
-        <v>140063</v>
-      </c>
-    </row>
-    <row r="181" spans="2:14" x14ac:dyDescent="0.25">
+        <v>140890</v>
+      </c>
+    </row>
+    <row r="181" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B181" s="10" t="s">
         <v>36</v>
       </c>
@@ -6382,32 +6382,32 @@
       <c r="F181" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G181" s="11" t="s">
-        <v>31</v>
+      <c r="G181" s="11">
+        <v>43442</v>
       </c>
       <c r="H181" s="11" t="s">
         <v>31</v>
       </c>
       <c r="I181" s="11">
-        <v>43442</v>
-      </c>
-      <c r="J181" s="11" t="s">
-        <v>31</v>
+        <v>39170</v>
+      </c>
+      <c r="J181" s="11">
+        <v>39868</v>
       </c>
       <c r="K181" s="11">
-        <v>39170</v>
+        <v>35948</v>
       </c>
       <c r="L181" s="11">
-        <v>39868</v>
+        <v>34043</v>
       </c>
       <c r="M181" s="11">
-        <v>35948</v>
+        <v>35332</v>
       </c>
       <c r="N181" s="11">
-        <v>34043</v>
-      </c>
-    </row>
-    <row r="182" spans="2:14" x14ac:dyDescent="0.25">
+        <v>38893</v>
+      </c>
+    </row>
+    <row r="182" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B182" s="8" t="s">
         <v>38</v>
       </c>
@@ -6418,35 +6418,35 @@
       <c r="E182" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="F182" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G182" s="9" t="s">
-        <v>31</v>
+      <c r="F182" s="9">
+        <v>111354</v>
+      </c>
+      <c r="G182" s="9">
+        <v>106799</v>
       </c>
       <c r="H182" s="9">
-        <v>111354</v>
+        <v>106810</v>
       </c>
       <c r="I182" s="9">
-        <v>106799</v>
+        <v>114491</v>
       </c>
       <c r="J182" s="9">
-        <v>106810</v>
+        <v>112430</v>
       </c>
       <c r="K182" s="9">
-        <v>114491</v>
+        <v>245221</v>
       </c>
       <c r="L182" s="9">
-        <v>112430</v>
+        <v>3714082</v>
       </c>
       <c r="M182" s="9">
-        <v>245221</v>
+        <v>20195899</v>
       </c>
       <c r="N182" s="9">
-        <v>3714082</v>
-      </c>
-    </row>
-    <row r="183" spans="2:14" x14ac:dyDescent="0.25">
+        <v>489673</v>
+      </c>
+    </row>
+    <row r="183" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -6461,7 +6461,7 @@
       <c r="M183" s="1"/>
       <c r="N183" s="1"/>
     </row>
-    <row r="184" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -6476,7 +6476,7 @@
       <c r="M184" s="1"/>
       <c r="N184" s="1"/>
     </row>
-    <row r="185" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -6491,7 +6491,7 @@
       <c r="M185" s="1"/>
       <c r="N185" s="1"/>
     </row>
-    <row r="186" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B186" s="7" t="s">
         <v>55</v>
       </c>
@@ -6528,7 +6528,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="187" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6543,32 +6543,32 @@
       <c r="M187" s="1"/>
       <c r="N187" s="1"/>
     </row>
-    <row r="188" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B188" s="8" t="s">
         <v>56</v>
       </c>
       <c r="C188" s="9"/>
       <c r="D188" s="9"/>
       <c r="E188" s="9">
-        <v>0</v>
+        <v>-26887</v>
       </c>
       <c r="F188" s="9">
-        <v>26887</v>
+        <v>0</v>
       </c>
       <c r="G188" s="9">
-        <v>-26887</v>
+        <v>0</v>
       </c>
       <c r="H188" s="9">
-        <v>0</v>
+        <v>50709</v>
       </c>
       <c r="I188" s="9">
-        <v>0</v>
+        <v>-50709</v>
       </c>
       <c r="J188" s="9">
-        <v>50709</v>
+        <v>0</v>
       </c>
       <c r="K188" s="9">
-        <v>-50709</v>
+        <v>0</v>
       </c>
       <c r="L188" s="9">
         <v>0</v>
@@ -6580,7 +6580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B189" s="10" t="s">
         <v>57</v>
       </c>
@@ -6617,7 +6617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B190" s="8" t="s">
         <v>58</v>
       </c>
@@ -6654,7 +6654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B191" s="10" t="s">
         <v>59</v>
       </c>
@@ -6691,7 +6691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B192" s="8" t="s">
         <v>60</v>
       </c>
@@ -6728,118 +6728,118 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B193" s="10" t="s">
         <v>61</v>
       </c>
       <c r="C193" s="11"/>
       <c r="D193" s="11"/>
       <c r="E193" s="11">
-        <v>57874</v>
+        <v>40838</v>
       </c>
       <c r="F193" s="11">
-        <v>39930</v>
+        <v>43495</v>
       </c>
       <c r="G193" s="11">
-        <v>40838</v>
+        <v>153380</v>
       </c>
       <c r="H193" s="11">
-        <v>43495</v>
+        <v>51821</v>
       </c>
       <c r="I193" s="11">
-        <v>153380</v>
+        <v>271734</v>
       </c>
       <c r="J193" s="11">
-        <v>51821</v>
+        <v>40967</v>
       </c>
       <c r="K193" s="11">
-        <v>271734</v>
+        <v>450989</v>
       </c>
       <c r="L193" s="11">
-        <v>40967</v>
+        <v>110305</v>
       </c>
       <c r="M193" s="11">
-        <v>450989</v>
+        <v>386205</v>
       </c>
       <c r="N193" s="11">
-        <v>110305</v>
-      </c>
-    </row>
-    <row r="194" spans="2:14" x14ac:dyDescent="0.25">
+        <v>117371</v>
+      </c>
+    </row>
+    <row r="194" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B194" s="8" t="s">
         <v>62</v>
       </c>
       <c r="C194" s="9"/>
       <c r="D194" s="9"/>
       <c r="E194" s="9">
-        <v>55685</v>
+        <v>27845</v>
       </c>
       <c r="F194" s="9">
-        <v>-1231</v>
+        <v>26870</v>
       </c>
       <c r="G194" s="9">
-        <v>27845</v>
+        <v>29116</v>
       </c>
       <c r="H194" s="9">
-        <v>26870</v>
+        <v>53</v>
       </c>
       <c r="I194" s="9">
-        <v>29116</v>
+        <v>59428</v>
       </c>
       <c r="J194" s="9">
-        <v>53</v>
+        <v>27380</v>
       </c>
       <c r="K194" s="9">
-        <v>59428</v>
+        <v>33659</v>
       </c>
       <c r="L194" s="9">
-        <v>27380</v>
+        <v>30519</v>
       </c>
       <c r="M194" s="9">
-        <v>33659</v>
+        <v>33242</v>
       </c>
       <c r="N194" s="9">
-        <v>30519</v>
-      </c>
-    </row>
-    <row r="195" spans="2:14" x14ac:dyDescent="0.25">
+        <v>32044</v>
+      </c>
+    </row>
+    <row r="195" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B195" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C195" s="11"/>
       <c r="D195" s="11"/>
       <c r="E195" s="11">
-        <v>133958</v>
+        <v>202218</v>
       </c>
       <c r="F195" s="11">
-        <v>37881</v>
+        <v>144880</v>
       </c>
       <c r="G195" s="11">
-        <v>202218</v>
+        <v>218220</v>
       </c>
       <c r="H195" s="11">
-        <v>144880</v>
+        <v>161330</v>
       </c>
       <c r="I195" s="11">
-        <v>218220</v>
+        <v>197038</v>
       </c>
       <c r="J195" s="11">
-        <v>161330</v>
+        <v>203538</v>
       </c>
       <c r="K195" s="11">
-        <v>197038</v>
+        <v>243420</v>
       </c>
       <c r="L195" s="11">
-        <v>203538</v>
+        <v>168029</v>
       </c>
       <c r="M195" s="11">
-        <v>243420</v>
+        <v>416664</v>
       </c>
       <c r="N195" s="11">
-        <v>168029</v>
-      </c>
-    </row>
-    <row r="196" spans="2:14" x14ac:dyDescent="0.25">
+        <v>293518</v>
+      </c>
+    </row>
+    <row r="196" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B196" s="8" t="s">
         <v>64</v>
       </c>
@@ -6876,81 +6876,81 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B197" s="10" t="s">
         <v>65</v>
       </c>
       <c r="C197" s="11"/>
       <c r="D197" s="11"/>
       <c r="E197" s="11">
-        <v>79179</v>
+        <v>171225</v>
       </c>
       <c r="F197" s="11">
-        <v>43326</v>
+        <v>117357</v>
       </c>
       <c r="G197" s="11">
-        <v>171225</v>
+        <v>133290</v>
       </c>
       <c r="H197" s="11">
-        <v>117357</v>
+        <v>116931</v>
       </c>
       <c r="I197" s="11">
-        <v>133290</v>
+        <v>227783</v>
       </c>
       <c r="J197" s="11">
-        <v>116931</v>
+        <v>345809</v>
       </c>
       <c r="K197" s="11">
-        <v>227783</v>
+        <v>181364</v>
       </c>
       <c r="L197" s="11">
-        <v>345809</v>
+        <v>359233</v>
       </c>
       <c r="M197" s="11">
-        <v>181364</v>
+        <v>366768</v>
       </c>
       <c r="N197" s="11">
-        <v>359233</v>
-      </c>
-    </row>
-    <row r="198" spans="2:14" x14ac:dyDescent="0.25">
+        <v>663753</v>
+      </c>
+    </row>
+    <row r="198" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B198" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C198" s="15"/>
       <c r="D198" s="15"/>
       <c r="E198" s="15">
-        <v>326696</v>
+        <v>415239</v>
       </c>
       <c r="F198" s="15">
-        <v>146793</v>
+        <v>332602</v>
       </c>
       <c r="G198" s="15">
-        <v>415239</v>
+        <v>534006</v>
       </c>
       <c r="H198" s="15">
-        <v>332602</v>
+        <v>380844</v>
       </c>
       <c r="I198" s="15">
-        <v>534006</v>
+        <v>705274</v>
       </c>
       <c r="J198" s="15">
-        <v>380844</v>
+        <v>617694</v>
       </c>
       <c r="K198" s="15">
-        <v>705274</v>
+        <v>909432</v>
       </c>
       <c r="L198" s="15">
-        <v>617694</v>
+        <v>668086</v>
       </c>
       <c r="M198" s="15">
-        <v>909432</v>
+        <v>1202879</v>
       </c>
       <c r="N198" s="15">
-        <v>668086</v>
-      </c>
-    </row>
-    <row r="199" spans="2:14" x14ac:dyDescent="0.25">
+        <v>1106686</v>
+      </c>
+    </row>
+    <row r="199" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -6965,7 +6965,7 @@
       <c r="M199" s="1"/>
       <c r="N199" s="1"/>
     </row>
-    <row r="200" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -6980,7 +6980,7 @@
       <c r="M200" s="1"/>
       <c r="N200" s="1"/>
     </row>
-    <row r="201" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -6995,7 +6995,7 @@
       <c r="M201" s="1"/>
       <c r="N201" s="1"/>
     </row>
-    <row r="202" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B202" s="7" t="s">
         <v>66</v>
       </c>
@@ -7012,7 +7012,7 @@
       <c r="M202" s="1"/>
       <c r="N202" s="1"/>
     </row>
-    <row r="203" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -7027,7 +7027,7 @@
       <c r="M203" s="1"/>
       <c r="N203" s="1"/>
     </row>
-    <row r="204" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B204" s="8" t="s">
         <v>67</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="M204" s="1"/>
       <c r="N204" s="1"/>
     </row>
-    <row r="205" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B205" s="10" t="s">
         <v>69</v>
       </c>
@@ -7057,7 +7057,7 @@
       <c r="E205" s="11"/>
       <c r="F205" s="11"/>
     </row>
-    <row r="206" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B206" s="8" t="s">
         <v>71</v>
       </c>
@@ -7068,7 +7068,7 @@
       <c r="E206" s="9"/>
       <c r="F206" s="9"/>
     </row>
-    <row r="207" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B207" s="10" t="s">
         <v>73</v>
       </c>
@@ -7079,7 +7079,7 @@
       <c r="E207" s="11"/>
       <c r="F207" s="11"/>
     </row>
-    <row r="208" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B208" s="8" t="s">
         <v>75</v>
       </c>
@@ -7090,7 +7090,7 @@
       <c r="E208" s="9"/>
       <c r="F208" s="9"/>
     </row>
-    <row r="209" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B209" s="10" t="s">
         <v>77</v>
       </c>
@@ -7101,7 +7101,7 @@
       <c r="E209" s="11"/>
       <c r="F209" s="11"/>
     </row>
-    <row r="210" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B210" s="8" t="s">
         <v>79</v>
       </c>
@@ -7112,7 +7112,7 @@
       <c r="E210" s="9"/>
       <c r="F210" s="9"/>
     </row>
-    <row r="211" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B211" s="10" t="s">
         <v>81</v>
       </c>
@@ -7123,7 +7123,7 @@
       <c r="E211" s="11"/>
       <c r="F211" s="11"/>
     </row>
-    <row r="212" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B212" s="8" t="s">
         <v>83</v>
       </c>
@@ -7134,7 +7134,7 @@
       <c r="E212" s="9"/>
       <c r="F212" s="9"/>
     </row>
-    <row r="213" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B213" s="10" t="s">
         <v>85</v>
       </c>
@@ -7145,7 +7145,7 @@
       <c r="E213" s="11"/>
       <c r="F213" s="11"/>
     </row>
-    <row r="214" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B214" s="8" t="s">
         <v>86</v>
       </c>
@@ -7156,7 +7156,7 @@
       <c r="E214" s="9"/>
       <c r="F214" s="9"/>
     </row>
-    <row r="215" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B215" s="10" t="s">
         <v>88</v>
       </c>
